--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="594">
   <si>
     <t>ID</t>
   </si>
@@ -223,6 +223,222 @@
     <t>6171b558a1c87a7e6c50c3d7</t>
   </si>
   <si>
+    <t>6197b58889cfe006315a2882</t>
+  </si>
+  <si>
+    <t>6197b62ccea5f944cc746674</t>
+  </si>
+  <si>
+    <t>6197b6863d884e693502fe0c</t>
+  </si>
+  <si>
+    <t>6197b70871e3d12b2c06a14f</t>
+  </si>
+  <si>
+    <t>6197b781be996c425b6087b0</t>
+  </si>
+  <si>
+    <t>6197b7bdcb4de65cec4b6b05</t>
+  </si>
+  <si>
+    <t>6197d0aa573f327c49473ca1</t>
+  </si>
+  <si>
+    <t>6197b82fa72dab3eaa0de8c0</t>
+  </si>
+  <si>
+    <t>6197b86d4310ff3559187192</t>
+  </si>
+  <si>
+    <t>6197b8ee7dab8144ca2c4741</t>
+  </si>
+  <si>
+    <t>6197b940772e7c4b583cd50a</t>
+  </si>
+  <si>
+    <t>6197b9baa72dab3eaa0de8c7</t>
+  </si>
+  <si>
+    <t>6197ba057601ed24791385c7</t>
+  </si>
+  <si>
+    <t>6197ba6716969b5cc67dc543</t>
+  </si>
+  <si>
+    <t>6197ba8b094e9f31181725c1</t>
+  </si>
+  <si>
+    <t>6197baaa64e40b505d2b4f2d</t>
+  </si>
+  <si>
+    <t>6197bab806397d0841399d11</t>
+  </si>
+  <si>
+    <t>6197ceafd8ae445f49665dde</t>
+  </si>
+  <si>
+    <t>6197cef08f4dfc68936d64fb</t>
+  </si>
+  <si>
+    <t>6197b7f0573f327c49473c91</t>
+  </si>
+  <si>
+    <t>6197cf311a9fdd0e535d7e65</t>
+  </si>
+  <si>
+    <t>6197cf446ddca24d7e200fd8</t>
+  </si>
+  <si>
+    <t>6197cf9c8cb33d0257217de4</t>
+  </si>
+  <si>
+    <t>6197cfde57e8d2215070afd3</t>
+  </si>
+  <si>
+    <t>6197cff2fce7c231035ca2e0</t>
+  </si>
+  <si>
+    <t>61168aaaf575165d513340b2</t>
+  </si>
+  <si>
+    <t>61168ac6fabe8d0d893ce622</t>
+  </si>
+  <si>
+    <t>616d895c4fd43275cb51893f</t>
+  </si>
+  <si>
+    <t>616d895ebc2b2a553f53bf6d</t>
+  </si>
+  <si>
+    <t>616d895fdd5f077890039780</t>
+  </si>
+  <si>
+    <t>616d8964b1f5893b332e9ce4</t>
+  </si>
+  <si>
+    <t>616d89658dc7791e073e24f7</t>
+  </si>
+  <si>
+    <t>616d89613adb3756764a3086</t>
+  </si>
+  <si>
+    <t>601d8d0e5df88101fa189b5c</t>
+  </si>
+  <si>
+    <t>60589af6876ba841f72d150c</t>
+  </si>
+  <si>
+    <t>60edb06236da34788b4c1567</t>
+  </si>
+  <si>
+    <t>616d8966197e2e0dfb7a65d6</t>
+  </si>
+  <si>
+    <t>60c747b1e3218921147f2c82</t>
+  </si>
+  <si>
+    <t>5ffdbf3793f72459575cdc94</t>
+  </si>
+  <si>
+    <t>61829dd1fb233152ce61d0cc</t>
+  </si>
+  <si>
+    <t>61829df61d96cb794f7985f2</t>
+  </si>
+  <si>
+    <t>61829ec53b038a16de67c74c</t>
+  </si>
+  <si>
+    <t>61829ef92ad9000e3b24e3e6</t>
+  </si>
+  <si>
+    <t>61829f17c13a1e0a3e659b7b</t>
+  </si>
+  <si>
+    <t>61829f3815e1b62d22600abd</t>
+  </si>
+  <si>
+    <t>61829fa8c95316759040d54a</t>
+  </si>
+  <si>
+    <t>61829fc4c55f6460c95561fb</t>
+  </si>
+  <si>
+    <t>61829fe618f21856d4018d64</t>
+  </si>
+  <si>
+    <t>6182a00694132c702a5fcb3c</t>
+  </si>
+  <si>
+    <t>6182a02e7b40ce453472fd5e</t>
+  </si>
+  <si>
+    <t>6182a04ec95316759040d54c</t>
+  </si>
+  <si>
+    <t>6182a07d89377f4f84142637</t>
+  </si>
+  <si>
+    <t>6182a0b318f21856d4018d66</t>
+  </si>
+  <si>
+    <t>6182a0c2505c1933651c3471</t>
+  </si>
+  <si>
+    <t>6182a10af281107a3002b30a</t>
+  </si>
+  <si>
+    <t>6182a12cad9341305925da42</t>
+  </si>
+  <si>
+    <t>6182a14b5d8fff32c7000498</t>
+  </si>
+  <si>
+    <t>6182a16831db7215d52e870a</t>
+  </si>
+  <si>
+    <t>618a9199393fbc6c437c882d</t>
+  </si>
+  <si>
+    <t>6182a1a98ce0720ee6565efe</t>
+  </si>
+  <si>
+    <t>6182a1d9bf994e28564c2b0b</t>
+  </si>
+  <si>
+    <t>6182a1f9342bd71da7787775</t>
+  </si>
+  <si>
+    <t>6182a287ed9d7726956e4fbf</t>
+  </si>
+  <si>
+    <t>6182a2cfe979662bfb4f11bb</t>
+  </si>
+  <si>
+    <t>6182d43e34a2e75b89446e8c</t>
+  </si>
+  <si>
+    <t>6182d47e7fa7103a4e7d1336</t>
+  </si>
+  <si>
+    <t>6182d49b8ce0720ee6565f59</t>
+  </si>
+  <si>
+    <t>6182d51046899e4b2e38d843</t>
+  </si>
+  <si>
+    <t>6182d550f281107a3002b32d</t>
+  </si>
+  <si>
+    <t>6182d56bc55f6460c955620d</t>
+  </si>
+  <si>
+    <t>618a9223c9fd3619be1a2d8e</t>
+  </si>
+  <si>
+    <t>6182d5a67f8d0a023b1a3310</t>
+  </si>
+  <si>
     <t>Steak stir-fry with broccoli, carrots, and sesame seeds</t>
   </si>
   <si>
@@ -664,6 +880,219 @@
     <t>Crispy Garlic-Herb Gnocchi with Creamy Basil Pesto</t>
   </si>
   <si>
+    <t>Garlic Rosemary Chicken with Roasted Root Veggies</t>
+  </si>
+  <si>
+    <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Zucchini &amp; Garlic Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Sweet Chili Pork Tacos with Red Cabbage Slaw, Zesty Crema &amp; Peanuts</t>
+  </si>
+  <si>
+    <t>Blistered Tomato &amp; Feta Penne with Italian Seasoned Kale</t>
+  </si>
+  <si>
+    <t>Dijon Butter Steak with Roasted Green Beans &amp; Rosemary Potatoes</t>
+  </si>
+  <si>
+    <t>Peanut Chicken Stir-Fry Bowls with Garlic Rice &amp; Pickled Cucumber Salad</t>
+  </si>
+  <si>
+    <t>Gooey Stuffed Pork Burgers with BBQ Onion &amp; Crispy Potato Wedges</t>
+  </si>
+  <si>
+    <t>Creamy Chicken Sausage Penne plus Zucchini &amp; Melty Mozz</t>
+  </si>
+  <si>
+    <t>Cowboy Skillet Pie with Poblano &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Pork Chops over Cabbage Stir-Fry with Jasmine Rice &amp; Tangy Chili Sauce</t>
+  </si>
+  <si>
+    <t>Lemon Chive Chicken Legs with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
+  </si>
+  <si>
+    <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Lemon Herb Potatoes</t>
+  </si>
+  <si>
+    <t>Lemon Butter Barramundi a Light, Flaky, Buttery Fish with Carrots &amp; Rice</t>
+  </si>
+  <si>
+    <t>Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
+  </si>
+  <si>
+    <t>Shallot &amp; Snap Pea Flatbreads with Peppery Cream Sauce</t>
+  </si>
+  <si>
+    <t>Lemon Herb Risotto With Chicken and Tomato-Bacon Jam</t>
+  </si>
+  <si>
+    <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Green Beans &amp; Garlic Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Sweet Chili Chicken Tacos with Red Cabbage Slaw, Zesty Crema &amp; Peanuts</t>
+  </si>
+  <si>
+    <t>Gooey Stuffed Pork Burgers with BBQ Onion &amp; Crispy Sweet Potato Wedges</t>
+  </si>
+  <si>
+    <t>Steak over Cabbage Stir-Fry with Jasmine Rice &amp; Tangy Chili Sauce</t>
+  </si>
+  <si>
+    <t>Lemon Chive Chicken Breasts with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
+  </si>
+  <si>
+    <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Sweet Potato Wedges</t>
+  </si>
+  <si>
+    <t>Beef, Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Cheese-tastic Southwestern Hash with Bacon, Peppers, Sour Cream &amp; a Fried Egg</t>
+  </si>
+  <si>
+    <t>4 Chicken Breasts + 2 Ranch Steaks 2 Servings Plan: 4 (5 oz) Chicken Breasts &amp; 2 (5 oz) Ranch Steaks</t>
+  </si>
+  <si>
+    <t>CREAMY CHICKEN &amp; POTATO SOUP corn, roasted red peppers, sharp cheddar cheese, chives</t>
+  </si>
+  <si>
+    <t>SRIRACHA-TAMARI BEEF BOWLS jasmine rice, broccoli, cabbage &amp; carrots, peanuts, sesame seeds</t>
+  </si>
+  <si>
+    <t>APRICOT-GLAZED PORK MEATBALLS pearl couscous, kale salad with radishes, carrots &amp; pistachios</t>
+  </si>
+  <si>
+    <t>ITALIAN HERB-SEASONED BARRAMUNDI kale, artichoke &amp; roasted red pepper couscous, almonds</t>
+  </si>
+  <si>
+    <t>TRUFFLE BUTTER STEAKS roasted potato wedges, broccoli with Parmesan</t>
+  </si>
+  <si>
+    <t>STEAK &amp; SHRIMP WITH SPICY PEPERONATA Parmesan cheese, pine nuts, parsley-basil pepita pesto</t>
+  </si>
+  <si>
+    <t>MEDITERRANEAN-STYLE CHICKEN SALAD kale, sautéed yellow squash, gremolata, lemon aïoli</t>
+  </si>
+  <si>
+    <t>SPICED BEEF &amp; CAULIFLOWER “RICE” roasted carrots, roasted almonds, lemon-scallion crema</t>
+  </si>
+  <si>
+    <t>HONEY-MUSTARD SALMON smoky roasted rainbow carrots, sautéed broccoli</t>
+  </si>
+  <si>
+    <t>CREAMY TOMATO CHICKPEA SPAGHETTI Barilla® Chickpea Spaghetti, Parmesan-crusted cauliflower, peas</t>
+  </si>
+  <si>
+    <t>ROASTED CHICKPEA &amp; CARROT BOWLS kale, rice with dates &amp; feta, creamy turmeric-spiced vinaigrette</t>
+  </si>
+  <si>
+    <t>SPICY MUSHROOM STIR-FRY jasmine rice, broccoli, red bell pepper, carrot, cabbage</t>
+  </si>
+  <si>
+    <t>Homestyle Chicken &amp; Biscuit Pot Pie with Pillsbury™️ Buttermilk Southern Homestyle Biscuits, Carrots &amp; Celery</t>
+  </si>
+  <si>
+    <t>Southwest Beef Cavatappi with Poblano &amp; Smoky Red Pepper Crema</t>
+  </si>
+  <si>
+    <t>Hoisin-Glazed Pork Tenderloin with Scallion Rice, Ponzu Roasted Green Beans &amp; Sriracha Mayo</t>
+  </si>
+  <si>
+    <t>San Antonio Beef Bowls with Blue Corn Tortilla Chips, Fresh Salsa &amp; Lime Crema</t>
+  </si>
+  <si>
+    <t>One-Pan Moo Shu Pork Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
+  </si>
+  <si>
+    <t>Crunchy Italian Chicken Sheet Pan Bake with Spiced Potatoes &amp; Lemony Green Beans</t>
+  </si>
+  <si>
+    <t>Lil’ Sweet Lil’ Spicy Chicken with Roasted Carrots &amp; Cheesy Garlic Potato Wedges</t>
+  </si>
+  <si>
+    <t>Garden Spinach Ricotta Ravioli with Zucchini Ribbons, Tomato &amp; Creamy Lemon Sauce</t>
+  </si>
+  <si>
+    <t>Zucchini &amp; Tomato Flatbreads with Lemon Ricotta, Fresh Herbs, Honey &amp; Chili Flakes</t>
+  </si>
+  <si>
+    <t>One-Pan Smashed Black Bean Tacos with Creamy Slaw, Pickled Onion &amp; Red Pepper Crema</t>
+  </si>
+  <si>
+    <t>Peppercorn-Crusted Beef Tenderloin with Chive Butter, Asparagus Amandine &amp; Mashed Sweet Potatoes</t>
+  </si>
+  <si>
+    <t>Chicken Ramen in a Shoyu-Style Broth with Carrots, Chili Garlic Oil &amp; Crispy Onions</t>
+  </si>
+  <si>
+    <t>Spicy Shrimp &amp; Broccoli Stir-Fry in a Sweet Chili Soy Glaze over Jasmine Rice</t>
+  </si>
+  <si>
+    <t>Gametime Chicken Sausage &amp; Pepper Subs with Mixed Green Salad &amp; Balsamic Vinaigrette</t>
+  </si>
+  <si>
+    <t>Hibachi Sweet Soy Bavette Steak &amp; Shrimp with Garlic Rice, Sesame-Roasted Zucchini &amp; Spicy Special Sauce</t>
+  </si>
+  <si>
+    <t>Butter-Basted Chicken with Candied Bacon Brussels Sprouts &amp; Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Smoky Brown Sugar Chicken Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
+  </si>
+  <si>
+    <t>One-Pot Pork &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
+  </si>
+  <si>
+    <t>Lone Star Poblano Mac &amp; Cheese with a Crispy Panko Topping</t>
+  </si>
+  <si>
+    <t>Black Bean &amp; Charred Corn Burrito Bowls with Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
+  </si>
+  <si>
+    <t>Crunchy Curried Chickpea Bowls with Golden Raisins &amp; Pickled Cabbage</t>
+  </si>
+  <si>
+    <t>Pepper Jam Pork Tenderloin Plus a Kale &amp; Sweet Potato Jumble</t>
+  </si>
+  <si>
+    <t>Italian Garden Veggie Soup with Kale, Pearled Couscous &amp; Garlic Bread</t>
+  </si>
+  <si>
+    <t>Orange Chicken with Jasmine Rice</t>
+  </si>
+  <si>
+    <t>Middle Eastern Spiced Turkey Bowls with Bulgur, Zucchini &amp; Cilantro Yogurt</t>
+  </si>
+  <si>
+    <t>Hoisin-Glazed Chicken with Scallion Rice, Ponzu Roasted Green Beans &amp; Sriracha Mayo</t>
+  </si>
+  <si>
+    <t>One-Pan Moo Shu Shrimp Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
+  </si>
+  <si>
+    <t>Garden Spinach Ricotta Ravioli with Italian Chicken Sausage</t>
+  </si>
+  <si>
+    <t>Smoky Brown Sugar Beef Tenderloin Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
+  </si>
+  <si>
+    <t>One-Pot Beef &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
+  </si>
+  <si>
+    <t>Lone Star Poblano Mac &amp; Cheese with Bacon and a Crispy Panko Topping</t>
+  </si>
+  <si>
+    <t>Shrimp &amp; Black Bean Burrito Bowls with Charred Corn, Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
+  </si>
+  <si>
+    <t>Crunchy Curried Chickpea Bowls with Chicken, Golden Raisins &amp; Pickled Cabbage</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/steak-stir-fry-with-broccoli-carrots-and-sesame-seeds</t>
   </si>
   <si>
@@ -1135,6 +1564,222 @@
     <t>https://www.blueapron.com/recipes/thai-chicken-curry-peanut-noodles-with-carrots-shishito-peppers-a83d9e72-a810-4d6b-8ead-fb90b1beea0d</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/garlic-rosemary-chicken-6197b58889cfe006315a2882</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197b62ccea5f944cc746674</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-chili-pork-tacos-6197b6863d884e693502fe0c</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/blistered-tomato-feta-penne-6197b70871e3d12b2c06a14f</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/dijon-butter-steak-6197b781be996c425b6087b0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/peanut-chicken-stir-fry-bowls-6197b7bdcb4de65cec4b6b05</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/gooey-stuffed-pork-burgers-6197d0aa573f327c49473ca1</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/creamy-chicken-sausage-penne-6197b82fa72dab3eaa0de8c0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cowboy-skillet-pie-6197b86d4310ff3559187192</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/pork-chops-over-cabbage-stir-fry-6197b8ee7dab8144ca2c4741</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-chive-chicken-legs-6197b940772e7c4b583cd50a</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197b9baa72dab3eaa0de8c7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-butter-barramundi-6197ba057601ed24791385c7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-potato-black-bean-stew-6197ba6716969b5cc67dc543</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/shallot-snap-pea-flatbreads-6197baaa64e40b505d2b4f2d</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-herb-risotto-with-chicken-6197bab806397d0841399d11</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197ceafd8ae445f49665dde</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-tacos-6197cef08f4dfc68936d64fb</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/gooey-stuffed-pork-burgers-6197b7f0573f327c49473c91</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/steak-over-cabbage-stir-fry-6197cf311a9fdd0e535d7e65</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-chive-chicken-breasts-6197cf446ddca24d7e200fd8</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197cf9c8cb33d0257217de4</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/beef-sweet-potato-black-bean-stew-6197cfde57e8d2215070afd3</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197cff2fce7c231035ca2e0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/6-chicken-breasts-61168aaaf575165d513340b2</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/4-chicken-breasts-2-ranch-steaks-61168ac6fabe8d0d893ce622</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/creamy-chicken-potato-soup-616d895c4fd43275cb51893f</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/sriracha-tamari-beef-bowls-616d895ebc2b2a553f53bf6d</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/apricot-glazed-pork-meatballs-616d895fdd5f077890039780</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/italian-herb-seasoned-barramundi-616d8964b1f5893b332e9ce4</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/truffle-butter-steaks-616d89658dc7791e073e24f7</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/steak-shrimp-with-spicy-peperonata-616d89613adb3756764a3086</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/mediterranean-style-chicken-salad-601d8d0e5df88101fa189b5c</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/spiced-beef-cauliflower-rice-60589af6876ba841f72d150c</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/honey-mustard-salmon-60edb06236da34788b4c1567</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/creamy-tomato-chickpea-spaghetti-616d8966197e2e0dfb7a65d6</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/roasted-chickpea-carrot-bowls-60c747b1e3218921147f2c82</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/spicy-mushroom-stir-fry-5ffdbf3793f72459575cdc94</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/homestyle-chicken-biscuit-pot-pie-61829dd1fb233152ce61d0cc</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/southwest-beef-cavatappi-61829df61d96cb794f7985f2</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/hoisin-glazed-pork-tenderloin-61829ec53b038a16de67c74c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/san-antonio-beef-bowls-61829ef92ad9000e3b24e3e6</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-pork-bowls-61829f17c13a1e0a3e659b7b</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crunchy-italian-chicken-sheet-pan-bake-61829f3815e1b62d22600abd</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/lil-sweet-lil-spicy-chicken-61829fa8c95316759040d54a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-61829fc4c55f6460c95561fb</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/zucchini-and-tomato-flatbreads-61829fe618f21856d4018d64</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-smashed-black-bean-tacos-6182a00694132c702a5fcb3c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/peppercorn-crusted-beef-tenderloin-6182a02e7b40ce453472fd5e</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/chicken-ramen-in-a-shoyu-style-broth-6182a04ec95316759040d54c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/spicy-shrimp-broccoli-stir-fry-6182a07d89377f4f84142637</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/gametime-chicken-sausage-pepper-subs-6182a0b318f21856d4018d66</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/hibachi-sweet-soy-bavette-steak-shrimp-6182a0c2505c1933651c3471</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/butter-basted-chicken-6182a10af281107a3002b30a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-chicken-salad-6182a12cad9341305925da42</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-pork-black-bean-chili-6182a14b5d8fff32c7000498</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182a16831db7215d52e870a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/black-bean-charred-corn-burrito-bowls-618a9199393fbc6c437c882d</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182a1a98ce0720ee6565efe</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/pepper-jam-pork-tenderloin-6182a1d9bf994e28564c2b0b</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/italian-garden-veggie-soup-6182a1f9342bd71da7787775</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/orange-chicken-6182a287ed9d7726956e4fbf</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/middle-eastern-spiced-turkey-bowls-6182a2cfe979662bfb4f11bb</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/hoisin-glazed-chicken-6182d43e34a2e75b89446e8c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-shrimp-bowls-6182d47e7fa7103a4e7d1336</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-6182d49b8ce0720ee6565f59</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-beef-tenderloin-salad-6182d51046899e4b2e38d843</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-beef-black-bean-chili-6182d550f281107a3002b32d</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182d56bc55f6460c955620d</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/shrimp-black-bean-burrito-bowls-618a9223c9fd3619be1a2d8e</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182d5a67f8d0a023b1a3310</t>
+  </si>
+  <si>
     <t>Sunbasket</t>
   </si>
   <si>
@@ -1145,6 +1790,12 @@
   </si>
   <si>
     <t>EveryPlate</t>
+  </si>
+  <si>
+    <t>Green Chef</t>
+  </si>
+  <si>
+    <t>Hello Fresh</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +2166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1540,13 +2191,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>216</v>
+        <v>359</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1554,13 +2205,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1568,13 +2219,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1582,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="D5" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1596,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1610,13 +2261,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>221</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1624,13 +2275,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>222</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1638,13 +2289,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>223</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1652,13 +2303,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1666,13 +2317,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>225</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1680,13 +2331,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>226</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1694,13 +2345,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1708,13 +2359,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>228</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1722,13 +2373,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1736,13 +2387,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1750,13 +2401,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1764,13 +2415,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1778,13 +2429,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>233</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1792,13 +2443,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1806,13 +2457,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>235</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1820,13 +2471,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1834,13 +2485,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1848,13 +2499,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>238</v>
+        <v>381</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1862,13 +2513,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1876,13 +2527,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>240</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1890,13 +2541,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>241</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1904,13 +2555,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1918,13 +2569,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1932,13 +2583,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>244</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1946,13 +2597,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1960,13 +2611,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>246</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1974,13 +2625,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1988,13 +2639,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>248</v>
+        <v>391</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2002,13 +2653,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>249</v>
+        <v>392</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2016,13 +2667,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="D36" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2030,13 +2681,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>251</v>
+        <v>394</v>
       </c>
       <c r="D37" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2044,13 +2695,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>252</v>
+        <v>395</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2058,695 +2709,695 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>253</v>
+        <v>396</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>254</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="D41" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>256</v>
+        <v>399</v>
       </c>
       <c r="D42" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>257</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="B44" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>402</v>
       </c>
       <c r="D45" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>260</v>
+        <v>403</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="D47" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="B48" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>262</v>
+        <v>405</v>
       </c>
       <c r="D48" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>263</v>
+        <v>406</v>
       </c>
       <c r="D49" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>264</v>
+        <v>407</v>
       </c>
       <c r="D50" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>265</v>
+        <v>408</v>
       </c>
       <c r="D51" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>266</v>
+        <v>409</v>
       </c>
       <c r="D52" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="D53" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>268</v>
+        <v>411</v>
       </c>
       <c r="D54" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>269</v>
+        <v>412</v>
       </c>
       <c r="D55" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="D56" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="D57" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>272</v>
+        <v>415</v>
       </c>
       <c r="D58" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>274</v>
+        <v>417</v>
       </c>
       <c r="D60" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>275</v>
+        <v>418</v>
       </c>
       <c r="D61" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>419</v>
       </c>
       <c r="D62" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>277</v>
+        <v>420</v>
       </c>
       <c r="D63" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>278</v>
+        <v>421</v>
       </c>
       <c r="D64" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>279</v>
+        <v>422</v>
       </c>
       <c r="D65" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
       <c r="D66" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>281</v>
+        <v>424</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>282</v>
+        <v>425</v>
       </c>
       <c r="D68" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>283</v>
+        <v>426</v>
       </c>
       <c r="D69" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>284</v>
+        <v>427</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>285</v>
+        <v>428</v>
       </c>
       <c r="D71" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="D72" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>287</v>
+        <v>430</v>
       </c>
       <c r="D73" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>288</v>
+        <v>431</v>
       </c>
       <c r="D74" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>289</v>
+        <v>432</v>
       </c>
       <c r="D75" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>290</v>
+        <v>433</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="D77" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>292</v>
+        <v>435</v>
       </c>
       <c r="D78" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>293</v>
+        <v>436</v>
       </c>
       <c r="D79" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>294</v>
+        <v>437</v>
       </c>
       <c r="D80" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>295</v>
+        <v>438</v>
       </c>
       <c r="D81" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="D82" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>297</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>298</v>
+        <v>441</v>
       </c>
       <c r="D84" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>299</v>
+        <v>442</v>
       </c>
       <c r="D85" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>300</v>
+        <v>443</v>
       </c>
       <c r="D86" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="D87" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>302</v>
+        <v>445</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>303</v>
+        <v>446</v>
       </c>
       <c r="D89" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>304</v>
+        <v>447</v>
       </c>
       <c r="D90" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>305</v>
+        <v>448</v>
       </c>
       <c r="D91" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>306</v>
+        <v>449</v>
       </c>
       <c r="D92" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>307</v>
+        <v>450</v>
       </c>
       <c r="D93" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>308</v>
+        <v>451</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>309</v>
+        <v>452</v>
       </c>
       <c r="D95" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>310</v>
+        <v>453</v>
       </c>
       <c r="D96" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="B97" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="D97" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="B98" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>312</v>
+        <v>455</v>
       </c>
       <c r="D98" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="B99" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>313</v>
+        <v>456</v>
       </c>
       <c r="D99" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="B100" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>314</v>
+        <v>457</v>
       </c>
       <c r="D100" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="B101" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>315</v>
+        <v>458</v>
       </c>
       <c r="D101" t="s">
-        <v>375</v>
+        <v>590</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2754,13 +3405,13 @@
         <v>42</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>316</v>
+        <v>459</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2768,13 +3419,13 @@
         <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>317</v>
+        <v>460</v>
       </c>
       <c r="D103" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2782,13 +3433,13 @@
         <v>44</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>318</v>
+        <v>461</v>
       </c>
       <c r="D104" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2796,13 +3447,13 @@
         <v>45</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>319</v>
+        <v>462</v>
       </c>
       <c r="D105" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2810,13 +3461,13 @@
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>320</v>
+        <v>463</v>
       </c>
       <c r="D106" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2824,13 +3475,13 @@
         <v>47</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>321</v>
+        <v>464</v>
       </c>
       <c r="D107" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2838,13 +3489,13 @@
         <v>48</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>322</v>
+        <v>465</v>
       </c>
       <c r="D108" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2852,13 +3503,13 @@
         <v>49</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="D109" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2866,13 +3517,13 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>324</v>
+        <v>467</v>
       </c>
       <c r="D110" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2880,13 +3531,13 @@
         <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="D111" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2894,13 +3545,13 @@
         <v>52</v>
       </c>
       <c r="B112" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="D112" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2908,13 +3559,13 @@
         <v>53</v>
       </c>
       <c r="B113" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>327</v>
+        <v>470</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2922,13 +3573,13 @@
         <v>54</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>328</v>
+        <v>471</v>
       </c>
       <c r="D114" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2936,13 +3587,13 @@
         <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>329</v>
+        <v>472</v>
       </c>
       <c r="D115" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2950,13 +3601,13 @@
         <v>56</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2964,13 +3615,13 @@
         <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>331</v>
+        <v>474</v>
       </c>
       <c r="D117" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2978,13 +3629,13 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="D118" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2992,13 +3643,13 @@
         <v>59</v>
       </c>
       <c r="B119" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>333</v>
+        <v>476</v>
       </c>
       <c r="D119" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3006,13 +3657,13 @@
         <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>334</v>
+        <v>477</v>
       </c>
       <c r="D120" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3020,13 +3671,13 @@
         <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>335</v>
+        <v>478</v>
       </c>
       <c r="D121" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3034,13 +3685,13 @@
         <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>336</v>
+        <v>479</v>
       </c>
       <c r="D122" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3048,13 +3699,13 @@
         <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>337</v>
+        <v>480</v>
       </c>
       <c r="D123" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3062,13 +3713,13 @@
         <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>338</v>
+        <v>481</v>
       </c>
       <c r="D124" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3076,13 +3727,13 @@
         <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>339</v>
+        <v>482</v>
       </c>
       <c r="D125" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3090,13 +3741,13 @@
         <v>66</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>340</v>
+        <v>483</v>
       </c>
       <c r="D126" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3104,13 +3755,13 @@
         <v>67</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>341</v>
+        <v>484</v>
       </c>
       <c r="D127" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3118,343 +3769,1351 @@
         <v>68</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>342</v>
+        <v>485</v>
       </c>
       <c r="D128" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>343</v>
+        <v>486</v>
       </c>
       <c r="D129" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>344</v>
+        <v>487</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>345</v>
+        <v>488</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>346</v>
+        <v>489</v>
       </c>
       <c r="D132" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>347</v>
+        <v>490</v>
       </c>
       <c r="D133" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>348</v>
+        <v>491</v>
       </c>
       <c r="D134" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>349</v>
+        <v>492</v>
       </c>
       <c r="D135" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>350</v>
+        <v>493</v>
       </c>
       <c r="D136" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="D137" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>352</v>
+        <v>495</v>
       </c>
       <c r="D138" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="D139" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>354</v>
+        <v>497</v>
       </c>
       <c r="D140" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>355</v>
+        <v>498</v>
       </c>
       <c r="D141" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>356</v>
+        <v>499</v>
       </c>
       <c r="D142" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>357</v>
+        <v>500</v>
       </c>
       <c r="D143" t="s">
-        <v>374</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D144" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="B145" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D145" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="B146" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D146" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="B147" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D147" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="B148" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D148" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="B149" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D149" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="B150" t="s">
+        <v>280</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D150" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="B151" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D151" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D152" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="B153" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D153" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D154" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="B155" t="s">
+        <v>285</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D155" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="B156" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D156" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="B157" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D157" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="B158" t="s">
+        <v>279</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D158" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>69</v>
+      </c>
+      <c r="B159" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D159" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D160" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D161" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D162" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>73</v>
+      </c>
+      <c r="B163" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D163" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>74</v>
+      </c>
+      <c r="B164" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D164" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D165" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166" t="s">
+        <v>295</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D166" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>77</v>
+      </c>
+      <c r="B167" t="s">
+        <v>296</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D167" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" t="s">
+        <v>297</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D168" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>79</v>
+      </c>
+      <c r="B169" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D169" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>80</v>
+      </c>
+      <c r="B170" t="s">
+        <v>299</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D170" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171" t="s">
+        <v>300</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D171" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>82</v>
+      </c>
+      <c r="B172" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D172" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" t="s">
+        <v>302</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D173" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174" t="s">
+        <v>303</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D174" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>85</v>
+      </c>
+      <c r="B175" t="s">
+        <v>304</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D175" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>86</v>
+      </c>
+      <c r="B176" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D176" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D177" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>88</v>
+      </c>
+      <c r="B178" t="s">
+        <v>307</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D178" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>89</v>
+      </c>
+      <c r="B179" t="s">
+        <v>308</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D179" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180" t="s">
+        <v>309</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D180" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>91</v>
+      </c>
+      <c r="B181" t="s">
+        <v>310</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D181" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>92</v>
+      </c>
+      <c r="B182" t="s">
+        <v>311</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D182" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D183" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>94</v>
+      </c>
+      <c r="B184" t="s">
+        <v>262</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D184" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>95</v>
+      </c>
+      <c r="B185" t="s">
+        <v>313</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D185" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>96</v>
+      </c>
+      <c r="B186" t="s">
+        <v>314</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D186" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>97</v>
+      </c>
+      <c r="B187" t="s">
+        <v>315</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D187" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>98</v>
+      </c>
+      <c r="B188" t="s">
+        <v>316</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D188" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>99</v>
+      </c>
+      <c r="B189" t="s">
+        <v>317</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D189" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>100</v>
+      </c>
+      <c r="B190" t="s">
+        <v>318</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D190" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>101</v>
+      </c>
+      <c r="B191" t="s">
+        <v>319</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D191" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>102</v>
+      </c>
+      <c r="B192" t="s">
+        <v>320</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D192" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>103</v>
+      </c>
+      <c r="B193" t="s">
+        <v>321</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D193" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>104</v>
+      </c>
+      <c r="B194" t="s">
+        <v>322</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D194" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>105</v>
+      </c>
+      <c r="B195" t="s">
+        <v>323</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D195" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>106</v>
+      </c>
+      <c r="B196" t="s">
+        <v>324</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D196" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>107</v>
+      </c>
+      <c r="B197" t="s">
+        <v>325</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D197" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>108</v>
+      </c>
+      <c r="B198" t="s">
+        <v>326</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D198" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>109</v>
+      </c>
+      <c r="B199" t="s">
+        <v>327</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D199" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200" t="s">
+        <v>328</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D200" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>111</v>
+      </c>
+      <c r="B201" t="s">
+        <v>329</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D201" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>112</v>
+      </c>
+      <c r="B202" t="s">
+        <v>330</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D202" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>113</v>
+      </c>
+      <c r="B203" t="s">
+        <v>331</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D203" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>114</v>
+      </c>
+      <c r="B204" t="s">
+        <v>332</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D204" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" t="s">
+        <v>333</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D205" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>116</v>
+      </c>
+      <c r="B206" t="s">
+        <v>334</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D206" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>117</v>
+      </c>
+      <c r="B207" t="s">
+        <v>335</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D207" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>118</v>
+      </c>
+      <c r="B208" t="s">
+        <v>336</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D208" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>119</v>
+      </c>
+      <c r="B209" t="s">
+        <v>337</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D209" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>120</v>
+      </c>
+      <c r="B210" t="s">
+        <v>338</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D210" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>121</v>
+      </c>
+      <c r="B211" t="s">
+        <v>339</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D211" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>122</v>
+      </c>
+      <c r="B212" t="s">
+        <v>340</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D212" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>123</v>
+      </c>
+      <c r="B213" t="s">
+        <v>341</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D213" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>124</v>
+      </c>
+      <c r="B214" t="s">
+        <v>342</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D214" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>125</v>
+      </c>
+      <c r="B215" t="s">
+        <v>343</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D215" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>126</v>
+      </c>
+      <c r="B216" t="s">
+        <v>344</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D216" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>127</v>
+      </c>
+      <c r="B217" t="s">
+        <v>345</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D217" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>128</v>
+      </c>
+      <c r="B218" t="s">
+        <v>346</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D218" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>129</v>
+      </c>
+      <c r="B219" t="s">
+        <v>347</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D219" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>130</v>
+      </c>
+      <c r="B220" t="s">
+        <v>348</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D220" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>131</v>
+      </c>
+      <c r="B221" t="s">
+        <v>349</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D221" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>132</v>
+      </c>
+      <c r="B222" t="s">
+        <v>350</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D222" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>133</v>
+      </c>
+      <c r="B223" t="s">
+        <v>351</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D223" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>134</v>
+      </c>
+      <c r="B224" t="s">
+        <v>352</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D224" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>135</v>
+      </c>
+      <c r="B225" t="s">
+        <v>353</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="D225" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>136</v>
+      </c>
+      <c r="B226" t="s">
+        <v>354</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D226" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>137</v>
+      </c>
+      <c r="B227" t="s">
+        <v>355</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D227" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>138</v>
+      </c>
+      <c r="B228" t="s">
+        <v>356</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D228" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>139</v>
+      </c>
+      <c r="B229" t="s">
+        <v>357</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D229" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>140</v>
+      </c>
+      <c r="B230" t="s">
         <v>358</v>
       </c>
-      <c r="D144" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" t="s">
-        <v>205</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D145" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
-      <c r="B146" t="s">
-        <v>206</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D146" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4">
-      <c r="B147" t="s">
-        <v>205</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D147" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" t="s">
-        <v>207</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D148" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4">
-      <c r="B149" t="s">
-        <v>194</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D149" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" t="s">
-        <v>208</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D150" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" t="s">
-        <v>209</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D151" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" t="s">
-        <v>210</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D152" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" t="s">
-        <v>211</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D153" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" t="s">
-        <v>212</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D154" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="B155" t="s">
-        <v>213</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D155" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="B156" t="s">
-        <v>214</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="D156" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4">
-      <c r="B157" t="s">
-        <v>215</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D157" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4">
-      <c r="B158" t="s">
-        <v>207</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D158" t="s">
-        <v>374</v>
+      <c r="C230" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D230" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -3616,6 +5275,78 @@
     <hyperlink ref="C156" r:id="rId155"/>
     <hyperlink ref="C157" r:id="rId156"/>
     <hyperlink ref="C158" r:id="rId157"/>
+    <hyperlink ref="C159" r:id="rId158"/>
+    <hyperlink ref="C160" r:id="rId159"/>
+    <hyperlink ref="C161" r:id="rId160"/>
+    <hyperlink ref="C162" r:id="rId161"/>
+    <hyperlink ref="C163" r:id="rId162"/>
+    <hyperlink ref="C164" r:id="rId163"/>
+    <hyperlink ref="C165" r:id="rId164"/>
+    <hyperlink ref="C166" r:id="rId165"/>
+    <hyperlink ref="C167" r:id="rId166"/>
+    <hyperlink ref="C168" r:id="rId167"/>
+    <hyperlink ref="C169" r:id="rId168"/>
+    <hyperlink ref="C170" r:id="rId169"/>
+    <hyperlink ref="C171" r:id="rId170"/>
+    <hyperlink ref="C172" r:id="rId171"/>
+    <hyperlink ref="C173" r:id="rId172"/>
+    <hyperlink ref="C174" r:id="rId173"/>
+    <hyperlink ref="C175" r:id="rId174"/>
+    <hyperlink ref="C176" r:id="rId175"/>
+    <hyperlink ref="C177" r:id="rId176"/>
+    <hyperlink ref="C178" r:id="rId177"/>
+    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C180" r:id="rId179"/>
+    <hyperlink ref="C181" r:id="rId180"/>
+    <hyperlink ref="C182" r:id="rId181"/>
+    <hyperlink ref="C183" r:id="rId182"/>
+    <hyperlink ref="C184" r:id="rId183"/>
+    <hyperlink ref="C185" r:id="rId184"/>
+    <hyperlink ref="C186" r:id="rId185"/>
+    <hyperlink ref="C187" r:id="rId186"/>
+    <hyperlink ref="C188" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C190" r:id="rId189"/>
+    <hyperlink ref="C191" r:id="rId190"/>
+    <hyperlink ref="C192" r:id="rId191"/>
+    <hyperlink ref="C193" r:id="rId192"/>
+    <hyperlink ref="C194" r:id="rId193"/>
+    <hyperlink ref="C195" r:id="rId194"/>
+    <hyperlink ref="C196" r:id="rId195"/>
+    <hyperlink ref="C197" r:id="rId196"/>
+    <hyperlink ref="C198" r:id="rId197"/>
+    <hyperlink ref="C199" r:id="rId198"/>
+    <hyperlink ref="C200" r:id="rId199"/>
+    <hyperlink ref="C201" r:id="rId200"/>
+    <hyperlink ref="C202" r:id="rId201"/>
+    <hyperlink ref="C203" r:id="rId202"/>
+    <hyperlink ref="C204" r:id="rId203"/>
+    <hyperlink ref="C205" r:id="rId204"/>
+    <hyperlink ref="C206" r:id="rId205"/>
+    <hyperlink ref="C207" r:id="rId206"/>
+    <hyperlink ref="C208" r:id="rId207"/>
+    <hyperlink ref="C209" r:id="rId208"/>
+    <hyperlink ref="C210" r:id="rId209"/>
+    <hyperlink ref="C211" r:id="rId210"/>
+    <hyperlink ref="C212" r:id="rId211"/>
+    <hyperlink ref="C213" r:id="rId212"/>
+    <hyperlink ref="C214" r:id="rId213"/>
+    <hyperlink ref="C215" r:id="rId214"/>
+    <hyperlink ref="C216" r:id="rId215"/>
+    <hyperlink ref="C217" r:id="rId216"/>
+    <hyperlink ref="C218" r:id="rId217"/>
+    <hyperlink ref="C219" r:id="rId218"/>
+    <hyperlink ref="C220" r:id="rId219"/>
+    <hyperlink ref="C221" r:id="rId220"/>
+    <hyperlink ref="C222" r:id="rId221"/>
+    <hyperlink ref="C223" r:id="rId222"/>
+    <hyperlink ref="C224" r:id="rId223"/>
+    <hyperlink ref="C225" r:id="rId224"/>
+    <hyperlink ref="C226" r:id="rId225"/>
+    <hyperlink ref="C227" r:id="rId226"/>
+    <hyperlink ref="C228" r:id="rId227"/>
+    <hyperlink ref="C229" r:id="rId228"/>
+    <hyperlink ref="C230" r:id="rId229"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="582">
   <si>
     <t>ID</t>
   </si>
@@ -298,9 +298,6 @@
     <t>6197cff2fce7c231035ca2e0</t>
   </si>
   <si>
-    <t>61168aaaf575165d513340b2</t>
-  </si>
-  <si>
     <t>61168ac6fabe8d0d893ce622</t>
   </si>
   <si>
@@ -1219,9 +1216,6 @@
     <t>https://www.blueapron.com/recipes/pan-seared-duck-breasts-with-crispy-duck-fat-rice-sesame-ginger-arugula-salad</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/pan-seared-duck-breasts-with-crispy-duck-fat-rice-sesame-ginger-arugula-salad-3</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-chicken-salmon-4</t>
   </si>
   <si>
@@ -1264,24 +1258,15 @@
     <t>https://www.blueapron.com/recipes/spicy-beef-sesame-noodles-with-bok-choy-ede49315-31fa-40f0-a90b-6fe6c2183bef</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/spicy-beef-sesame-noodles-with-bok-choy</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/tilapia-creamy-curry-sauce-with-sesame-bok-choy-rice-0ac5d768-9571-4054-b0e1-459adfd42b95</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/pork-chorizo-meatballs-poblano-rice-with-chipotle-peanut-sauce</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/creamy-prosciutto-tomato-pasta-with-brown-butter-breadcrumbs-e762f868-4c9e-4d12-a3ed-74973b30792c</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/sheet-pan-pesto-salmon-with-a-roasted-vegetable-medley-6</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/blackened-cajun-burger-with-roasted-sweet-potatoes-spicy-ketchup-3</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/miso-ponzu-beyond-burger-with-sesame-shishitos-mushrooms</t>
   </si>
   <si>
@@ -1480,15 +1465,6 @@
     <t>https://www.blueapron.com/recipes/chicken-farro-grain-bowl-with-arugula-roasted-vegetables</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/surf-turf-steaks-chicken-salmon-shrimp-31</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/specialty-selection-ny-strip-steaks-scallops-prime-ground-beef-29</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/seafood-trio-salmon-shrimp-scallops-31</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/spicy-orange-glazed-yellowtail-fillets-with-fried-rice-candied-cashews</t>
   </si>
   <si>
@@ -1528,15 +1504,9 @@
     <t>https://www.blueapron.com/recipes/seared-steaks-mashed-potatoes-with-sauteed-carrots-homemade-steak-sauce-b618f7b2-87b8-416c-893d-5fa4c26b60c7</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/basil-pesto-gnocchi-with-mushrooms-pistachio-breadcrumbs-027549ac-099a-486a-ae37-8d8956275082</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/thai-chicken-curry-peanut-noodles-with-carrots-shishito-peppers</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/spicy-orange-glazed-yellowtail-fillets-with-fried-rice-candied-cashews-3</t>
-  </si>
-  <si>
     <t>https://www.blueapron.com/recipes/spicy-zucchini-quesadillas-with-poblano-pepper-fried-eggs-dc6e5fae-e73c-4ad6-a5c2-b6ae91a11488</t>
   </si>
   <si>
@@ -1561,9 +1531,6 @@
     <t>https://www.blueapron.com/recipes/crispy-garlic-herb-gnocchi-with-creamy-basil-pesto</t>
   </si>
   <si>
-    <t>https://www.blueapron.com/recipes/thai-chicken-curry-peanut-noodles-with-carrots-shishito-peppers-a83d9e72-a810-4d6b-8ead-fb90b1beea0d</t>
-  </si>
-  <si>
     <t>https://www.everyplate.com/recipes/garlic-rosemary-chicken-6197b58889cfe006315a2882</t>
   </si>
   <si>
@@ -1637,9 +1604,6 @@
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197cff2fce7c231035ca2e0</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/6-chicken-breasts-61168aaaf575165d513340b2</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/4-chicken-breasts-2-ranch-steaks-61168ac6fabe8d0d893ce622</t>
@@ -2166,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D230"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2191,13 +2155,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2205,13 +2169,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D3" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2219,13 +2183,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2233,13 +2197,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D5" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2247,13 +2211,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2261,13 +2225,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2275,13 +2239,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D8" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2289,13 +2253,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D9" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2303,13 +2267,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D10" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2317,13 +2281,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D11" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2331,13 +2295,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D12" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2345,13 +2309,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D13" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2359,13 +2323,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2373,13 +2337,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2387,13 +2351,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D16" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2401,13 +2365,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D17" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2415,13 +2379,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D18" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2429,13 +2393,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2443,13 +2407,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D20" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2457,13 +2421,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2471,13 +2435,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D22" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2485,13 +2449,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2499,13 +2463,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D24" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2513,13 +2477,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D25" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2527,13 +2491,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D26" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2541,13 +2505,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2555,13 +2519,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D28" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2569,13 +2533,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D29" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2583,13 +2547,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D30" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2597,13 +2561,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D31" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2611,13 +2575,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D32" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2625,13 +2589,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D33" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2639,13 +2603,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D34" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2653,13 +2617,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2667,13 +2631,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D36" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2681,13 +2645,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D37" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2695,13 +2659,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D38" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2709,57 +2673,57 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D39" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="B40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D40" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="B41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D41" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="B42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D42" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D43" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2767,10 +2731,10 @@
         <v>182</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2778,10 +2742,10 @@
         <v>183</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D45" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2789,10 +2753,10 @@
         <v>184</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2800,10 +2764,10 @@
         <v>185</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D47" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2811,10 +2775,10 @@
         <v>186</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D48" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="2:4">
@@ -2822,10 +2786,10 @@
         <v>187</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D49" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -2833,10 +2797,10 @@
         <v>188</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D50" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -2844,10 +2808,10 @@
         <v>189</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D51" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -2855,10 +2819,10 @@
         <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D52" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -2866,10 +2830,10 @@
         <v>191</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D53" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="2:4">
@@ -2877,10 +2841,10 @@
         <v>192</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D54" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -2888,10 +2852,10 @@
         <v>193</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D55" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="2:4">
@@ -2899,10 +2863,10 @@
         <v>194</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D56" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -2910,10 +2874,10 @@
         <v>195</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D57" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -2921,2199 +2885,2075 @@
         <v>196</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D58" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D60" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D61" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D63" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D64" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="B65" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D65" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="2:4">
       <c r="B66" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D66" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="2:4">
       <c r="B67" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="2:4">
       <c r="B68" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D68" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="2:4">
       <c r="B69" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D69" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="70" spans="2:4">
       <c r="B70" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="B71" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D71" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="2:4">
       <c r="B72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D72" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D73" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D74" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D75" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D76" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="2:4">
       <c r="B77" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D77" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="B78" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D78" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="2:4">
       <c r="B79" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D79" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="80" spans="2:4">
       <c r="B80" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D81" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D82" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D83" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D85" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D86" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D87" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D88" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D89" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D90" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D91" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D92" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D93" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D94" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="B97" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C97" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D97" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" t="s">
+        <v>236</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D97" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="B98" t="s">
-        <v>233</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" t="s">
+        <v>237</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D98" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="B99" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D99" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="B100" t="s">
-        <v>235</v>
-      </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" t="s">
+        <v>239</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D100" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="B101" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="D101" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D102" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D103" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D104" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D105" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D106" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D107" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D108" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D109" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D110" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D111" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D112" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D113" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D114" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D116" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D117" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D118" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D120" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D121" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D122" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D123" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C124" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D124" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D124" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>65</v>
-      </c>
-      <c r="B125" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D125" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>66</v>
-      </c>
-      <c r="B126" t="s">
-        <v>261</v>
-      </c>
-      <c r="C126" s="2" t="s">
+      <c r="D126" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D126" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127" t="s">
-        <v>262</v>
-      </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D127" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128" t="s">
-        <v>263</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="D128" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
     </row>
     <row r="129" spans="2:4">
       <c r="B129" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D129" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="130" spans="2:4">
       <c r="B130" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D130" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="2:4">
       <c r="B131" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D131" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="2:4">
       <c r="B132" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D132" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="2:4">
       <c r="B133" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D133" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="2:4">
       <c r="B134" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D134" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="135" spans="2:4">
       <c r="B135" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D135" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="136" spans="2:4">
       <c r="B136" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D136" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="2:4">
       <c r="B137" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D137" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="2:4">
       <c r="B138" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D138" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="139" spans="2:4">
       <c r="B139" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D139" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="140" spans="2:4">
       <c r="B140" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D140" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="141" spans="2:4">
       <c r="B141" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D141" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="142" spans="2:4">
       <c r="B142" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D142" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="143" spans="2:4">
       <c r="B143" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="144" spans="2:4">
       <c r="B144" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D144" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="B145" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D145" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="B146" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D146" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="B147" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D147" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="B148" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C148" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D148" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D148" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="B149" t="s">
-        <v>266</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" t="s">
+        <v>288</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D149" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150" t="s">
-        <v>280</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="D150" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151" t="s">
+        <v>289</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D150" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="B151" t="s">
-        <v>281</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D151" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="B152" t="s">
-        <v>282</v>
-      </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D152" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="B153" t="s">
-        <v>283</v>
-      </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D153" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="B154" t="s">
-        <v>284</v>
-      </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D154" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="B155" t="s">
-        <v>285</v>
-      </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156" t="s">
+        <v>294</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D155" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="B156" t="s">
-        <v>286</v>
-      </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D156" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="B157" t="s">
-        <v>287</v>
-      </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>78</v>
+      </c>
+      <c r="B158" t="s">
+        <v>296</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D157" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="B158" t="s">
-        <v>279</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="D158" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B159" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D159" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B160" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D160" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D161" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B162" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D162" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D163" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B164" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D164" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B165" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D165" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B166" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D166" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D167" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B168" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D168" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D169" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D170" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D171" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D172" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D173" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D174" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B175" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D175" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B176" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D176" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B177" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D177" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B178" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D178" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B179" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D179" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B180" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D180" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B181" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D181" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B182" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D182" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B183" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D183" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D184" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B185" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D185" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B186" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D186" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B187" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D187" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B188" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D188" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B189" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D189" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B190" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D190" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D191" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B192" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D192" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B193" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D193" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B194" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D194" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B195" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D195" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B196" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D196" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B197" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D197" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B198" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D198" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B199" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D199" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B200" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D200" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B201" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D201" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B202" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D202" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B203" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D203" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B204" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D204" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B205" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D205" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B206" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D206" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B207" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D207" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B208" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D208" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B209" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D209" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B210" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D210" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B211" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D211" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B212" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D212" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B213" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D213" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B214" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D214" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B215" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D215" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B216" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D216" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B217" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D217" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B218" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D218" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B219" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D219" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>130</v>
-      </c>
-      <c r="B220" t="s">
-        <v>348</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D220" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" t="s">
-        <v>131</v>
-      </c>
-      <c r="B221" t="s">
-        <v>349</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D221" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>132</v>
-      </c>
-      <c r="B222" t="s">
-        <v>350</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D222" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="A223" t="s">
-        <v>133</v>
-      </c>
-      <c r="B223" t="s">
-        <v>351</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="D223" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="A224" t="s">
-        <v>134</v>
-      </c>
-      <c r="B224" t="s">
-        <v>352</v>
-      </c>
-      <c r="C224" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="D224" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" t="s">
-        <v>135</v>
-      </c>
-      <c r="B225" t="s">
-        <v>353</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="D225" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" t="s">
-        <v>136</v>
-      </c>
-      <c r="B226" t="s">
-        <v>354</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D226" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>137</v>
-      </c>
-      <c r="B227" t="s">
-        <v>355</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D227" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="A228" t="s">
-        <v>138</v>
-      </c>
-      <c r="B228" t="s">
-        <v>356</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D228" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="A229" t="s">
-        <v>139</v>
-      </c>
-      <c r="B229" t="s">
-        <v>357</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="D229" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="A230" t="s">
-        <v>140</v>
-      </c>
-      <c r="B230" t="s">
-        <v>358</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="D230" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -5336,17 +5176,6 @@
     <hyperlink ref="C217" r:id="rId216"/>
     <hyperlink ref="C218" r:id="rId217"/>
     <hyperlink ref="C219" r:id="rId218"/>
-    <hyperlink ref="C220" r:id="rId219"/>
-    <hyperlink ref="C221" r:id="rId220"/>
-    <hyperlink ref="C222" r:id="rId221"/>
-    <hyperlink ref="C223" r:id="rId222"/>
-    <hyperlink ref="C224" r:id="rId223"/>
-    <hyperlink ref="C225" r:id="rId224"/>
-    <hyperlink ref="C226" r:id="rId225"/>
-    <hyperlink ref="C227" r:id="rId226"/>
-    <hyperlink ref="C228" r:id="rId227"/>
-    <hyperlink ref="C229" r:id="rId228"/>
-    <hyperlink ref="C230" r:id="rId229"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -28,1738 +28,1738 @@
     <t>Site</t>
   </si>
   <si>
+    <t>61168ac6fabe8d0d893ce622</t>
+  </si>
+  <si>
+    <t>60d5e0a7245f7d03d4402180</t>
+  </si>
+  <si>
+    <t>619e4a8baf05be11d064a137</t>
+  </si>
+  <si>
+    <t>619e556ea1430503f13eeb02</t>
+  </si>
+  <si>
+    <t>6197cfde57e8d2215070afd3</t>
+  </si>
+  <si>
+    <t>6197b70871e3d12b2c06a14f</t>
+  </si>
+  <si>
+    <t>619e4a3e326f172693110d74</t>
+  </si>
+  <si>
+    <t>619e48b7d4756505395c93d3</t>
+  </si>
+  <si>
+    <t>619e54d1da11ff0b564f2d92</t>
+  </si>
+  <si>
+    <t>6197cff2fce7c231035ca2e0</t>
+  </si>
+  <si>
+    <t>6197ba8b094e9f31181725c1</t>
+  </si>
+  <si>
+    <t>6171b558a1c87a7e6c50c3d7</t>
+  </si>
+  <si>
+    <t>619e550e399c360c8d4fbb82</t>
+  </si>
+  <si>
+    <t>6197b86d4310ff3559187192</t>
+  </si>
+  <si>
+    <t>6197b82fa72dab3eaa0de8c0</t>
+  </si>
+  <si>
+    <t>619e49b9b57b714bd713e7c5</t>
+  </si>
+  <si>
+    <t>619e4a84f3260750ee16f0bb</t>
+  </si>
+  <si>
+    <t>6197b781be996c425b6087b0</t>
+  </si>
+  <si>
+    <t>619e55d5e68db7241974db92</t>
+  </si>
+  <si>
+    <t>619e498a10c8d43acf659a1b</t>
+  </si>
+  <si>
+    <t>6197b58889cfe006315a2882</t>
+  </si>
+  <si>
+    <t>6197d0aa573f327c49473ca1</t>
+  </si>
+  <si>
+    <t>6197b7f0573f327c49473c91</t>
+  </si>
+  <si>
+    <t>619e4843ca54df2502158172</t>
+  </si>
+  <si>
+    <t>619e5410440e87540e386f6f</t>
+  </si>
+  <si>
+    <t>619e54895754da49c63a77f2</t>
+  </si>
+  <si>
+    <t>619e487fdbb57840b03afa97</t>
+  </si>
+  <si>
+    <t>619e4896446df24e7560b35d</t>
+  </si>
+  <si>
+    <t>6197ba057601ed24791385c7</t>
+  </si>
+  <si>
+    <t>6197cf446ddca24d7e200fd8</t>
+  </si>
+  <si>
+    <t>6197b940772e7c4b583cd50a</t>
+  </si>
+  <si>
+    <t>6197bab806397d0841399d11</t>
+  </si>
+  <si>
+    <t>619e49374b5a4927ec6e9fde</t>
+  </si>
+  <si>
+    <t>6197b9baa72dab3eaa0de8c7</t>
+  </si>
+  <si>
+    <t>6197cf9c8cb33d0257217de4</t>
+  </si>
+  <si>
+    <t>6197b7bdcb4de65cec4b6b05</t>
+  </si>
+  <si>
+    <t>619e4919dbb57840b03afa99</t>
+  </si>
+  <si>
+    <t>619e48f390cc600b712d5ef7</t>
+  </si>
+  <si>
+    <t>6197b8ee7dab8144ca2c4741</t>
+  </si>
+  <si>
+    <t>619e48d473610a461673dc39</t>
+  </si>
+  <si>
+    <t>6197baaa64e40b505d2b4f2d</t>
+  </si>
+  <si>
+    <t>619e5454dbb57840b03afa9e</t>
+  </si>
+  <si>
+    <t>619e485e0fc0a554c3789c85</t>
+  </si>
+  <si>
+    <t>6197cf311a9fdd0e535d7e65</t>
+  </si>
+  <si>
+    <t>619e4a6ed4848321927f7d2b</t>
+  </si>
+  <si>
+    <t>6197cef08f4dfc68936d64fb</t>
+  </si>
+  <si>
+    <t>619e53ce5bd1d93d2f7d46a2</t>
+  </si>
+  <si>
+    <t>619e47b109494841da71cb20</t>
+  </si>
+  <si>
+    <t>6197b6863d884e693502fe0c</t>
+  </si>
+  <si>
+    <t>6197ba6716969b5cc67dc543</t>
+  </si>
+  <si>
+    <t>6197ceafd8ae445f49665dde</t>
+  </si>
+  <si>
+    <t>6197b62ccea5f944cc746674</t>
+  </si>
+  <si>
+    <t>619e49555343ce59b7723ab2</t>
+  </si>
+  <si>
+    <t>616d895fdd5f077890039780</t>
+  </si>
+  <si>
+    <t>616d895c4fd43275cb51893f</t>
+  </si>
+  <si>
+    <t>616d8966197e2e0dfb7a65d6</t>
+  </si>
+  <si>
+    <t>60edb06236da34788b4c1567</t>
+  </si>
+  <si>
+    <t>616d8964b1f5893b332e9ce4</t>
+  </si>
+  <si>
+    <t>601d8d0e5df88101fa189b5c</t>
+  </si>
+  <si>
+    <t>60c747b1e3218921147f2c82</t>
+  </si>
+  <si>
+    <t>60589af6876ba841f72d150c</t>
+  </si>
+  <si>
+    <t>5ffdbf3793f72459575cdc94</t>
+  </si>
+  <si>
+    <t>616d895ebc2b2a553f53bf6d</t>
+  </si>
+  <si>
+    <t>616d89613adb3756764a3086</t>
+  </si>
+  <si>
+    <t>616d89658dc7791e073e24f7</t>
+  </si>
+  <si>
+    <t>618a9199393fbc6c437c882d</t>
+  </si>
+  <si>
+    <t>6182a10af281107a3002b30a</t>
+  </si>
+  <si>
+    <t>6182a04ec95316759040d54c</t>
+  </si>
+  <si>
+    <t>6182d5a67f8d0a023b1a3310</t>
+  </si>
+  <si>
+    <t>6182a1a98ce0720ee6565efe</t>
+  </si>
+  <si>
+    <t>61829f3815e1b62d22600abd</t>
+  </si>
+  <si>
+    <t>6182a0b318f21856d4018d66</t>
+  </si>
+  <si>
+    <t>6182d49b8ce0720ee6565f59</t>
+  </si>
+  <si>
+    <t>61829fc4c55f6460c95561fb</t>
+  </si>
+  <si>
+    <t>6182a0c2505c1933651c3471</t>
+  </si>
+  <si>
+    <t>6182d43e34a2e75b89446e8c</t>
+  </si>
+  <si>
+    <t>61829ec53b038a16de67c74c</t>
+  </si>
+  <si>
+    <t>61829dd1fb233152ce61d0cc</t>
+  </si>
+  <si>
+    <t>6182a1f9342bd71da7787775</t>
+  </si>
+  <si>
+    <t>61829fa8c95316759040d54a</t>
+  </si>
+  <si>
+    <t>6182d56bc55f6460c955620d</t>
+  </si>
+  <si>
+    <t>6182a16831db7215d52e870a</t>
+  </si>
+  <si>
+    <t>6182a2cfe979662bfb4f11bb</t>
+  </si>
+  <si>
+    <t>61829f17c13a1e0a3e659b7b</t>
+  </si>
+  <si>
+    <t>6182d47e7fa7103a4e7d1336</t>
+  </si>
+  <si>
+    <t>6182a00694132c702a5fcb3c</t>
+  </si>
+  <si>
+    <t>6182d550f281107a3002b32d</t>
+  </si>
+  <si>
+    <t>6182a14b5d8fff32c7000498</t>
+  </si>
+  <si>
+    <t>6182a287ed9d7726956e4fbf</t>
+  </si>
+  <si>
+    <t>6182a1d9bf994e28564c2b0b</t>
+  </si>
+  <si>
+    <t>6182a02e7b40ce453472fd5e</t>
+  </si>
+  <si>
+    <t>61829ef92ad9000e3b24e3e6</t>
+  </si>
+  <si>
+    <t>618a9223c9fd3619be1a2d8e</t>
+  </si>
+  <si>
+    <t>6182d51046899e4b2e38d843</t>
+  </si>
+  <si>
+    <t>6182a12cad9341305925da42</t>
+  </si>
+  <si>
+    <t>61829df61d96cb794f7985f2</t>
+  </si>
+  <si>
+    <t>6182a07d89377f4f84142637</t>
+  </si>
+  <si>
+    <t>61829fe618f21856d4018d64</t>
+  </si>
+  <si>
+    <t>V395</t>
+  </si>
+  <si>
+    <t>S394</t>
+  </si>
+  <si>
+    <t>J138</t>
+  </si>
+  <si>
+    <t>J276</t>
+  </si>
+  <si>
+    <t>J191</t>
+  </si>
+  <si>
+    <t>J268</t>
+  </si>
+  <si>
+    <t>G151</t>
+  </si>
+  <si>
+    <t>Q005</t>
+  </si>
+  <si>
+    <t>J165</t>
+  </si>
+  <si>
+    <t>F265</t>
+  </si>
+  <si>
+    <t>J214</t>
+  </si>
+  <si>
+    <t>F051</t>
+  </si>
+  <si>
+    <t>J190</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>B156</t>
+  </si>
+  <si>
+    <t>J211</t>
+  </si>
+  <si>
+    <t>J187</t>
+  </si>
+  <si>
+    <t>F448</t>
+  </si>
+  <si>
+    <t>F223</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>V368</t>
+  </si>
+  <si>
+    <t>J219</t>
+  </si>
+  <si>
+    <t>J116</t>
+  </si>
+  <si>
+    <t>J169</t>
+  </si>
+  <si>
+    <t>J275</t>
+  </si>
+  <si>
+    <t>J105</t>
+  </si>
+  <si>
+    <t>J125</t>
+  </si>
+  <si>
+    <t>S105</t>
+  </si>
+  <si>
+    <t>J213</t>
+  </si>
+  <si>
+    <t>J163</t>
+  </si>
+  <si>
     <t>B181</t>
   </si>
   <si>
-    <t>S394</t>
-  </si>
-  <si>
-    <t>V395</t>
+    <t>J156</t>
+  </si>
+  <si>
+    <t>J263</t>
+  </si>
+  <si>
+    <t>J146</t>
   </si>
   <si>
     <t>G203</t>
   </si>
   <si>
-    <t>F223</t>
-  </si>
-  <si>
-    <t>F448</t>
-  </si>
-  <si>
-    <t>P216</t>
-  </si>
-  <si>
-    <t>F265</t>
-  </si>
-  <si>
-    <t>P123</t>
-  </si>
-  <si>
-    <t>Q005</t>
-  </si>
-  <si>
-    <t>B156</t>
-  </si>
-  <si>
-    <t>F051</t>
-  </si>
-  <si>
-    <t>J105</t>
-  </si>
-  <si>
-    <t>S105</t>
-  </si>
-  <si>
-    <t>J116</t>
-  </si>
-  <si>
-    <t>V368</t>
-  </si>
-  <si>
-    <t>G151</t>
-  </si>
-  <si>
-    <t>J214</t>
-  </si>
-  <si>
-    <t>J125</t>
-  </si>
-  <si>
     <t>J135</t>
   </si>
   <si>
-    <t>J138</t>
-  </si>
-  <si>
-    <t>J146</t>
-  </si>
-  <si>
-    <t>J268</t>
-  </si>
-  <si>
     <t>J186</t>
   </si>
   <si>
-    <t>J169</t>
-  </si>
-  <si>
-    <t>J187</t>
-  </si>
-  <si>
-    <t>J191</t>
-  </si>
-  <si>
-    <t>J156</t>
-  </si>
-  <si>
-    <t>J165</t>
-  </si>
-  <si>
-    <t>J276</t>
-  </si>
-  <si>
-    <t>J211</t>
-  </si>
-  <si>
-    <t>J219</t>
-  </si>
-  <si>
-    <t>J275</t>
-  </si>
-  <si>
-    <t>J263</t>
-  </si>
-  <si>
-    <t>J163</t>
-  </si>
-  <si>
-    <t>J190</t>
-  </si>
-  <si>
     <t>J197</t>
   </si>
   <si>
-    <t>J213</t>
-  </si>
-  <si>
-    <t>619e47b109494841da71cb20</t>
-  </si>
-  <si>
-    <t>619e4843ca54df2502158172</t>
-  </si>
-  <si>
-    <t>619e485e0fc0a554c3789c85</t>
-  </si>
-  <si>
-    <t>619e487fdbb57840b03afa97</t>
-  </si>
-  <si>
-    <t>619e4896446df24e7560b35d</t>
-  </si>
-  <si>
-    <t>619e48b7d4756505395c93d3</t>
-  </si>
-  <si>
-    <t>619e48d473610a461673dc39</t>
-  </si>
-  <si>
-    <t>619e48f390cc600b712d5ef7</t>
-  </si>
-  <si>
-    <t>619e4919dbb57840b03afa99</t>
-  </si>
-  <si>
-    <t>619e49374b5a4927ec6e9fde</t>
-  </si>
-  <si>
-    <t>619e49555343ce59b7723ab2</t>
-  </si>
-  <si>
-    <t>619e498a10c8d43acf659a1b</t>
-  </si>
-  <si>
-    <t>619e49b9b57b714bd713e7c5</t>
-  </si>
-  <si>
-    <t>619e4a3e326f172693110d74</t>
-  </si>
-  <si>
-    <t>619e4a6ed4848321927f7d2b</t>
-  </si>
-  <si>
-    <t>619e4a84f3260750ee16f0bb</t>
-  </si>
-  <si>
-    <t>619e4a8baf05be11d064a137</t>
-  </si>
-  <si>
-    <t>619e53ce5bd1d93d2f7d46a2</t>
-  </si>
-  <si>
-    <t>619e5410440e87540e386f6f</t>
-  </si>
-  <si>
-    <t>619e5454dbb57840b03afa9e</t>
-  </si>
-  <si>
-    <t>619e54895754da49c63a77f2</t>
-  </si>
-  <si>
-    <t>619e54d1da11ff0b564f2d92</t>
-  </si>
-  <si>
-    <t>619e550e399c360c8d4fbb82</t>
-  </si>
-  <si>
-    <t>619e556ea1430503f13eeb02</t>
-  </si>
-  <si>
-    <t>619e55d5e68db7241974db92</t>
-  </si>
-  <si>
-    <t>60d5e0a7245f7d03d4402180</t>
-  </si>
-  <si>
-    <t>6171b558a1c87a7e6c50c3d7</t>
-  </si>
-  <si>
-    <t>6197b58889cfe006315a2882</t>
-  </si>
-  <si>
-    <t>6197b62ccea5f944cc746674</t>
-  </si>
-  <si>
-    <t>6197b6863d884e693502fe0c</t>
-  </si>
-  <si>
-    <t>6197b70871e3d12b2c06a14f</t>
-  </si>
-  <si>
-    <t>6197b781be996c425b6087b0</t>
-  </si>
-  <si>
-    <t>6197b7bdcb4de65cec4b6b05</t>
-  </si>
-  <si>
-    <t>6197d0aa573f327c49473ca1</t>
-  </si>
-  <si>
-    <t>6197b82fa72dab3eaa0de8c0</t>
-  </si>
-  <si>
-    <t>6197b86d4310ff3559187192</t>
-  </si>
-  <si>
-    <t>6197b8ee7dab8144ca2c4741</t>
-  </si>
-  <si>
-    <t>6197b940772e7c4b583cd50a</t>
-  </si>
-  <si>
-    <t>6197b9baa72dab3eaa0de8c7</t>
-  </si>
-  <si>
-    <t>6197ba057601ed24791385c7</t>
-  </si>
-  <si>
-    <t>6197ba6716969b5cc67dc543</t>
-  </si>
-  <si>
-    <t>6197ba8b094e9f31181725c1</t>
-  </si>
-  <si>
-    <t>6197baaa64e40b505d2b4f2d</t>
-  </si>
-  <si>
-    <t>6197bab806397d0841399d11</t>
-  </si>
-  <si>
-    <t>6197ceafd8ae445f49665dde</t>
-  </si>
-  <si>
-    <t>6197cef08f4dfc68936d64fb</t>
-  </si>
-  <si>
-    <t>6197b7f0573f327c49473c91</t>
-  </si>
-  <si>
-    <t>6197cf311a9fdd0e535d7e65</t>
-  </si>
-  <si>
-    <t>6197cf446ddca24d7e200fd8</t>
-  </si>
-  <si>
-    <t>6197cf9c8cb33d0257217de4</t>
-  </si>
-  <si>
-    <t>6197cfde57e8d2215070afd3</t>
-  </si>
-  <si>
-    <t>6197cff2fce7c231035ca2e0</t>
-  </si>
-  <si>
-    <t>61168ac6fabe8d0d893ce622</t>
-  </si>
-  <si>
-    <t>616d895c4fd43275cb51893f</t>
-  </si>
-  <si>
-    <t>616d895ebc2b2a553f53bf6d</t>
-  </si>
-  <si>
-    <t>616d895fdd5f077890039780</t>
-  </si>
-  <si>
-    <t>616d8964b1f5893b332e9ce4</t>
-  </si>
-  <si>
-    <t>616d89658dc7791e073e24f7</t>
-  </si>
-  <si>
-    <t>616d89613adb3756764a3086</t>
-  </si>
-  <si>
-    <t>601d8d0e5df88101fa189b5c</t>
-  </si>
-  <si>
-    <t>60589af6876ba841f72d150c</t>
-  </si>
-  <si>
-    <t>60edb06236da34788b4c1567</t>
-  </si>
-  <si>
-    <t>616d8966197e2e0dfb7a65d6</t>
-  </si>
-  <si>
-    <t>60c747b1e3218921147f2c82</t>
-  </si>
-  <si>
-    <t>5ffdbf3793f72459575cdc94</t>
-  </si>
-  <si>
-    <t>61829dd1fb233152ce61d0cc</t>
-  </si>
-  <si>
-    <t>61829df61d96cb794f7985f2</t>
-  </si>
-  <si>
-    <t>61829ec53b038a16de67c74c</t>
-  </si>
-  <si>
-    <t>61829ef92ad9000e3b24e3e6</t>
-  </si>
-  <si>
-    <t>61829f17c13a1e0a3e659b7b</t>
-  </si>
-  <si>
-    <t>61829f3815e1b62d22600abd</t>
-  </si>
-  <si>
-    <t>61829fa8c95316759040d54a</t>
-  </si>
-  <si>
-    <t>61829fc4c55f6460c95561fb</t>
-  </si>
-  <si>
-    <t>61829fe618f21856d4018d64</t>
-  </si>
-  <si>
-    <t>6182a00694132c702a5fcb3c</t>
-  </si>
-  <si>
-    <t>6182a02e7b40ce453472fd5e</t>
-  </si>
-  <si>
-    <t>6182a04ec95316759040d54c</t>
-  </si>
-  <si>
-    <t>6182a07d89377f4f84142637</t>
-  </si>
-  <si>
-    <t>6182a0b318f21856d4018d66</t>
-  </si>
-  <si>
-    <t>6182a0c2505c1933651c3471</t>
-  </si>
-  <si>
-    <t>6182a10af281107a3002b30a</t>
-  </si>
-  <si>
-    <t>6182a12cad9341305925da42</t>
-  </si>
-  <si>
-    <t>6182a14b5d8fff32c7000498</t>
-  </si>
-  <si>
-    <t>6182a16831db7215d52e870a</t>
-  </si>
-  <si>
-    <t>618a9199393fbc6c437c882d</t>
-  </si>
-  <si>
-    <t>6182a1a98ce0720ee6565efe</t>
-  </si>
-  <si>
-    <t>6182a1d9bf994e28564c2b0b</t>
-  </si>
-  <si>
-    <t>6182a1f9342bd71da7787775</t>
-  </si>
-  <si>
-    <t>6182a287ed9d7726956e4fbf</t>
-  </si>
-  <si>
-    <t>6182a2cfe979662bfb4f11bb</t>
-  </si>
-  <si>
-    <t>6182d43e34a2e75b89446e8c</t>
-  </si>
-  <si>
-    <t>6182d47e7fa7103a4e7d1336</t>
-  </si>
-  <si>
-    <t>6182d49b8ce0720ee6565f59</t>
-  </si>
-  <si>
-    <t>6182d51046899e4b2e38d843</t>
-  </si>
-  <si>
-    <t>6182d550f281107a3002b32d</t>
-  </si>
-  <si>
-    <t>6182d56bc55f6460c955620d</t>
-  </si>
-  <si>
-    <t>618a9223c9fd3619be1a2d8e</t>
-  </si>
-  <si>
-    <t>6182d5a67f8d0a023b1a3310</t>
+    <t>Baked Egg &amp; Potato Hash with Kale, Cheddar &amp; Hot Sauce</t>
+  </si>
+  <si>
+    <t>Basil Pesto Gnocchi with Mushrooms &amp; Pistachio Breadcrumbs</t>
+  </si>
+  <si>
+    <t>Blackened Cajun Burger with Roasted Sweet Potatoes &amp; Spicy Ketchup</t>
+  </si>
+  <si>
+    <t>Calabrian Honey Chicken with Gnocchi &amp; Roasted Broccoli</t>
+  </si>
+  <si>
+    <t>Chicken &amp; Farro Grain Bowl with Arugula &amp; Roasted Vegetables</t>
+  </si>
+  <si>
+    <t>Chicken &amp; Poblano Tacos with White Cheddar Cheese</t>
+  </si>
+  <si>
+    <t>Chocolate Orange Crinkle Cookies with Walnuts</t>
+  </si>
+  <si>
+    <t>Creamy Prosciutto &amp; Tomato Pasta with Brown Butter Breadcrumbs</t>
+  </si>
+  <si>
+    <t>Crispy Breaded Pork Chops &amp; Truffle Mayo with Roasted Brussels Sprouts &amp; Pancetta</t>
+  </si>
+  <si>
+    <t>Crispy Curry Chicken &amp; Roasted Vegetables with Coconut Rice &amp; Creamy Tomato Achaar</t>
+  </si>
+  <si>
+    <t>Crispy Garlic-Herb Gnocchi with Creamy Basil Pesto</t>
+  </si>
+  <si>
+    <t>Crispy Skin Salmon with Salsa Verde &amp; Farro Salad</t>
+  </si>
+  <si>
+    <t>Family Meal Prep Bundle with Chicken &amp; Beef</t>
+  </si>
+  <si>
+    <t>Family Meal Prep Bundle with Chicken &amp; Pork</t>
+  </si>
+  <si>
+    <t>Feta-Stuffed Burgers with Tzatziki &amp; Oregano Potatoes</t>
+  </si>
+  <si>
+    <t>Fresh Basil Fettuccine Pasta with Zucchini, Tomatoes &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Glazed Beef &amp; Crispy Rice with Sautéed Green Beans &amp; Peppers</t>
+  </si>
+  <si>
+    <t>Greek-Style Veggie Pitas with Lemon-Dressed Broccoli</t>
+  </si>
+  <si>
+    <t>Guajillo Chicken Tacos with Cheesy Roasted Potatoes</t>
+  </si>
+  <si>
+    <t>Lemon-Caper Tilapia with Orzo, Zucchini &amp; Peppers</t>
+  </si>
+  <si>
+    <t>Miso-Ponzu Beyond Burger™ with Sesame Shishitos &amp; Mushrooms</t>
+  </si>
+  <si>
+    <t>Olive &amp; Feta Cheese Pizza with Spicy Tomato Sauce</t>
+  </si>
+  <si>
+    <t>Orange Tofu &amp; Brown Rice with Sweet Peppers, Kohlrabi &amp; Cashews</t>
+  </si>
+  <si>
+    <t>Oven-Baked Chicken Marbella with Potatoes &amp; Arugula Salad</t>
+  </si>
+  <si>
+    <t>Pan-Seared Duck Breasts with Crispy Duck Fat Rice &amp; Sesame-Ginger Arugula Salad</t>
+  </si>
+  <si>
+    <t>Pork Chorizo Meatballs &amp; Poblano Rice with Chipotle-Peanut Sauce</t>
+  </si>
+  <si>
+    <t>Pork Roast &amp; Balsamic-Fig Sauce with Roasted Sweet Potatoes, Carrots &amp; Broccoli</t>
+  </si>
+  <si>
+    <t>Roasted Cauliflower &amp; Lentil Salad with Jalapeño Vinaigrette &amp; Creamy Salsa Verde</t>
+  </si>
+  <si>
+    <t>Seafood Trio Salmon, Shrimp &amp; Scallops</t>
+  </si>
+  <si>
+    <t>Seared Chicken &amp; Persimmon Pan Sauce with Cheddar Biscuits &amp; Spiced Honey Butter</t>
+  </si>
+  <si>
+    <t>Seared Steaks &amp; Homemade Steak Sauce with Mashed Potatoes &amp; Sautéed Carrots</t>
+  </si>
+  <si>
+    <t>Seared Steaks &amp; Mashed Potatoes with Sautéed Carrots &amp; Homemade Steak Sauce</t>
+  </si>
+  <si>
+    <t>Shawarma-Spiced Pork &amp; Vegetable Quinoa with Lemon Yogurt</t>
+  </si>
+  <si>
+    <t>Sheet Pan Miso-Ginger Salmon with Spicy Sweet Potatoes &amp; Green Beans</t>
+  </si>
+  <si>
+    <t>Sheet Pan Pesto Salmon with a Roasted Vegetable Medley</t>
+  </si>
+  <si>
+    <t>Specialty Selection NY Strip Steaks, Scallops &amp; Prime Ground Beef</t>
+  </si>
+  <si>
+    <t>Spicy Beef &amp; Sesame Noodles with Bok Choy</t>
+  </si>
+  <si>
+    <t>Spicy Orange-Glazed Yellowtail Fillets with Fried Rice &amp; Candied Cashews</t>
+  </si>
+  <si>
+    <t>Spicy Tomato Pasta with Spinach &amp; Broccoli</t>
+  </si>
+  <si>
+    <t>Spicy Zucchini Quesadillas with Poblano Pepper &amp; Fried Eggs</t>
+  </si>
+  <si>
+    <t>Surf &amp; Turf Steaks, Chicken, Salmon &amp; Shrimp</t>
+  </si>
+  <si>
+    <t>Sweet &amp; Spicy Salmon with Green Beans, Bell Pepper &amp; White Rice</t>
+  </si>
+  <si>
+    <t>Tamarind-Honey Chicken Breasts with Carrots &amp; Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Thai Chicken &amp; Curry-Peanut Noodles with Carrots &amp; Shishito Peppers</t>
+  </si>
+  <si>
+    <t>Tilapia &amp; Creamy Curry Sauce with Sesame &amp; Bok Choy Rice</t>
+  </si>
+  <si>
+    <t>Tomatillo Chicken &amp; Barley Bowls with Roasted Shishito Peppers &amp; Orange Salsa</t>
+  </si>
+  <si>
+    <t>Tomato-Coconut Cod Curry with White Rice &amp; Marinated Vegetables</t>
+  </si>
+  <si>
+    <t>Wellness Meal Prep Bundle with Chicken &amp; Salmon</t>
+  </si>
+  <si>
+    <t>Wellness Meal Prep Bundle with Pork &amp; Chicken</t>
+  </si>
+  <si>
+    <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
+  </si>
+  <si>
+    <t>4 Chicken Breasts + 2 Ranch Steaks 2 Servings Plan: 4 (5 oz) Chicken Breasts &amp; 2 (5 oz) Ranch Steaks</t>
+  </si>
+  <si>
+    <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
+  </si>
+  <si>
+    <t>Baja Shrimp Tacos with Pineapple Salsa</t>
+  </si>
+  <si>
+    <t>Beef Chili Loaded Sweet Potatoes with Pepper Jack &amp; Southwest Crema</t>
+  </si>
+  <si>
+    <t>Beef, Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Blistered Tomato &amp; Feta Penne with Italian Seasoned Kale</t>
+  </si>
+  <si>
+    <t>Broccoli Cheddar Bisque with Garlic Bread</t>
+  </si>
+  <si>
+    <t>Cajun Chicken Sausage Linguine with Monterey Jack</t>
+  </si>
+  <si>
+    <t>Cajun Shrimp Linguine with Monterey Jack</t>
+  </si>
+  <si>
+    <t>Cheese-tastic Southwestern Hash with Bacon, Peppers, Sour Cream &amp; a Fried Egg</t>
+  </si>
+  <si>
+    <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
+  </si>
+  <si>
+    <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
+  </si>
+  <si>
+    <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
+  </si>
+  <si>
+    <t>Cowboy Skillet Pie with Poblano &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Creamy Chicken Sausage Penne plus Zucchini &amp; Melty Mozz</t>
+  </si>
+  <si>
+    <t>Creamy Peppercorn Salmon with Lemony Green Beans &amp; Roasted Potato Wedges</t>
+  </si>
+  <si>
+    <t>Curried Chickpea Bowls with Spinach and Ginger Rice</t>
+  </si>
+  <si>
+    <t>Dijon Butter Steak with Roasted Green Beans &amp; Rosemary Potatoes</t>
+  </si>
+  <si>
+    <t>Firehouse Onion &amp; Pepper Flatbreads with Bacon and Spicy Garlic Sauce</t>
+  </si>
+  <si>
+    <t>Firehouse Onion &amp; Pepper Flatbreads with Spicy Garlic Sauce</t>
+  </si>
+  <si>
+    <t>Garlic Rosemary Chicken with Roasted Root Veggies</t>
+  </si>
+  <si>
+    <t>Gooey Stuffed Pork Burgers with BBQ Onion &amp; Crispy Potato Wedges</t>
+  </si>
+  <si>
+    <t>Gooey Stuffed Pork Burgers with BBQ Onion &amp; Crispy Sweet Potato Wedges</t>
+  </si>
+  <si>
+    <t>Griddled Onion Burgers with Creamy Dijon Aioli &amp; Frites</t>
+  </si>
+  <si>
+    <t>Griddled Onion Burgers with Creamy Dijon Aioli &amp; Sweet Potato Frites</t>
+  </si>
+  <si>
+    <t>Harissa Chickpea Bowls with Salmon plus Couscous, Creamy Avocado Dressing &amp; Cilantro</t>
+  </si>
+  <si>
+    <t>Harissa-Roasted Chickpea Bowls with Couscous, Creamy Avocado Dressing &amp; Cilantro</t>
+  </si>
+  <si>
+    <t>Herb Butter Steak with Roasted Brussels Sprouts &amp; Cheesy Potatoes</t>
+  </si>
+  <si>
+    <t>Lemon Butter Barramundi a Light, Flaky, Buttery Fish with Carrots &amp; Rice</t>
+  </si>
+  <si>
+    <t>Lemon Chive Chicken Breasts with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
+  </si>
+  <si>
+    <t>Lemon Chive Chicken Legs with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
+  </si>
+  <si>
+    <t>Lemon Herb Risotto With Chicken and Tomato-Bacon Jam</t>
+  </si>
+  <si>
+    <t>Loaded Baked Potato Chowder with Bacon, Cheddar &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Lemon Herb Potatoes</t>
+  </si>
+  <si>
+    <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Sweet Potato Wedges</t>
+  </si>
+  <si>
+    <t>Peanut Chicken Stir-Fry Bowls with Garlic Rice &amp; Pickled Cucumber Salad</t>
+  </si>
+  <si>
+    <t>Ponzu Chili Steak Bowls with Garlic Ginger Rice, Snap Peas &amp; Chili Mayo</t>
+  </si>
+  <si>
+    <t>Pork Chili Loaded Sweet Potatoes with Pepper Jack &amp; Southwest Crema</t>
+  </si>
+  <si>
+    <t>Pork Chops over Cabbage Stir-Fry with Jasmine Rice &amp; Tangy Chili Sauce</t>
+  </si>
+  <si>
+    <t>Pork Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
+  </si>
+  <si>
+    <t>Shallot &amp; Snap Pea Flatbreads with Peppery Cream Sauce</t>
+  </si>
+  <si>
+    <t>Southwest Beef Flautas with Zesty Crema &amp; Pico de Gallo</t>
+  </si>
+  <si>
+    <t>Southwest Pork Flautas with Zesty Crema &amp; Pico de Gallo</t>
+  </si>
+  <si>
+    <t>Steak over Cabbage Stir-Fry with Jasmine Rice &amp; Tangy Chili Sauce</t>
+  </si>
+  <si>
+    <t>Sticky-Sweet Broccoli Bowls with Bell Pepper, Ginger Rice, Sriracha Mayo &amp; a Fried Egg</t>
+  </si>
+  <si>
+    <t>Sweet Chili Chicken Tacos with Red Cabbage Slaw, Zesty Crema &amp; Peanuts</t>
+  </si>
+  <si>
+    <t>Sweet Chili Chicken with Scallion Rice &amp; Zesty Broccoli</t>
+  </si>
+  <si>
+    <t>Sweet Chili Chicken with Scallion Rice &amp; Zesty Carrots</t>
+  </si>
+  <si>
+    <t>Sweet Chili Pork Tacos with Red Cabbage Slaw, Zesty Crema &amp; Peanuts</t>
+  </si>
+  <si>
+    <t>Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
+  </si>
+  <si>
+    <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Green Beans &amp; Garlic Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Zucchini &amp; Garlic Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Turkey Shepherd's Pie topped with Garlic Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>APRICOT-GLAZED PORK MEATBALLS pearl couscous, kale salad with radishes, carrots &amp; pistachios</t>
+  </si>
+  <si>
+    <t>CREAMY CHICKEN &amp; POTATO SOUP corn, roasted red peppers, sharp cheddar cheese, chives</t>
+  </si>
+  <si>
+    <t>CREAMY TOMATO CHICKPEA SPAGHETTI Barilla® Chickpea Spaghetti, Parmesan-crusted cauliflower, peas</t>
+  </si>
+  <si>
+    <t>HONEY-MUSTARD SALMON smoky roasted rainbow carrots, sautéed broccoli</t>
+  </si>
+  <si>
+    <t>ITALIAN HERB-SEASONED BARRAMUNDI kale, artichoke &amp; roasted red pepper couscous, almonds</t>
+  </si>
+  <si>
+    <t>MEDITERRANEAN-STYLE CHICKEN SALAD kale, sautéed yellow squash, gremolata, lemon aïoli</t>
+  </si>
+  <si>
+    <t>ROASTED CHICKPEA &amp; CARROT BOWLS kale, rice with dates &amp; feta, creamy turmeric-spiced vinaigrette</t>
+  </si>
+  <si>
+    <t>SPICED BEEF &amp; CAULIFLOWER “RICE” roasted carrots, roasted almonds, lemon-scallion crema</t>
+  </si>
+  <si>
+    <t>SPICY MUSHROOM STIR-FRY jasmine rice, broccoli, red bell pepper, carrot, cabbage</t>
+  </si>
+  <si>
+    <t>SRIRACHA-TAMARI BEEF BOWLS jasmine rice, broccoli, cabbage &amp; carrots, peanuts, sesame seeds</t>
+  </si>
+  <si>
+    <t>STEAK &amp; SHRIMP WITH SPICY PEPERONATA Parmesan cheese, pine nuts, parsley-basil pepita pesto</t>
+  </si>
+  <si>
+    <t>TRUFFLE BUTTER STEAKS roasted potato wedges, broccoli with Parmesan</t>
+  </si>
+  <si>
+    <t>Black Bean &amp; Charred Corn Burrito Bowls with Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
+  </si>
+  <si>
+    <t>Butter-Basted Chicken with Candied Bacon Brussels Sprouts &amp; Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Chicken Ramen in a Shoyu-Style Broth with Carrots, Chili Garlic Oil &amp; Crispy Onions</t>
+  </si>
+  <si>
+    <t>Crunchy Curried Chickpea Bowls with Chicken, Golden Raisins &amp; Pickled Cabbage</t>
+  </si>
+  <si>
+    <t>Crunchy Curried Chickpea Bowls with Golden Raisins &amp; Pickled Cabbage</t>
+  </si>
+  <si>
+    <t>Crunchy Italian Chicken Sheet Pan Bake with Spiced Potatoes &amp; Lemony Green Beans</t>
+  </si>
+  <si>
+    <t>Gametime Chicken Sausage &amp; Pepper Subs with Mixed Green Salad &amp; Balsamic Vinaigrette</t>
+  </si>
+  <si>
+    <t>Garden Spinach Ricotta Ravioli with Italian Chicken Sausage</t>
+  </si>
+  <si>
+    <t>Garden Spinach Ricotta Ravioli with Zucchini Ribbons, Tomato &amp; Creamy Lemon Sauce</t>
+  </si>
+  <si>
+    <t>Hibachi Sweet Soy Bavette Steak &amp; Shrimp with Garlic Rice, Sesame-Roasted Zucchini &amp; Spicy Special Sauce</t>
+  </si>
+  <si>
+    <t>Hoisin-Glazed Chicken with Scallion Rice, Ponzu Roasted Green Beans &amp; Sriracha Mayo</t>
+  </si>
+  <si>
+    <t>Hoisin-Glazed Pork Tenderloin with Scallion Rice, Ponzu Roasted Green Beans &amp; Sriracha Mayo</t>
+  </si>
+  <si>
+    <t>Homestyle Chicken &amp; Biscuit Pot Pie with Pillsbury™️ Buttermilk Southern Homestyle Biscuits, Carrots &amp; Celery</t>
+  </si>
+  <si>
+    <t>Italian Garden Veggie Soup with Kale, Pearled Couscous &amp; Garlic Bread</t>
+  </si>
+  <si>
+    <t>Lil’ Sweet Lil’ Spicy Chicken with Roasted Carrots &amp; Cheesy Garlic Potato Wedges</t>
+  </si>
+  <si>
+    <t>Lone Star Poblano Mac &amp; Cheese with Bacon and a Crispy Panko Topping</t>
+  </si>
+  <si>
+    <t>Lone Star Poblano Mac &amp; Cheese with a Crispy Panko Topping</t>
+  </si>
+  <si>
+    <t>Middle Eastern Spiced Turkey Bowls with Bulgur, Zucchini &amp; Cilantro Yogurt</t>
+  </si>
+  <si>
+    <t>One-Pan Moo Shu Pork Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
+  </si>
+  <si>
+    <t>One-Pan Moo Shu Shrimp Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
+  </si>
+  <si>
+    <t>One-Pan Smashed Black Bean Tacos with Creamy Slaw, Pickled Onion &amp; Red Pepper Crema</t>
+  </si>
+  <si>
+    <t>One-Pot Beef &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
+  </si>
+  <si>
+    <t>One-Pot Pork &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
+  </si>
+  <si>
+    <t>Orange Chicken with Jasmine Rice</t>
+  </si>
+  <si>
+    <t>Pepper Jam Pork Tenderloin Plus a Kale &amp; Sweet Potato Jumble</t>
+  </si>
+  <si>
+    <t>Peppercorn-Crusted Beef Tenderloin with Chive Butter, Asparagus Amandine &amp; Mashed Sweet Potatoes</t>
+  </si>
+  <si>
+    <t>San Antonio Beef Bowls with Blue Corn Tortilla Chips, Fresh Salsa &amp; Lime Crema</t>
+  </si>
+  <si>
+    <t>Shrimp &amp; Black Bean Burrito Bowls with Charred Corn, Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
+  </si>
+  <si>
+    <t>Smoky Brown Sugar Beef Tenderloin Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
+  </si>
+  <si>
+    <t>Smoky Brown Sugar Chicken Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
+  </si>
+  <si>
+    <t>Southwest Beef Cavatappi with Poblano &amp; Smoky Red Pepper Crema</t>
+  </si>
+  <si>
+    <t>Spicy Shrimp &amp; Broccoli Stir-Fry in a Sweet Chili Soy Glaze over Jasmine Rice</t>
+  </si>
+  <si>
+    <t>Zucchini &amp; Tomato Flatbreads with Lemon Ricotta, Fresh Herbs, Honey &amp; Chili Flakes</t>
+  </si>
+  <si>
+    <t>Ahi Tuna a la carte protein</t>
+  </si>
+  <si>
+    <t>BBQ Mushroom Flatbread with ranch drizzle and cilantro</t>
+  </si>
+  <si>
+    <t>Balsamic Spicy Onion Jam Burger with garlic-aioli potatoes</t>
+  </si>
+  <si>
+    <t>Beef Meatloaf with Chipotle Crema and Southwest succotash</t>
+  </si>
+  <si>
+    <t>Boneless Skinless Chicken Breast a la carte protein</t>
+  </si>
+  <si>
+    <t>Buffalo Ranch Chopped Salad &amp; Chicken with 2 ready-to-cook chicken breasts</t>
+  </si>
+  <si>
+    <t>Buffalo Ranch Chopped Salad with buffalo ranch dressing</t>
+  </si>
+  <si>
+    <t>Caprese Steak Strip Flatbreads with Mozzarella stovetop cooking</t>
+  </si>
+  <si>
+    <t>Cheddar Bacon Crusted Chicken with Ranch Potatoes easy prep &amp; pan included</t>
+  </si>
+  <si>
+    <t>Cheesy Spinach Artichoke Stuffed Chicken Breast with lemon green beans almondine</t>
+  </si>
+  <si>
+    <t>Cranberry Goat Cheese-Stuffed Chicken Breast with Sage Demi-Glace and roasted Brussels sprouts</t>
+  </si>
+  <si>
+    <t>Crispy Arrabbiata Chicken with Asiago Broccoli and Peppers easy prep &amp; pan included</t>
+  </si>
+  <si>
+    <t>Four-Cheese Pepperoni Pizza appetizer-style flatbread</t>
+  </si>
+  <si>
+    <t>Gooey Butter Cake with crackly sugar crust</t>
+  </si>
+  <si>
+    <t>Ground Turkey a la carte protein</t>
+  </si>
+  <si>
+    <t>Italian Sausage a la carte protein</t>
+  </si>
+  <si>
+    <t>Italian-Style Parmesan Fried Chicken with zucchini and brown sugar butter sweet potatoes</t>
+  </si>
+  <si>
+    <t>One-Pan BBQ Beef Enchiladas with guacamole-lime crema</t>
+  </si>
+  <si>
+    <t>Pepperoni Pizza Pasta with Bell Peppers and Spinach no prep, quick cook</t>
+  </si>
+  <si>
+    <t>Pork Chop with Sage &amp; Honey Butter with roasted garlic and hazelnut broccoli</t>
+  </si>
+  <si>
+    <t>Pork Egg Roll in a Bowl with Peanuts stovetop cooking</t>
+  </si>
+  <si>
+    <t>Salted Caramel Truffle Cheesecake with chocolate cookie crust</t>
+  </si>
+  <si>
+    <t>Sausage Pasta and Tomato Cream Sauce with broccolini and onion</t>
+  </si>
+  <si>
+    <t>Sausage, Egg &amp; Cheese Croissant 2 mini breakfast criossants</t>
+  </si>
+  <si>
+    <t>Shrimp Avocado BLT with fajita potatoes</t>
+  </si>
+  <si>
+    <t>Shrimp a la carte protein</t>
+  </si>
+  <si>
+    <t>Spaghetti with Roasted Red Pepper Cream with garlic bread</t>
+  </si>
+  <si>
+    <t>Steak Strip Tacos with Corn Elote and Slaw easy prep &amp; pan included</t>
+  </si>
+  <si>
+    <t>Sticky Chicken Thigh Tacos with pineapple-pepper salsa</t>
+  </si>
+  <si>
+    <t>Teriyaki-Lime Ahi Tuna with jasmine rice and roasted broccoli</t>
+  </si>
+  <si>
+    <t>Three Cheese Asiago - Demi Loaf simply bake and eat</t>
+  </si>
+  <si>
+    <t>Turkey Elote Corn Chowder with Jalapeños stovetop cooking</t>
+  </si>
+  <si>
+    <t>Artichoke and fresh mozzarella pizza with radicchio-hazelnut salad</t>
+  </si>
+  <si>
+    <t>Baja shrimp bowls with spicy chipotle cabbage over cilantro-lime rice</t>
+  </si>
+  <si>
+    <t>Beef chili with cheddar and Greek yogurt</t>
+  </si>
+  <si>
+    <t>Beef mole enchilada pie with pinto beans and queso fresco</t>
+  </si>
+  <si>
+    <t>Beef stroganoff over egg noodles</t>
+  </si>
+  <si>
+    <t>Beef ’n’ cheddar chili mac</t>
+  </si>
+  <si>
+    <t>Black rice bowls with delicata squash, pear, and cashew dressing</t>
+  </si>
+  <si>
+    <t>Cheesy French onion meatloaf with lentil and mixed green salad</t>
+  </si>
+  <si>
+    <t>Chicken Parmesan with basil marinara over penne</t>
+  </si>
+  <si>
+    <t>Chicken adobo vermicelli bowls</t>
+  </si>
+  <si>
+    <t>Chicken and egg donburi rice bowl with kimchi-lime vegetables</t>
+  </si>
+  <si>
+    <t>Chicken breasts and parsley-pecan pesto with roasted beet and orange</t>
+  </si>
+  <si>
+    <t>Chili-spiced tofu biryani with cauliflower, brown rice, and raisins</t>
+  </si>
+  <si>
+    <t>Chorizo, chard, and potato frittata with mixed green salad</t>
+  </si>
+  <si>
+    <t>Filet mignons with roasted garlic, root vegetables, and lemon aioli</t>
+  </si>
+  <si>
+    <t>Japanese curry chicken katsu with roasted vegetables and brown rice</t>
+  </si>
+  <si>
+    <t>Korean beef japchae with glass noodles, kale, and mushrooms</t>
+  </si>
+  <si>
+    <t>Mediterranean turkey and spinach skillet with sun-dried tomato tapenade</t>
+  </si>
+  <si>
+    <t>Moroccan chicken in chraime sauce with sweet potato mash</t>
+  </si>
+  <si>
+    <t>Pulled-pork taquitos with tomatillo salsa verde and queso fresco</t>
+  </si>
+  <si>
+    <t>Quinoa-spinach grain bowls with fresh dill, feta, and fried eggs</t>
+  </si>
+  <si>
+    <t>Roast chicken with harissa-spiced veggies, cauli mash, and almonds</t>
+  </si>
+  <si>
+    <t>Salmon tacos with cabbage slaw, salsa roja, and chipotle yogurt</t>
+  </si>
+  <si>
+    <t>Sausage and peppers with tangy spiced sweet potatoes and green romesco</t>
+  </si>
+  <si>
+    <t>Shrimp chow mein with broccoli, mushrooms, and toasted garlic</t>
+  </si>
+  <si>
+    <t>Sloppy joes with pickled jalapeños and tangy coleslaw</t>
+  </si>
+  <si>
+    <t>Smokehouse sausage jambalaya</t>
+  </si>
+  <si>
+    <t>Sole with red pepper–caper sauce and lemon-garlic broccoli</t>
+  </si>
+  <si>
+    <t>Spicy Sichuan glass noodle stir-fry with Impossible plant-based beef</t>
+  </si>
+  <si>
+    <t>Spinach saag paneer with basmati rice</t>
   </si>
   <si>
     <t>Steak stir-fry with broccoli, carrots, and sesame seeds</t>
   </si>
   <si>
-    <t>Baja shrimp bowls with spicy chipotle cabbage over cilantro-lime rice</t>
-  </si>
-  <si>
-    <t>Artichoke and fresh mozzarella pizza with radicchio-hazelnut salad</t>
+    <t>Swedish meatballs with garlic mashed potatoes and lingonberry sauce</t>
+  </si>
+  <si>
+    <t>Sweet pea and broccoli risotto</t>
+  </si>
+  <si>
+    <t>Thai green curry chicken</t>
   </si>
   <si>
     <t>Thai-style spicy yuba noodle soup with potato and bell pepper</t>
   </si>
   <si>
-    <t>Moroccan chicken in chraime sauce with sweet potato mash</t>
-  </si>
-  <si>
-    <t>Mediterranean turkey and spinach skillet with sun-dried tomato tapenade</t>
-  </si>
-  <si>
-    <t>Chorizo, chard, and potato frittata with mixed green salad</t>
-  </si>
-  <si>
-    <t>Chicken adobo vermicelli bowls</t>
-  </si>
-  <si>
-    <t>Pulled-pork taquitos with tomatillo salsa verde and queso fresco</t>
-  </si>
-  <si>
-    <t>Cheesy French onion meatloaf with lentil and mixed green salad</t>
-  </si>
-  <si>
-    <t>Filet mignons with roasted garlic, root vegetables, and lemon aioli</t>
-  </si>
-  <si>
-    <t>Chicken breasts and parsley-pecan pesto with roasted beet and orange</t>
-  </si>
-  <si>
-    <t>Sloppy joes with pickled jalapeños and tangy coleslaw</t>
-  </si>
-  <si>
-    <t>Sole with red pepper–caper sauce and lemon-garlic broccoli</t>
-  </si>
-  <si>
-    <t>Salmon tacos with cabbage slaw, salsa roja, and chipotle yogurt</t>
-  </si>
-  <si>
-    <t>Quinoa-spinach grain bowls with fresh dill, feta, and fried eggs</t>
-  </si>
-  <si>
-    <t>Black rice bowls with delicata squash, pear, and cashew dressing</t>
-  </si>
-  <si>
-    <t>Chicken and egg donburi rice bowl with kimchi-lime vegetables</t>
-  </si>
-  <si>
-    <t>Smokehouse sausage jambalaya</t>
-  </si>
-  <si>
     <t>Turkey Bolognese over spaghetti</t>
   </si>
   <si>
-    <t>Beef chili with cheddar and Greek yogurt</t>
-  </si>
-  <si>
-    <t>Thai green curry chicken</t>
-  </si>
-  <si>
-    <t>Beef ’n’ cheddar chili mac</t>
-  </si>
-  <si>
     <t>Turkey chili mac with cheddar</t>
   </si>
   <si>
-    <t>Sausage and peppers with tangy spiced sweet potatoes and green romesco</t>
-  </si>
-  <si>
-    <t>Korean beef japchae with glass noodles, kale, and mushrooms</t>
-  </si>
-  <si>
-    <t>Beef stroganoff over egg noodles</t>
-  </si>
-  <si>
-    <t>Swedish meatballs with garlic mashed potatoes and lingonberry sauce</t>
-  </si>
-  <si>
-    <t>Chicken Parmesan with basil marinara over penne</t>
-  </si>
-  <si>
-    <t>Beef mole enchilada pie with pinto beans and queso fresco</t>
-  </si>
-  <si>
-    <t>Japanese curry chicken katsu with roasted vegetables and brown rice</t>
-  </si>
-  <si>
-    <t>Roast chicken with harissa-spiced veggies, cauli mash, and almonds</t>
-  </si>
-  <si>
-    <t>Shrimp chow mein with broccoli, mushrooms, and toasted garlic</t>
-  </si>
-  <si>
-    <t>Sweet pea and broccoli risotto</t>
-  </si>
-  <si>
-    <t>Spinach saag paneer with basmati rice</t>
-  </si>
-  <si>
-    <t>Chili-spiced tofu biryani with cauliflower, brown rice, and raisins</t>
-  </si>
-  <si>
     <t>Vegetarian couscous with artichokes, olives, and creamy feta dressing</t>
   </si>
   <si>
-    <t>Spicy Sichuan glass noodle stir-fry with Impossible plant-based beef</t>
-  </si>
-  <si>
-    <t>Baked Egg &amp; Potato Hash with Kale, Cheddar &amp; Hot Sauce</t>
-  </si>
-  <si>
-    <t>Tamarind-Honey Chicken Breasts with Carrots &amp; Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Sheet Pan Miso-Ginger Salmon with Spicy Sweet Potatoes &amp; Green Beans</t>
-  </si>
-  <si>
-    <t>Pan-Seared Duck Breasts with Crispy Duck Fat Rice &amp; Sesame-Ginger Arugula Salad</t>
-  </si>
-  <si>
-    <t>Wellness Meal Prep Bundle with Chicken &amp; Salmon</t>
-  </si>
-  <si>
-    <t>Surf &amp; Turf Steaks, Chicken, Salmon &amp; Shrimp</t>
-  </si>
-  <si>
-    <t>Specialty Selection NY Strip Steaks, Scallops &amp; Prime Ground Beef</t>
-  </si>
-  <si>
-    <t>Seafood Trio Salmon, Shrimp &amp; Scallops</t>
-  </si>
-  <si>
-    <t>Family Meal Prep Bundle with Chicken &amp; Pork</t>
-  </si>
-  <si>
-    <t>Blackened Cajun Burger with Roasted Sweet Potatoes &amp; Spicy Ketchup</t>
-  </si>
-  <si>
-    <t>Creamy Prosciutto &amp; Tomato Pasta with Brown Butter Breadcrumbs</t>
-  </si>
-  <si>
-    <t>Tomatillo Chicken &amp; Barley Bowls with Roasted Shishito Peppers &amp; Orange Salsa</t>
-  </si>
-  <si>
-    <t>Chocolate Orange Crinkle Cookies with Walnuts</t>
-  </si>
-  <si>
-    <t>Spicy Tomato Pasta with Spinach &amp; Broccoli</t>
-  </si>
-  <si>
-    <t>Seared Chicken &amp; Persimmon Pan Sauce with Cheddar Biscuits &amp; Spiced Honey Butter</t>
-  </si>
-  <si>
-    <t>Greek-Style Veggie Pitas with Lemon-Dressed Broccoli</t>
-  </si>
-  <si>
-    <t>Roasted Cauliflower &amp; Lentil Salad with Jalapeño Vinaigrette &amp; Creamy Salsa Verde</t>
-  </si>
-  <si>
-    <t>Spicy Beef &amp; Sesame Noodles with Bok Choy</t>
-  </si>
-  <si>
-    <t>Tilapia &amp; Creamy Curry Sauce with Sesame &amp; Bok Choy Rice</t>
-  </si>
-  <si>
-    <t>Pork Chorizo Meatballs &amp; Poblano Rice with Chipotle-Peanut Sauce</t>
-  </si>
-  <si>
-    <t>Sheet Pan Pesto Salmon with a Roasted Vegetable Medley</t>
-  </si>
-  <si>
-    <t>Miso-Ponzu Beyond Burger™ with Sesame Shishitos &amp; Mushrooms</t>
-  </si>
-  <si>
-    <t>Calabrian Honey Chicken with Gnocchi &amp; Roasted Broccoli</t>
-  </si>
-  <si>
-    <t>Chicken &amp; Poblano Tacos with White Cheddar Cheese</t>
-  </si>
-  <si>
-    <t>Olive &amp; Feta Cheese Pizza with Spicy Tomato Sauce</t>
-  </si>
-  <si>
-    <t>Guajillo Chicken Tacos with Cheesy Roasted Potatoes</t>
-  </si>
-  <si>
-    <t>Balsamic Spicy Onion Jam Burger with garlic-aioli potatoes</t>
-  </si>
-  <si>
-    <t>Cheesy Spinach Artichoke Stuffed Chicken Breast with lemon green beans almondine</t>
-  </si>
-  <si>
-    <t>Teriyaki-Lime Ahi Tuna with jasmine rice and roasted broccoli</t>
-  </si>
-  <si>
-    <t>Cranberry Goat Cheese-Stuffed Chicken Breast with Sage Demi-Glace and roasted Brussels sprouts</t>
-  </si>
-  <si>
-    <t>Shrimp Avocado BLT with fajita potatoes</t>
-  </si>
-  <si>
-    <t>Italian-Style Parmesan Fried Chicken with zucchini and brown sugar butter sweet potatoes</t>
-  </si>
-  <si>
-    <t>Sausage Pasta and Tomato Cream Sauce with broccolini and onion</t>
-  </si>
-  <si>
-    <t>Sticky Chicken Thigh Tacos with pineapple-pepper salsa</t>
-  </si>
-  <si>
-    <t>Pork Chop with Sage &amp; Honey Butter with roasted garlic and hazelnut broccoli</t>
-  </si>
-  <si>
-    <t>Beef Meatloaf with Chipotle Crema and Southwest succotash</t>
-  </si>
-  <si>
-    <t>BBQ Mushroom Flatbread with ranch drizzle and cilantro</t>
-  </si>
-  <si>
-    <t>Spaghetti with Roasted Red Pepper Cream with garlic bread</t>
-  </si>
-  <si>
-    <t>One-Pan BBQ Beef Enchiladas with guacamole-lime crema</t>
-  </si>
-  <si>
-    <t>Pork Egg Roll in a Bowl with Peanuts stovetop cooking</t>
-  </si>
-  <si>
-    <t>Caprese Steak Strip Flatbreads with Mozzarella stovetop cooking</t>
-  </si>
-  <si>
-    <t>Turkey Elote Corn Chowder with Jalapeños stovetop cooking</t>
-  </si>
-  <si>
-    <t>Pepperoni Pizza Pasta with Bell Peppers and Spinach no prep, quick cook</t>
-  </si>
-  <si>
-    <t>Steak Strip Tacos with Corn Elote and Slaw easy prep &amp; pan included</t>
-  </si>
-  <si>
-    <t>Crispy Arrabbiata Chicken with Asiago Broccoli and Peppers easy prep &amp; pan included</t>
-  </si>
-  <si>
-    <t>Cheddar Bacon Crusted Chicken with Ranch Potatoes easy prep &amp; pan included</t>
-  </si>
-  <si>
-    <t>Gooey Butter Cake with crackly sugar crust</t>
-  </si>
-  <si>
-    <t>Three Cheese Asiago - Demi Loaf simply bake and eat</t>
-  </si>
-  <si>
-    <t>Sausage, Egg &amp; Cheese Croissant 2 mini breakfast criossants</t>
-  </si>
-  <si>
-    <t>Salted Caramel Truffle Cheesecake with chocolate cookie crust</t>
-  </si>
-  <si>
-    <t>Four-Cheese Pepperoni Pizza appetizer-style flatbread</t>
-  </si>
-  <si>
-    <t>Buffalo Ranch Chopped Salad with buffalo ranch dressing</t>
-  </si>
-  <si>
-    <t>Buffalo Ranch Chopped Salad &amp; Chicken with 2 ready-to-cook chicken breasts</t>
-  </si>
-  <si>
-    <t>Boneless Skinless Chicken Breast a la carte protein</t>
-  </si>
-  <si>
-    <t>Ground Turkey a la carte protein</t>
-  </si>
-  <si>
-    <t>Ahi Tuna a la carte protein</t>
-  </si>
-  <si>
-    <t>Shrimp a la carte protein</t>
-  </si>
-  <si>
-    <t>Italian Sausage a la carte protein</t>
-  </si>
-  <si>
-    <t>Sweet Chili Chicken with Scallion Rice &amp; Zesty Carrots</t>
-  </si>
-  <si>
-    <t>Griddled Onion Burgers with Creamy Dijon Aioli &amp; Frites</t>
-  </si>
-  <si>
-    <t>Southwest Pork Flautas with Zesty Crema &amp; Pico de Gallo</t>
-  </si>
-  <si>
-    <t>Harissa-Roasted Chickpea Bowls with Couscous, Creamy Avocado Dressing &amp; Cilantro</t>
-  </si>
-  <si>
-    <t>Herb Butter Steak with Roasted Brussels Sprouts &amp; Cheesy Potatoes</t>
-  </si>
-  <si>
-    <t>Cajun Chicken Sausage Linguine with Monterey Jack</t>
-  </si>
-  <si>
-    <t>Pork Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
-  </si>
-  <si>
-    <t>Pork Chili Loaded Sweet Potatoes with Pepper Jack &amp; Southwest Crema</t>
-  </si>
-  <si>
-    <t>Ponzu Chili Steak Bowls with Garlic Ginger Rice, Snap Peas &amp; Chili Mayo</t>
-  </si>
-  <si>
-    <t>Loaded Baked Potato Chowder with Bacon, Cheddar &amp; Jalapeño</t>
-  </si>
-  <si>
-    <t>Turkey Shepherd's Pie topped with Garlic Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Firehouse Onion &amp; Pepper Flatbreads with Spicy Garlic Sauce</t>
-  </si>
-  <si>
-    <t>Creamy Peppercorn Salmon with Lemony Green Beans &amp; Roasted Potato Wedges</t>
-  </si>
-  <si>
-    <t>Broccoli Cheddar Bisque with Garlic Bread</t>
-  </si>
-  <si>
-    <t>Sticky-Sweet Broccoli Bowls with Bell Pepper, Ginger Rice, Sriracha Mayo &amp; a Fried Egg</t>
-  </si>
-  <si>
-    <t>Curried Chickpea Bowls with Spinach and Ginger Rice</t>
-  </si>
-  <si>
-    <t>Baja Shrimp Tacos with Pineapple Salsa</t>
-  </si>
-  <si>
-    <t>Sweet Chili Chicken with Scallion Rice &amp; Zesty Broccoli</t>
-  </si>
-  <si>
-    <t>Griddled Onion Burgers with Creamy Dijon Aioli &amp; Sweet Potato Frites</t>
-  </si>
-  <si>
-    <t>Southwest Beef Flautas with Zesty Crema &amp; Pico de Gallo</t>
-  </si>
-  <si>
-    <t>Harissa Chickpea Bowls with Salmon plus Couscous, Creamy Avocado Dressing &amp; Cilantro</t>
-  </si>
-  <si>
-    <t>Cajun Shrimp Linguine with Monterey Jack</t>
-  </si>
-  <si>
-    <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
-  </si>
-  <si>
-    <t>Beef Chili Loaded Sweet Potatoes with Pepper Jack &amp; Southwest Crema</t>
-  </si>
-  <si>
-    <t>Firehouse Onion &amp; Pepper Flatbreads with Bacon and Spicy Garlic Sauce</t>
-  </si>
-  <si>
-    <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
-  </si>
-  <si>
-    <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
-  </si>
-  <si>
-    <t>Tomato-Coconut Cod Curry with White Rice &amp; Marinated Vegetables</t>
-  </si>
-  <si>
-    <t>Chicken &amp; Farro Grain Bowl with Arugula &amp; Roasted Vegetables</t>
-  </si>
-  <si>
-    <t>Spicy Orange-Glazed Yellowtail Fillets with Fried Rice &amp; Candied Cashews</t>
-  </si>
-  <si>
-    <t>Crispy Breaded Pork Chops &amp; Truffle Mayo with Roasted Brussels Sprouts &amp; Pancetta</t>
-  </si>
-  <si>
-    <t>Oven-Baked Chicken Marbella with Potatoes &amp; Arugula Salad</t>
-  </si>
-  <si>
-    <t>Seared Steaks &amp; Homemade Steak Sauce with Mashed Potatoes &amp; Sautéed Carrots</t>
-  </si>
-  <si>
-    <t>Orange Tofu &amp; Brown Rice with Sweet Peppers, Kohlrabi &amp; Cashews</t>
-  </si>
-  <si>
-    <t>Shawarma-Spiced Pork &amp; Vegetable Quinoa with Lemon Yogurt</t>
-  </si>
-  <si>
-    <t>Feta-Stuffed Burgers with Tzatziki &amp; Oregano Potatoes</t>
-  </si>
-  <si>
-    <t>Pork Roast &amp; Balsamic-Fig Sauce with Roasted Sweet Potatoes, Carrots &amp; Broccoli</t>
-  </si>
-  <si>
-    <t>Lemon-Caper Tilapia with Orzo, Zucchini &amp; Peppers</t>
-  </si>
-  <si>
-    <t>Glazed Beef &amp; Crispy Rice with Sautéed Green Beans &amp; Peppers</t>
-  </si>
-  <si>
-    <t>Sweet &amp; Spicy Salmon with Green Beans, Bell Pepper &amp; White Rice</t>
-  </si>
-  <si>
-    <t>Basil Pesto Gnocchi with Mushrooms &amp; Pistachio Breadcrumbs</t>
-  </si>
-  <si>
-    <t>Seared Steaks &amp; Mashed Potatoes with Sautéed Carrots &amp; Homemade Steak Sauce</t>
-  </si>
-  <si>
-    <t>Thai Chicken &amp; Curry-Peanut Noodles with Carrots &amp; Shishito Peppers</t>
-  </si>
-  <si>
-    <t>Spicy Zucchini Quesadillas with Poblano Pepper &amp; Fried Eggs</t>
-  </si>
-  <si>
-    <t>Crispy Curry Chicken &amp; Roasted Vegetables with Coconut Rice &amp; Creamy Tomato Achaar</t>
-  </si>
-  <si>
-    <t>Crispy Skin Salmon with Salsa Verde &amp; Farro Salad</t>
-  </si>
-  <si>
-    <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
-  </si>
-  <si>
-    <t>Fresh Basil Fettuccine Pasta with Zucchini, Tomatoes &amp; Parmesan</t>
-  </si>
-  <si>
-    <t>Family Meal Prep Bundle with Chicken &amp; Beef</t>
-  </si>
-  <si>
-    <t>Wellness Meal Prep Bundle with Pork &amp; Chicken</t>
-  </si>
-  <si>
-    <t>Crispy Garlic-Herb Gnocchi with Creamy Basil Pesto</t>
-  </si>
-  <si>
-    <t>Garlic Rosemary Chicken with Roasted Root Veggies</t>
-  </si>
-  <si>
-    <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Zucchini &amp; Garlic Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Sweet Chili Pork Tacos with Red Cabbage Slaw, Zesty Crema &amp; Peanuts</t>
-  </si>
-  <si>
-    <t>Blistered Tomato &amp; Feta Penne with Italian Seasoned Kale</t>
-  </si>
-  <si>
-    <t>Dijon Butter Steak with Roasted Green Beans &amp; Rosemary Potatoes</t>
-  </si>
-  <si>
-    <t>Peanut Chicken Stir-Fry Bowls with Garlic Rice &amp; Pickled Cucumber Salad</t>
-  </si>
-  <si>
-    <t>Gooey Stuffed Pork Burgers with BBQ Onion &amp; Crispy Potato Wedges</t>
-  </si>
-  <si>
-    <t>Creamy Chicken Sausage Penne plus Zucchini &amp; Melty Mozz</t>
-  </si>
-  <si>
-    <t>Cowboy Skillet Pie with Poblano &amp; Jalapeño</t>
-  </si>
-  <si>
-    <t>Pork Chops over Cabbage Stir-Fry with Jasmine Rice &amp; Tangy Chili Sauce</t>
-  </si>
-  <si>
-    <t>Lemon Chive Chicken Legs with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
-  </si>
-  <si>
-    <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Lemon Herb Potatoes</t>
-  </si>
-  <si>
-    <t>Lemon Butter Barramundi a Light, Flaky, Buttery Fish with Carrots &amp; Rice</t>
-  </si>
-  <si>
-    <t>Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
-  </si>
-  <si>
-    <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
-  </si>
-  <si>
-    <t>Shallot &amp; Snap Pea Flatbreads with Peppery Cream Sauce</t>
-  </si>
-  <si>
-    <t>Lemon Herb Risotto With Chicken and Tomato-Bacon Jam</t>
-  </si>
-  <si>
-    <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Green Beans &amp; Garlic Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Sweet Chili Chicken Tacos with Red Cabbage Slaw, Zesty Crema &amp; Peanuts</t>
-  </si>
-  <si>
-    <t>Gooey Stuffed Pork Burgers with BBQ Onion &amp; Crispy Sweet Potato Wedges</t>
-  </si>
-  <si>
-    <t>Steak over Cabbage Stir-Fry with Jasmine Rice &amp; Tangy Chili Sauce</t>
-  </si>
-  <si>
-    <t>Lemon Chive Chicken Breasts with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
-  </si>
-  <si>
-    <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Sweet Potato Wedges</t>
-  </si>
-  <si>
-    <t>Beef, Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
-  </si>
-  <si>
-    <t>Cheese-tastic Southwestern Hash with Bacon, Peppers, Sour Cream &amp; a Fried Egg</t>
-  </si>
-  <si>
-    <t>4 Chicken Breasts + 2 Ranch Steaks 2 Servings Plan: 4 (5 oz) Chicken Breasts &amp; 2 (5 oz) Ranch Steaks</t>
-  </si>
-  <si>
-    <t>CREAMY CHICKEN &amp; POTATO SOUP corn, roasted red peppers, sharp cheddar cheese, chives</t>
-  </si>
-  <si>
-    <t>SRIRACHA-TAMARI BEEF BOWLS jasmine rice, broccoli, cabbage &amp; carrots, peanuts, sesame seeds</t>
-  </si>
-  <si>
-    <t>APRICOT-GLAZED PORK MEATBALLS pearl couscous, kale salad with radishes, carrots &amp; pistachios</t>
-  </si>
-  <si>
-    <t>ITALIAN HERB-SEASONED BARRAMUNDI kale, artichoke &amp; roasted red pepper couscous, almonds</t>
-  </si>
-  <si>
-    <t>TRUFFLE BUTTER STEAKS roasted potato wedges, broccoli with Parmesan</t>
-  </si>
-  <si>
-    <t>STEAK &amp; SHRIMP WITH SPICY PEPERONATA Parmesan cheese, pine nuts, parsley-basil pepita pesto</t>
-  </si>
-  <si>
-    <t>MEDITERRANEAN-STYLE CHICKEN SALAD kale, sautéed yellow squash, gremolata, lemon aïoli</t>
-  </si>
-  <si>
-    <t>SPICED BEEF &amp; CAULIFLOWER “RICE” roasted carrots, roasted almonds, lemon-scallion crema</t>
-  </si>
-  <si>
-    <t>HONEY-MUSTARD SALMON smoky roasted rainbow carrots, sautéed broccoli</t>
-  </si>
-  <si>
-    <t>CREAMY TOMATO CHICKPEA SPAGHETTI Barilla® Chickpea Spaghetti, Parmesan-crusted cauliflower, peas</t>
-  </si>
-  <si>
-    <t>ROASTED CHICKPEA &amp; CARROT BOWLS kale, rice with dates &amp; feta, creamy turmeric-spiced vinaigrette</t>
-  </si>
-  <si>
-    <t>SPICY MUSHROOM STIR-FRY jasmine rice, broccoli, red bell pepper, carrot, cabbage</t>
-  </si>
-  <si>
-    <t>Homestyle Chicken &amp; Biscuit Pot Pie with Pillsbury™️ Buttermilk Southern Homestyle Biscuits, Carrots &amp; Celery</t>
-  </si>
-  <si>
-    <t>Southwest Beef Cavatappi with Poblano &amp; Smoky Red Pepper Crema</t>
-  </si>
-  <si>
-    <t>Hoisin-Glazed Pork Tenderloin with Scallion Rice, Ponzu Roasted Green Beans &amp; Sriracha Mayo</t>
-  </si>
-  <si>
-    <t>San Antonio Beef Bowls with Blue Corn Tortilla Chips, Fresh Salsa &amp; Lime Crema</t>
-  </si>
-  <si>
-    <t>One-Pan Moo Shu Pork Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
-  </si>
-  <si>
-    <t>Crunchy Italian Chicken Sheet Pan Bake with Spiced Potatoes &amp; Lemony Green Beans</t>
-  </si>
-  <si>
-    <t>Lil’ Sweet Lil’ Spicy Chicken with Roasted Carrots &amp; Cheesy Garlic Potato Wedges</t>
-  </si>
-  <si>
-    <t>Garden Spinach Ricotta Ravioli with Zucchini Ribbons, Tomato &amp; Creamy Lemon Sauce</t>
-  </si>
-  <si>
-    <t>Zucchini &amp; Tomato Flatbreads with Lemon Ricotta, Fresh Herbs, Honey &amp; Chili Flakes</t>
-  </si>
-  <si>
-    <t>One-Pan Smashed Black Bean Tacos with Creamy Slaw, Pickled Onion &amp; Red Pepper Crema</t>
-  </si>
-  <si>
-    <t>Peppercorn-Crusted Beef Tenderloin with Chive Butter, Asparagus Amandine &amp; Mashed Sweet Potatoes</t>
-  </si>
-  <si>
-    <t>Chicken Ramen in a Shoyu-Style Broth with Carrots, Chili Garlic Oil &amp; Crispy Onions</t>
-  </si>
-  <si>
-    <t>Spicy Shrimp &amp; Broccoli Stir-Fry in a Sweet Chili Soy Glaze over Jasmine Rice</t>
-  </si>
-  <si>
-    <t>Gametime Chicken Sausage &amp; Pepper Subs with Mixed Green Salad &amp; Balsamic Vinaigrette</t>
-  </si>
-  <si>
-    <t>Hibachi Sweet Soy Bavette Steak &amp; Shrimp with Garlic Rice, Sesame-Roasted Zucchini &amp; Spicy Special Sauce</t>
-  </si>
-  <si>
-    <t>Butter-Basted Chicken with Candied Bacon Brussels Sprouts &amp; Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Smoky Brown Sugar Chicken Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
-  </si>
-  <si>
-    <t>One-Pot Pork &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
-  </si>
-  <si>
-    <t>Lone Star Poblano Mac &amp; Cheese with a Crispy Panko Topping</t>
-  </si>
-  <si>
-    <t>Black Bean &amp; Charred Corn Burrito Bowls with Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
-  </si>
-  <si>
-    <t>Crunchy Curried Chickpea Bowls with Golden Raisins &amp; Pickled Cabbage</t>
-  </si>
-  <si>
-    <t>Pepper Jam Pork Tenderloin Plus a Kale &amp; Sweet Potato Jumble</t>
-  </si>
-  <si>
-    <t>Italian Garden Veggie Soup with Kale, Pearled Couscous &amp; Garlic Bread</t>
-  </si>
-  <si>
-    <t>Orange Chicken with Jasmine Rice</t>
-  </si>
-  <si>
-    <t>Middle Eastern Spiced Turkey Bowls with Bulgur, Zucchini &amp; Cilantro Yogurt</t>
-  </si>
-  <si>
-    <t>Hoisin-Glazed Chicken with Scallion Rice, Ponzu Roasted Green Beans &amp; Sriracha Mayo</t>
-  </si>
-  <si>
-    <t>One-Pan Moo Shu Shrimp Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
-  </si>
-  <si>
-    <t>Garden Spinach Ricotta Ravioli with Italian Chicken Sausage</t>
-  </si>
-  <si>
-    <t>Smoky Brown Sugar Beef Tenderloin Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
-  </si>
-  <si>
-    <t>One-Pot Beef &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
-  </si>
-  <si>
-    <t>Lone Star Poblano Mac &amp; Cheese with Bacon and a Crispy Panko Topping</t>
-  </si>
-  <si>
-    <t>Shrimp &amp; Black Bean Burrito Bowls with Charred Corn, Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
-  </si>
-  <si>
-    <t>Crunchy Curried Chickpea Bowls with Chicken, Golden Raisins &amp; Pickled Cabbage</t>
+    <t>https://www.blueapron.com/recipes/baked-egg-potato-hash-with-kale-cheddar-hot-sauce</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/basil-pesto-gnocchi-with-mushrooms-pistachio-breadcrumbs-9c2a9dc4-fb65-4050-aa26-ef42ddd714c6</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/blackened-cajun-burger-with-roasted-sweet-potatoes-spicy-ketchup</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/calabrian-honey-chicken-with-gnocchi-roasted-broccoli-661a97e5-1561-4b95-818a-a37263126220</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/chicken-farro-grain-bowl-with-arugula-roasted-vegetables</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/chicken-poblano-tacos-with-white-cheddar-cheese</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/chocolate-orange-crinkle-cookies-with-walnuts-3</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/creamy-prosciutto-tomato-pasta-with-brown-butter-breadcrumbs-e12c62d6-44d0-48fd-919e-4d30881d4df9</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/crispy-breaded-pork-chops-truffle-mayo-with-roasted-brussels-sprouts-pancetta</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/crispy-curry-chicken-roasted-vegetables-with-coconut-rice-creamy-tomato-achaar-4</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/crispy-garlic-herb-gnocchi-with-creamy-basil-pesto</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/crispy-skin-salmon-with-salsa-verde-farro-salad-cd41ce40-655e-48e4-bebe-b33a56b07b1a</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/family-meal-prep-bundle-with-chicken-beef</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/family-meal-prep-bundle-with-chicken-pork-3</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/greek-style-feta-burgers-with-tzatziki-oregano-potatoes-6d17c74f-41f9-4caa-8395-a6a80de65329</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/fresh-basil-fettuccine-pasta-with-zucchini-tomatoes-parmesan</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/glazed-beef-crispy-rice-with-sauteed-green-beans-peppers-4</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/greek-style-veggie-pitas-with-lemon-dressed-broccoli-9</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/guajillo-chicken-tacos-with-cheesy-roasted-potatoes</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/lemon-caper-tilapia-with-orzo-zucchini-peppers-8180fcdd-e970-4d26-859b-357cc0b8d68d</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/miso-ponzu-beyond-burger-with-sesame-shishitos-mushrooms</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/olive-feta-cheese-pizza-with-spicy-tomato-sauce</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/orange-tofu-brown-rice-with-sweet-peppers-kohlrabi-cashews</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/oven-baked-chicken-marbella-with-potatoes-arugula-salad</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/pan-seared-duck-breasts-with-crispy-duck-fat-rice-sesame-ginger-arugula-salad</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/pork-chorizo-meatballs-poblano-rice-with-chipotle-peanut-sauce</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/pork-roast-balsamic-fig-sauce-with-roasted-sweet-potatoes-carrots-broccoli</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/roasted-cauliflower-lentil-salad-with-jalapeno-vinaigrette-creamy-salsa-verde-9e1d3f3e-7d8c-4e00-bad0-b6492d6a2f8c</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seafood-trio-salmon-shrimp-scallops-29</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seared-chicken-persimmon-pan-sauce-with-cheddar-biscuits-spiced-honey-butter</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seared-steaks-homemade-steak-sauce-with-mashed-potatoes-sauteed-carrots-8ac1dda1-c68e-4cf0-9349-98b882a627ca</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seared-steaks-mashed-potatoes-with-sauteed-carrots-homemade-steak-sauce-b618f7b2-87b8-416c-893d-5fa4c26b60c7</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/shawarma-spiced-pork-vegetable-quinoa-with-lemon-yogurt</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/sheet-pan-miso-ginger-salmon-with-spicy-sweet-potatoes-green-beans</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/sheet-pan-pesto-salmon-with-a-roasted-vegetable-medley-6</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/specialty-selection-ny-strip-steaks-scallops-prime-ground-beef-27</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/spicy-beef-sesame-noodles-with-bok-choy-ede49315-31fa-40f0-a90b-6fe6c2183bef</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/spicy-orange-glazed-yellowtail-fillets-with-fried-rice-candied-cashews</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/spicy-tomato-pasta-with-spinach-broccoli</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/spicy-zucchini-quesadillas-with-poblano-pepper-fried-eggs-dc6e5fae-e73c-4ad6-a5c2-b6ae91a11488</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/surf-turf-steaks-chicken-salmon-shrimp-29</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/sweet-spicy-salmon-with-green-beans-bell-pepper-white-rice-4</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/tamarind-honey-chicken-breasts-with-carrots-mashed-potatoes</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/thai-chicken-curry-peanut-noodles-with-carrots-shishito-peppers</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/tilapia-creamy-curry-sauce-with-sesame-bok-choy-rice-0ac5d768-9571-4054-b0e1-459adfd42b95</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/tomatillo-chicken-barley-bowls-with-roasted-shishito-peppers-orange-salsa</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/tomato-coconut-cod-curry-with-white-rice-marinated-vegetables</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-chicken-salmon-4</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-pork-chicken</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/4-chicken-breasts-2-ranch-steaks-61168ac6fabe8d0d893ce622</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/beef-chili-loaded-sweet-potatoes-619e556ea1430503f13eeb02</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/beef-sweet-potato-black-bean-stew-6197cfde57e8d2215070afd3</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/blistered-tomato-feta-penne-6197b70871e3d12b2c06a14f</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/broccoli-cheddar-bisque-619e4a3e326f172693110d74</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cajun-chicken-sausage-linguine-619e48b7d4756505395c93d3</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cajun-shrimp-linguine-619e54d1da11ff0b564f2d92</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197cff2fce7c231035ca2e0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/cowboy-skillet-pie-6197b86d4310ff3559187192</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/creamy-chicken-sausage-penne-6197b82fa72dab3eaa0de8c0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/creamy-peppercorn-salmon-619e49b9b57b714bd713e7c5</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/curried-chickpea-bowls-619e4a84f3260750ee16f0bb</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/dijon-butter-steak-6197b781be996c425b6087b0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/firehouse-onion-pepper-flatbreads-619e55d5e68db7241974db92</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/firehouse-onion-pepper-flatbreads-619e498a10c8d43acf659a1b</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/garlic-rosemary-chicken-6197b58889cfe006315a2882</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/gooey-stuffed-pork-burgers-6197d0aa573f327c49473ca1</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/gooey-stuffed-pork-burgers-6197b7f0573f327c49473c91</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/griddled-onion-burgers-619e4843ca54df2502158172</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/griddled-onion-burgers-619e5410440e87540e386f6f</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/harissa-chickpea-bowls-with-salmon-619e54895754da49c63a77f2</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/harissa-roasted-chickpea-bowls-619e487fdbb57840b03afa97</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/herb-butter-steak-619e4896446df24e7560b35d</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-butter-barramundi-6197ba057601ed24791385c7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-chive-chicken-breasts-6197cf446ddca24d7e200fd8</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-chive-chicken-legs-6197b940772e7c4b583cd50a</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/lemon-herb-risotto-with-chicken-6197bab806397d0841399d11</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/loaded-baked-potato-chowder-619e49374b5a4927ec6e9fde</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197b9baa72dab3eaa0de8c7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197cf9c8cb33d0257217de4</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/peanut-chicken-stir-fry-bowls-6197b7bdcb4de65cec4b6b05</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/ponzu-chili-steak-bowls-619e4919dbb57840b03afa99</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/pork-chili-loaded-sweet-potatoes-619e48f390cc600b712d5ef7</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/pork-chops-over-cabbage-stir-fry-6197b8ee7dab8144ca2c4741</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/pork-sausage-pepper-penne-619e48d473610a461673dc39</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/shallot-snap-pea-flatbreads-6197baaa64e40b505d2b4f2d</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/southwest-beef-flautas-619e5454dbb57840b03afa9e</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/southwest-pork-flautas-619e485e0fc0a554c3789c85</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/steak-over-cabbage-stir-fry-6197cf311a9fdd0e535d7e65</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sticky-umami-broccoli-bowls-619e4a6ed4848321927f7d2b</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-tacos-6197cef08f4dfc68936d64fb</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-619e53ce5bd1d93d2f7d46a2</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-619e47b109494841da71cb20</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-chili-pork-tacos-6197b6863d884e693502fe0c</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-potato-black-bean-stew-6197ba6716969b5cc67dc543</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197ceafd8ae445f49665dde</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197b62ccea5f944cc746674</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/turkey-shepherds-pie-619e49555343ce59b7723ab2</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/apricot-glazed-pork-meatballs-616d895fdd5f077890039780</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/creamy-chicken-potato-soup-616d895c4fd43275cb51893f</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/creamy-tomato-chickpea-spaghetti-616d8966197e2e0dfb7a65d6</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/honey-mustard-salmon-60edb06236da34788b4c1567</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/italian-herb-seasoned-barramundi-616d8964b1f5893b332e9ce4</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/mediterranean-style-chicken-salad-601d8d0e5df88101fa189b5c</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/roasted-chickpea-carrot-bowls-60c747b1e3218921147f2c82</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/spiced-beef-cauliflower-rice-60589af6876ba841f72d150c</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/spicy-mushroom-stir-fry-5ffdbf3793f72459575cdc94</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/sriracha-tamari-beef-bowls-616d895ebc2b2a553f53bf6d</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/steak-shrimp-with-spicy-peperonata-616d89613adb3756764a3086</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/truffle-butter-steaks-616d89658dc7791e073e24f7</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/black-bean-charred-corn-burrito-bowls-618a9199393fbc6c437c882d</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/butter-basted-chicken-6182a10af281107a3002b30a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/chicken-ramen-in-a-shoyu-style-broth-6182a04ec95316759040d54c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182d5a67f8d0a023b1a3310</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182a1a98ce0720ee6565efe</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crunchy-italian-chicken-sheet-pan-bake-61829f3815e1b62d22600abd</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/gametime-chicken-sausage-pepper-subs-6182a0b318f21856d4018d66</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-6182d49b8ce0720ee6565f59</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-61829fc4c55f6460c95561fb</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/hibachi-sweet-soy-bavette-steak-shrimp-6182a0c2505c1933651c3471</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/hoisin-glazed-chicken-6182d43e34a2e75b89446e8c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/hoisin-glazed-pork-tenderloin-61829ec53b038a16de67c74c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/homestyle-chicken-biscuit-pot-pie-61829dd1fb233152ce61d0cc</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/italian-garden-veggie-soup-6182a1f9342bd71da7787775</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/lil-sweet-lil-spicy-chicken-61829fa8c95316759040d54a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182d56bc55f6460c955620d</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182a16831db7215d52e870a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/middle-eastern-spiced-turkey-bowls-6182a2cfe979662bfb4f11bb</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-pork-bowls-61829f17c13a1e0a3e659b7b</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-shrimp-bowls-6182d47e7fa7103a4e7d1336</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-smashed-black-bean-tacos-6182a00694132c702a5fcb3c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-beef-black-bean-chili-6182d550f281107a3002b32d</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-pork-black-bean-chili-6182a14b5d8fff32c7000498</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/orange-chicken-6182a287ed9d7726956e4fbf</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/pepper-jam-pork-tenderloin-6182a1d9bf994e28564c2b0b</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/peppercorn-crusted-beef-tenderloin-6182a02e7b40ce453472fd5e</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/san-antonio-beef-bowls-61829ef92ad9000e3b24e3e6</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/shrimp-black-bean-burrito-bowls-618a9223c9fd3619be1a2d8e</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-beef-tenderloin-salad-6182d51046899e4b2e38d843</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-chicken-salad-6182a12cad9341305925da42</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/southwest-beef-cavatappi-61829df61d96cb794f7985f2</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/spicy-shrimp-broccoli-stir-fry-6182a07d89377f4f84142637</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/zucchini-and-tomato-flatbreads-61829fe618f21856d4018d64</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/ahi-tuna-865095c3-a745-4f90-80d4-b11cddeb67a6</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/bbq-mushroom-flatbread-a84d26ab-7251-4c77-9a5a-27f430640f10</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/balsamic-spicy-onion-jam-burger</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/beef-meatloaf-with-chipotle-crema-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/boneless-skinless-chicken-breast-8b769bef-c9e9-4b67-86f3-f6093f36e8d9</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/buffalo-ranch-chopped-salad-chicken</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/buffalo-ranch-chopped-salad-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/caprese-steak-strip-flatbreads-with-mozzarella</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/cheddar-bacon-crusted-chicken-with-ranch-potatoes-9af6b244-80ab-45ce-8706-cdff16879749</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/cheesy-spinach-artichoke-stuffed-chicken-breast</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/cranberry-goat-cheese-stuffed-chicken-breast-with-sage-demi-glace-6c41d441-ae31-43c4-b941-0061c275b865</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/crispy-arrabbiata-chicken-with-asiago-broccoli-and-peppers</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/four-cheese-pepperoni-pizza-ce53fd42-967d-424e-8bd1-fe3a3ccc0a3c</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/gooey-butter-cake-9a96830b-e60e-4faf-98cf-6027bd18aaa0</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/ground-turkey-65a59861-baff-498d-920e-be620e1ab2e2</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/italian-sausage-f74341ee-fa2c-4196-bc95-0964c79a868d</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/italian-style-parmesan-fried-chicken</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/one-pan-bbq-beef-enchiladas</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/pepperoni-pizza-pasta-with-bell-peppers-and-spinach-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/pork-chop-with-sage-honey-butter-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/pork-egg-roll-in-a-bowl-with-peanuts</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/salted-caramel-truffle-cheesecake-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/sausage-pasta-and-tomato-cream-sauce-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/sausage-egg-cheese-croissant-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/shrimp-avocado-blt</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/shrimp-1f88ac88-3ffb-4f94-9ee8-f4d40a9b9721</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/spaghetti-with-roasted-red-pepper-cream-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/steak-strip-tacos-with-corn-elote-and-slaw-288c2872-36a2-447c-993f-e790997f1ae9</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/sticky-chicken-thigh-tacos</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/teriyaki-lime-ahi-tuna-2b7f626a-d200-423a-8b05-f71995ac8ad7</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/three-cheese-asiago-demi-loaf-c7222854-9767-43d5-af1f-03bfd50162b9</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/turkey-elote-corn-chowder-with-jalapenos</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/artichoke-and-fresh-mozzarella-pizza-with-radicchio-hazelnut-salad</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/baja-shrimp-bowls-with-spicy-chipotle-cabbage-over-cilantro-lime-rice</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/beef-chili-with-cheddar-and-greek-yogurt</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/beef-mole-enchilada-pie-with-pinto-beans-and-queso-fresco-1</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/ground-beef-stroganoff-over-egg-noodles</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/beef-n-cheddar-chili-mac-1</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/black-rice-bowls-with-winter-vegetables-pear-and-cashew-dressing</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/cheesy-french-onion-meatloaf-with-lentil-and-mixed-green-salad</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-parmesan-with-basil-marinara-over-penne</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-adobo-vermicelli-bowls</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-and-egg-donburi-rice-bowl-with-kimchi-lime-vegetables</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-with-roasted-beets-chard-and-parsley-pesto</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chili-spiced-tofu-biryani-with-cauliflower-brown-rice-and-raisins</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chorizo-chard-and-potato-frittata-with-mixed-green-salad</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/steaks-with-roasted-garlic-root-vegetables-and-lemon-aioli</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/japanese-curry-chicken-katsu-with-roasted-vegetables-and-brown-rice</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/korean-beef-japchae-with-glass-noodles-kale-and-mushrooms</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/mediterranean-turkey-and-spinach-skillet-with-sun-dried-tomato-tapenade</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/moroccan-chicken-in-chraime-sauce-with-sweet-potato-mash</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/pulled-pork-taquitos-with-tomatillo-salsa-verde-and-queso-fresco</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/quinoa-spinach-grain-bowls-with-fresh-dill-feta-and-fried-eggs</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/roast-chicken-with-harissa-spiced-veggies-cauli-mash-and-almonds</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/salmon-tacos-with-cabbage-slaw-salsa-roja-and-chipotle-yogurt-1</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/sausage-and-peppers-with-tangy-spiced-sweet-potatoes-and-green-romesco</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/shrimp-chow-mein-with-broccoli-mushrooms-and-toasted-garlic-1</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/sloppy-joes-with-pickled-jalapenos-and-tangy-coleslaw</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/smokehouse-sausage-jambalaya</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/sole-piccata-with-red-pepper-vinaigrette-and-baby-broccoli</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/spicy-sichuan-glass-noodle-stir-fry-with-impossible-plant-based-beef</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/spinach-saag-paneer-with-basmati-rice</t>
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/steak-stir-fry-with-broccoli-carrots-and-sesame-seeds</t>
   </si>
   <si>
-    <t>https://sunbasket.com/modals/recipe-modal/baja-shrimp-bowls-with-spicy-chipotle-cabbage-over-cilantro-lime-rice</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/artichoke-and-fresh-mozzarella-pizza-with-radicchio-hazelnut-salad</t>
+    <t>https://sunbasket.com/modals/recipe-modal/swedish-meatballs-with-garlic-mashed-potatoes-and-lingonberry-sauce</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/sweet-pea-and-broccoli-risotto-1</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/thai-green-curry-chicken</t>
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/thai-style-spicy-yuba-noodle-soup-with-potato-and-bell-pepper</t>
   </si>
   <si>
-    <t>https://sunbasket.com/modals/recipe-modal/moroccan-chicken-in-chraime-sauce-with-sweet-potato-mash</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/mediterranean-turkey-and-spinach-skillet-with-sun-dried-tomato-tapenade</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/chorizo-chard-and-potato-frittata-with-mixed-green-salad</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/chicken-adobo-vermicelli-bowls</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/pulled-pork-taquitos-with-tomatillo-salsa-verde-and-queso-fresco</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/cheesy-french-onion-meatloaf-with-lentil-and-mixed-green-salad</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/steaks-with-roasted-garlic-root-vegetables-and-lemon-aioli</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/chicken-with-roasted-beets-chard-and-parsley-pesto</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/sloppy-joes-with-pickled-jalapenos-and-tangy-coleslaw</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/sole-piccata-with-red-pepper-vinaigrette-and-baby-broccoli</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/salmon-tacos-with-cabbage-slaw-salsa-roja-and-chipotle-yogurt-1</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/quinoa-spinach-grain-bowls-with-fresh-dill-feta-and-fried-eggs</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/black-rice-bowls-with-winter-vegetables-pear-and-cashew-dressing</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/chicken-and-egg-donburi-rice-bowl-with-kimchi-lime-vegetables</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/smokehouse-sausage-jambalaya</t>
-  </si>
-  <si>
     <t>https://sunbasket.com/modals/recipe-modal/turkey-bolognese-over-spaghetti</t>
   </si>
   <si>
-    <t>https://sunbasket.com/modals/recipe-modal/beef-chili-with-cheddar-and-greek-yogurt</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/thai-green-curry-chicken</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/beef-n-cheddar-chili-mac-1</t>
-  </si>
-  <si>
     <t>https://sunbasket.com/modals/recipe-modal/turkey-chili-mac-with-cheddar</t>
   </si>
   <si>
-    <t>https://sunbasket.com/modals/recipe-modal/sausage-and-peppers-with-tangy-spiced-sweet-potatoes-and-green-romesco</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/korean-beef-japchae-with-glass-noodles-kale-and-mushrooms</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/ground-beef-stroganoff-over-egg-noodles</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/swedish-meatballs-with-garlic-mashed-potatoes-and-lingonberry-sauce</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/chicken-parmesan-with-basil-marinara-over-penne</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/beef-mole-enchilada-pie-with-pinto-beans-and-queso-fresco-1</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/japanese-curry-chicken-katsu-with-roasted-vegetables-and-brown-rice</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/roast-chicken-with-harissa-spiced-veggies-cauli-mash-and-almonds</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/shrimp-chow-mein-with-broccoli-mushrooms-and-toasted-garlic-1</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/sweet-pea-and-broccoli-risotto-1</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/spinach-saag-paneer-with-basmati-rice</t>
-  </si>
-  <si>
-    <t>https://sunbasket.com/modals/recipe-modal/chili-spiced-tofu-biryani-with-cauliflower-brown-rice-and-raisins</t>
-  </si>
-  <si>
     <t>https://sunbasket.com/modals/recipe-modal/vegetarian-couscous-with-artichokes-olives-and-creamy-feta-dressing</t>
   </si>
   <si>
-    <t>https://sunbasket.com/modals/recipe-modal/spicy-sichuan-glass-noodle-stir-fry-with-impossible-plant-based-beef</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/baked-egg-potato-hash-with-kale-cheddar-hot-sauce</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/tamarind-honey-chicken-breasts-with-carrots-mashed-potatoes</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/sheet-pan-miso-ginger-salmon-with-spicy-sweet-potatoes-green-beans</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/pan-seared-duck-breasts-with-crispy-duck-fat-rice-sesame-ginger-arugula-salad</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-chicken-salmon-4</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/surf-turf-steaks-chicken-salmon-shrimp-29</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/specialty-selection-ny-strip-steaks-scallops-prime-ground-beef-27</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/seafood-trio-salmon-shrimp-scallops-29</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/family-meal-prep-bundle-with-chicken-pork-3</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/blackened-cajun-burger-with-roasted-sweet-potatoes-spicy-ketchup</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/creamy-prosciutto-tomato-pasta-with-brown-butter-breadcrumbs-e12c62d6-44d0-48fd-919e-4d30881d4df9</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/tomatillo-chicken-barley-bowls-with-roasted-shishito-peppers-orange-salsa</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/chocolate-orange-crinkle-cookies-with-walnuts-3</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/spicy-tomato-pasta-with-spinach-broccoli</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/seared-chicken-persimmon-pan-sauce-with-cheddar-biscuits-spiced-honey-butter</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/greek-style-veggie-pitas-with-lemon-dressed-broccoli-9</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/roasted-cauliflower-lentil-salad-with-jalapeno-vinaigrette-creamy-salsa-verde-9e1d3f3e-7d8c-4e00-bad0-b6492d6a2f8c</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/spicy-beef-sesame-noodles-with-bok-choy-ede49315-31fa-40f0-a90b-6fe6c2183bef</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/tilapia-creamy-curry-sauce-with-sesame-bok-choy-rice-0ac5d768-9571-4054-b0e1-459adfd42b95</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/pork-chorizo-meatballs-poblano-rice-with-chipotle-peanut-sauce</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/sheet-pan-pesto-salmon-with-a-roasted-vegetable-medley-6</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/miso-ponzu-beyond-burger-with-sesame-shishitos-mushrooms</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/calabrian-honey-chicken-with-gnocchi-roasted-broccoli-661a97e5-1561-4b95-818a-a37263126220</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/chicken-poblano-tacos-with-white-cheddar-cheese</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/olive-feta-cheese-pizza-with-spicy-tomato-sauce</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/guajillo-chicken-tacos-with-cheesy-roasted-potatoes</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/balsamic-spicy-onion-jam-burger</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/cheesy-spinach-artichoke-stuffed-chicken-breast</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/teriyaki-lime-ahi-tuna-2b7f626a-d200-423a-8b05-f71995ac8ad7</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/cranberry-goat-cheese-stuffed-chicken-breast-with-sage-demi-glace-6c41d441-ae31-43c4-b941-0061c275b865</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/shrimp-avocado-blt</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/italian-style-parmesan-fried-chicken</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/sausage-pasta-and-tomato-cream-sauce-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/sticky-chicken-thigh-tacos</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/pork-chop-with-sage-honey-butter-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/beef-meatloaf-with-chipotle-crema-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/bbq-mushroom-flatbread-a84d26ab-7251-4c77-9a5a-27f430640f10</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/spaghetti-with-roasted-red-pepper-cream-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/one-pan-bbq-beef-enchiladas</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/pork-egg-roll-in-a-bowl-with-peanuts</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/caprese-steak-strip-flatbreads-with-mozzarella</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/turkey-elote-corn-chowder-with-jalapenos</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/pepperoni-pizza-pasta-with-bell-peppers-and-spinach-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/steak-strip-tacos-with-corn-elote-and-slaw-288c2872-36a2-447c-993f-e790997f1ae9</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/crispy-arrabbiata-chicken-with-asiago-broccoli-and-peppers</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/cheddar-bacon-crusted-chicken-with-ranch-potatoes-9af6b244-80ab-45ce-8706-cdff16879749</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/gooey-butter-cake-9a96830b-e60e-4faf-98cf-6027bd18aaa0</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/three-cheese-asiago-demi-loaf-c7222854-9767-43d5-af1f-03bfd50162b9</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/sausage-egg-cheese-croissant-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/salted-caramel-truffle-cheesecake-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/four-cheese-pepperoni-pizza-ce53fd42-967d-424e-8bd1-fe3a3ccc0a3c</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/buffalo-ranch-chopped-salad-standard</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/buffalo-ranch-chopped-salad-chicken</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/boneless-skinless-chicken-breast-8b769bef-c9e9-4b67-86f3-f6093f36e8d9</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/ground-turkey-65a59861-baff-498d-920e-be620e1ab2e2</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/ahi-tuna-865095c3-a745-4f90-80d4-b11cddeb67a6</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/shrimp-1f88ac88-3ffb-4f94-9ee8-f4d40a9b9721</t>
-  </si>
-  <si>
-    <t>https://www.homechef.com/meals/italian-sausage-f74341ee-fa2c-4196-bc95-0964c79a868d</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-619e47b109494841da71cb20</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/griddled-onion-burgers-619e4843ca54df2502158172</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/southwest-pork-flautas-619e485e0fc0a554c3789c85</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/harissa-roasted-chickpea-bowls-619e487fdbb57840b03afa97</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/herb-butter-steak-619e4896446df24e7560b35d</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/cajun-chicken-sausage-linguine-619e48b7d4756505395c93d3</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/pork-sausage-pepper-penne-619e48d473610a461673dc39</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/pork-chili-loaded-sweet-potatoes-619e48f390cc600b712d5ef7</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/ponzu-chili-steak-bowls-619e4919dbb57840b03afa99</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/loaded-baked-potato-chowder-619e49374b5a4927ec6e9fde</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/turkey-shepherds-pie-619e49555343ce59b7723ab2</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/firehouse-onion-pepper-flatbreads-619e498a10c8d43acf659a1b</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/creamy-peppercorn-salmon-619e49b9b57b714bd713e7c5</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/broccoli-cheddar-bisque-619e4a3e326f172693110d74</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sticky-umami-broccoli-bowls-619e4a6ed4848321927f7d2b</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/curried-chickpea-bowls-619e4a84f3260750ee16f0bb</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-619e53ce5bd1d93d2f7d46a2</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/griddled-onion-burgers-619e5410440e87540e386f6f</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/southwest-beef-flautas-619e5454dbb57840b03afa9e</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/harissa-chickpea-bowls-with-salmon-619e54895754da49c63a77f2</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/cajun-shrimp-linguine-619e54d1da11ff0b564f2d92</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/beef-chili-loaded-sweet-potatoes-619e556ea1430503f13eeb02</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/firehouse-onion-pepper-flatbreads-619e55d5e68db7241974db92</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/tomato-coconut-cod-curry-with-white-rice-marinated-vegetables</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/chicken-farro-grain-bowl-with-arugula-roasted-vegetables</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/spicy-orange-glazed-yellowtail-fillets-with-fried-rice-candied-cashews</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/crispy-breaded-pork-chops-truffle-mayo-with-roasted-brussels-sprouts-pancetta</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/oven-baked-chicken-marbella-with-potatoes-arugula-salad</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/seared-steaks-homemade-steak-sauce-with-mashed-potatoes-sauteed-carrots-8ac1dda1-c68e-4cf0-9349-98b882a627ca</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/orange-tofu-brown-rice-with-sweet-peppers-kohlrabi-cashews</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/shawarma-spiced-pork-vegetable-quinoa-with-lemon-yogurt</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/greek-style-feta-burgers-with-tzatziki-oregano-potatoes-6d17c74f-41f9-4caa-8395-a6a80de65329</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/pork-roast-balsamic-fig-sauce-with-roasted-sweet-potatoes-carrots-broccoli</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/lemon-caper-tilapia-with-orzo-zucchini-peppers-8180fcdd-e970-4d26-859b-357cc0b8d68d</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/glazed-beef-crispy-rice-with-sauteed-green-beans-peppers-4</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/sweet-spicy-salmon-with-green-beans-bell-pepper-white-rice-4</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/basil-pesto-gnocchi-with-mushrooms-pistachio-breadcrumbs-9c2a9dc4-fb65-4050-aa26-ef42ddd714c6</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/seared-steaks-mashed-potatoes-with-sauteed-carrots-homemade-steak-sauce-b618f7b2-87b8-416c-893d-5fa4c26b60c7</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/thai-chicken-curry-peanut-noodles-with-carrots-shishito-peppers</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/spicy-zucchini-quesadillas-with-poblano-pepper-fried-eggs-dc6e5fae-e73c-4ad6-a5c2-b6ae91a11488</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/crispy-curry-chicken-roasted-vegetables-with-coconut-rice-creamy-tomato-achaar-4</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/crispy-skin-salmon-with-salsa-verde-farro-salad-cd41ce40-655e-48e4-bebe-b33a56b07b1a</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/fresh-basil-fettuccine-pasta-with-zucchini-tomatoes-parmesan</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/family-meal-prep-bundle-with-chicken-beef</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-pork-chicken</t>
-  </si>
-  <si>
-    <t>https://www.blueapron.com/recipes/crispy-garlic-herb-gnocchi-with-creamy-basil-pesto</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/garlic-rosemary-chicken-6197b58889cfe006315a2882</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197b62ccea5f944cc746674</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-chili-pork-tacos-6197b6863d884e693502fe0c</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/blistered-tomato-feta-penne-6197b70871e3d12b2c06a14f</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/dijon-butter-steak-6197b781be996c425b6087b0</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/peanut-chicken-stir-fry-bowls-6197b7bdcb4de65cec4b6b05</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/gooey-stuffed-pork-burgers-6197d0aa573f327c49473ca1</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/creamy-chicken-sausage-penne-6197b82fa72dab3eaa0de8c0</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/cowboy-skillet-pie-6197b86d4310ff3559187192</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/pork-chops-over-cabbage-stir-fry-6197b8ee7dab8144ca2c4741</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/lemon-chive-chicken-legs-6197b940772e7c4b583cd50a</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197b9baa72dab3eaa0de8c7</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/lemon-butter-barramundi-6197ba057601ed24791385c7</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-potato-black-bean-stew-6197ba6716969b5cc67dc543</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/shallot-snap-pea-flatbreads-6197baaa64e40b505d2b4f2d</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/lemon-herb-risotto-with-chicken-6197bab806397d0841399d11</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197ceafd8ae445f49665dde</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/sweet-chili-chicken-tacos-6197cef08f4dfc68936d64fb</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/gooey-stuffed-pork-burgers-6197b7f0573f327c49473c91</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/steak-over-cabbage-stir-fry-6197cf311a9fdd0e535d7e65</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/lemon-chive-chicken-breasts-6197cf446ddca24d7e200fd8</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197cf9c8cb33d0257217de4</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/beef-sweet-potato-black-bean-stew-6197cfde57e8d2215070afd3</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197cff2fce7c231035ca2e0</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/4-chicken-breasts-2-ranch-steaks-61168ac6fabe8d0d893ce622</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/creamy-chicken-potato-soup-616d895c4fd43275cb51893f</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/sriracha-tamari-beef-bowls-616d895ebc2b2a553f53bf6d</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/apricot-glazed-pork-meatballs-616d895fdd5f077890039780</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/italian-herb-seasoned-barramundi-616d8964b1f5893b332e9ce4</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/truffle-butter-steaks-616d89658dc7791e073e24f7</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/steak-shrimp-with-spicy-peperonata-616d89613adb3756764a3086</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/mediterranean-style-chicken-salad-601d8d0e5df88101fa189b5c</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/spiced-beef-cauliflower-rice-60589af6876ba841f72d150c</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/honey-mustard-salmon-60edb06236da34788b4c1567</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/creamy-tomato-chickpea-spaghetti-616d8966197e2e0dfb7a65d6</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/roasted-chickpea-carrot-bowls-60c747b1e3218921147f2c82</t>
-  </si>
-  <si>
-    <t>https://cg.greenchef.com/recipes/spicy-mushroom-stir-fry-5ffdbf3793f72459575cdc94</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/homestyle-chicken-biscuit-pot-pie-61829dd1fb233152ce61d0cc</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/southwest-beef-cavatappi-61829df61d96cb794f7985f2</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/hoisin-glazed-pork-tenderloin-61829ec53b038a16de67c74c</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/san-antonio-beef-bowls-61829ef92ad9000e3b24e3e6</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-pork-bowls-61829f17c13a1e0a3e659b7b</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/crunchy-italian-chicken-sheet-pan-bake-61829f3815e1b62d22600abd</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/lil-sweet-lil-spicy-chicken-61829fa8c95316759040d54a</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-61829fc4c55f6460c95561fb</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/zucchini-and-tomato-flatbreads-61829fe618f21856d4018d64</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/one-pan-smashed-black-bean-tacos-6182a00694132c702a5fcb3c</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/peppercorn-crusted-beef-tenderloin-6182a02e7b40ce453472fd5e</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/chicken-ramen-in-a-shoyu-style-broth-6182a04ec95316759040d54c</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/spicy-shrimp-broccoli-stir-fry-6182a07d89377f4f84142637</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/gametime-chicken-sausage-pepper-subs-6182a0b318f21856d4018d66</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/hibachi-sweet-soy-bavette-steak-shrimp-6182a0c2505c1933651c3471</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/butter-basted-chicken-6182a10af281107a3002b30a</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-chicken-salad-6182a12cad9341305925da42</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/one-pan-pork-black-bean-chili-6182a14b5d8fff32c7000498</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182a16831db7215d52e870a</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/black-bean-charred-corn-burrito-bowls-618a9199393fbc6c437c882d</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182a1a98ce0720ee6565efe</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/pepper-jam-pork-tenderloin-6182a1d9bf994e28564c2b0b</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/italian-garden-veggie-soup-6182a1f9342bd71da7787775</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/orange-chicken-6182a287ed9d7726956e4fbf</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/middle-eastern-spiced-turkey-bowls-6182a2cfe979662bfb4f11bb</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/hoisin-glazed-chicken-6182d43e34a2e75b89446e8c</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-shrimp-bowls-6182d47e7fa7103a4e7d1336</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-6182d49b8ce0720ee6565f59</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-beef-tenderloin-salad-6182d51046899e4b2e38d843</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/one-pan-beef-black-bean-chili-6182d550f281107a3002b32d</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182d56bc55f6460c955620d</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/shrimp-black-bean-burrito-bowls-618a9223c9fd3619be1a2d8e</t>
-  </si>
-  <si>
-    <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182d5a67f8d0a023b1a3310</t>
+    <t>Blue Apron</t>
+  </si>
+  <si>
+    <t>EveryPlate</t>
+  </si>
+  <si>
+    <t>Green Chef</t>
+  </si>
+  <si>
+    <t>Hello Fresh</t>
+  </si>
+  <si>
+    <t>Home Chef</t>
   </si>
   <si>
     <t>Sunbasket</t>
-  </si>
-  <si>
-    <t>Blue Apron</t>
-  </si>
-  <si>
-    <t>Home Chef</t>
-  </si>
-  <si>
-    <t>EveryPlate</t>
-  </si>
-  <si>
-    <t>Green Chef</t>
-  </si>
-  <si>
-    <t>Hello Fresh</t>
   </si>
 </sst>
 </file>
@@ -2151,9 +2151,6 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
         <v>140</v>
       </c>
@@ -2165,9 +2162,6 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
       <c r="B3" t="s">
         <v>141</v>
       </c>
@@ -2179,9 +2173,6 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
       <c r="B4" t="s">
         <v>142</v>
       </c>
@@ -2193,9 +2184,6 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5" t="s">
         <v>143</v>
       </c>
@@ -2207,9 +2195,6 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" t="s">
         <v>144</v>
       </c>
@@ -2221,9 +2206,6 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7" t="s">
         <v>145</v>
       </c>
@@ -2235,9 +2217,6 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" t="s">
         <v>146</v>
       </c>
@@ -2249,9 +2228,6 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
       <c r="B9" t="s">
         <v>147</v>
       </c>
@@ -2263,9 +2239,6 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
       <c r="B10" t="s">
         <v>148</v>
       </c>
@@ -2277,9 +2250,6 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
       <c r="B11" t="s">
         <v>149</v>
       </c>
@@ -2291,9 +2261,6 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" t="s">
         <v>150</v>
       </c>
@@ -2305,9 +2272,6 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" t="s">
         <v>151</v>
       </c>
@@ -2319,9 +2283,6 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
       <c r="B14" t="s">
         <v>152</v>
       </c>
@@ -2333,9 +2294,6 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -2347,9 +2305,6 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
       <c r="B16" t="s">
         <v>154</v>
       </c>
@@ -2360,10 +2315,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>155</v>
       </c>
@@ -2374,10 +2326,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>156</v>
       </c>
@@ -2388,10 +2337,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>157</v>
       </c>
@@ -2402,10 +2348,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>158</v>
       </c>
@@ -2416,10 +2359,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
         <v>159</v>
       </c>
@@ -2430,10 +2370,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>160</v>
       </c>
@@ -2444,10 +2381,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
         <v>161</v>
       </c>
@@ -2458,10 +2392,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
         <v>162</v>
       </c>
@@ -2472,10 +2403,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
         <v>163</v>
       </c>
@@ -2486,10 +2414,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
         <v>164</v>
       </c>
@@ -2500,10 +2425,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>165</v>
       </c>
@@ -2514,10 +2436,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
         <v>166</v>
       </c>
@@ -2528,10 +2447,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
         <v>167</v>
       </c>
@@ -2542,10 +2458,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
         <v>168</v>
       </c>
@@ -2556,10 +2469,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
         <v>169</v>
       </c>
@@ -2570,10 +2480,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
         <v>170</v>
       </c>
@@ -2584,10 +2491,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>35</v>
-      </c>
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>171</v>
       </c>
@@ -2598,10 +2502,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>172</v>
       </c>
@@ -2612,10 +2513,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>173</v>
       </c>
@@ -2626,10 +2524,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>174</v>
       </c>
@@ -2640,10 +2535,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>175</v>
       </c>
@@ -2654,10 +2546,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>40</v>
-      </c>
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>176</v>
       </c>
@@ -2668,10 +2557,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>41</v>
-      </c>
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>177</v>
       </c>
@@ -2682,7 +2568,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>178</v>
       </c>
@@ -2690,10 +2576,10 @@
         <v>396</v>
       </c>
       <c r="D40" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>179</v>
       </c>
@@ -2701,10 +2587,10 @@
         <v>397</v>
       </c>
       <c r="D41" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>180</v>
       </c>
@@ -2712,10 +2598,10 @@
         <v>398</v>
       </c>
       <c r="D42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43" t="s">
         <v>181</v>
       </c>
@@ -2723,10 +2609,10 @@
         <v>399</v>
       </c>
       <c r="D43" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>182</v>
       </c>
@@ -2734,10 +2620,10 @@
         <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
         <v>183</v>
       </c>
@@ -2745,10 +2631,10 @@
         <v>401</v>
       </c>
       <c r="D45" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
         <v>184</v>
       </c>
@@ -2756,10 +2642,10 @@
         <v>402</v>
       </c>
       <c r="D46" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
         <v>185</v>
       </c>
@@ -2767,10 +2653,10 @@
         <v>403</v>
       </c>
       <c r="D47" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
       <c r="B48" t="s">
         <v>186</v>
       </c>
@@ -2778,10 +2664,10 @@
         <v>404</v>
       </c>
       <c r="D48" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="B49" t="s">
         <v>187</v>
       </c>
@@ -2789,10 +2675,10 @@
         <v>405</v>
       </c>
       <c r="D49" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
         <v>188</v>
       </c>
@@ -2800,10 +2686,10 @@
         <v>406</v>
       </c>
       <c r="D50" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
         <v>189</v>
       </c>
@@ -2811,10 +2697,13 @@
         <v>407</v>
       </c>
       <c r="D51" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
       <c r="B52" t="s">
         <v>190</v>
       </c>
@@ -2825,7 +2714,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
       <c r="B53" t="s">
         <v>191</v>
       </c>
@@ -2836,7 +2728,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
       <c r="B54" t="s">
         <v>192</v>
       </c>
@@ -2847,7 +2742,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
       <c r="B55" t="s">
         <v>193</v>
       </c>
@@ -2858,7 +2756,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
       <c r="B56" t="s">
         <v>194</v>
       </c>
@@ -2869,7 +2770,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
       <c r="B57" t="s">
         <v>195</v>
       </c>
@@ -2880,7 +2784,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
       <c r="B58" t="s">
         <v>196</v>
       </c>
@@ -2891,7 +2798,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
       <c r="B59" t="s">
         <v>197</v>
       </c>
@@ -2902,7 +2812,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
       <c r="B60" t="s">
         <v>198</v>
       </c>
@@ -2913,7 +2826,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
       <c r="B61" t="s">
         <v>199</v>
       </c>
@@ -2924,7 +2840,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
       <c r="B62" t="s">
         <v>200</v>
       </c>
@@ -2935,7 +2854,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
       <c r="B63" t="s">
         <v>201</v>
       </c>
@@ -2946,7 +2868,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
       <c r="B64" t="s">
         <v>202</v>
       </c>
@@ -2957,7 +2882,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
       <c r="B65" t="s">
         <v>203</v>
       </c>
@@ -2968,7 +2896,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>18</v>
+      </c>
       <c r="B66" t="s">
         <v>204</v>
       </c>
@@ -2976,10 +2907,13 @@
         <v>422</v>
       </c>
       <c r="D66" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
       <c r="B67" t="s">
         <v>205</v>
       </c>
@@ -2987,10 +2921,13 @@
         <v>423</v>
       </c>
       <c r="D67" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
       <c r="B68" t="s">
         <v>206</v>
       </c>
@@ -2998,10 +2935,13 @@
         <v>424</v>
       </c>
       <c r="D68" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
       <c r="B69" t="s">
         <v>207</v>
       </c>
@@ -3009,10 +2949,13 @@
         <v>425</v>
       </c>
       <c r="D69" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
       <c r="B70" t="s">
         <v>208</v>
       </c>
@@ -3020,10 +2963,13 @@
         <v>426</v>
       </c>
       <c r="D70" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
       <c r="B71" t="s">
         <v>209</v>
       </c>
@@ -3031,10 +2977,13 @@
         <v>427</v>
       </c>
       <c r="D71" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
       <c r="B72" t="s">
         <v>210</v>
       </c>
@@ -3042,10 +2991,13 @@
         <v>428</v>
       </c>
       <c r="D72" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
       <c r="B73" t="s">
         <v>211</v>
       </c>
@@ -3053,10 +3005,13 @@
         <v>429</v>
       </c>
       <c r="D73" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
       <c r="B74" t="s">
         <v>212</v>
       </c>
@@ -3064,10 +3019,13 @@
         <v>430</v>
       </c>
       <c r="D74" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
       <c r="B75" t="s">
         <v>213</v>
       </c>
@@ -3075,10 +3033,13 @@
         <v>431</v>
       </c>
       <c r="D75" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
       <c r="B76" t="s">
         <v>214</v>
       </c>
@@ -3086,10 +3047,13 @@
         <v>432</v>
       </c>
       <c r="D76" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>29</v>
+      </c>
       <c r="B77" t="s">
         <v>215</v>
       </c>
@@ -3097,10 +3061,13 @@
         <v>433</v>
       </c>
       <c r="D77" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>30</v>
+      </c>
       <c r="B78" t="s">
         <v>216</v>
       </c>
@@ -3108,10 +3075,13 @@
         <v>434</v>
       </c>
       <c r="D78" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>31</v>
+      </c>
       <c r="B79" t="s">
         <v>217</v>
       </c>
@@ -3119,10 +3089,13 @@
         <v>435</v>
       </c>
       <c r="D79" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
       <c r="B80" t="s">
         <v>218</v>
       </c>
@@ -3130,10 +3103,13 @@
         <v>436</v>
       </c>
       <c r="D80" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
       <c r="B81" t="s">
         <v>219</v>
       </c>
@@ -3141,10 +3117,13 @@
         <v>437</v>
       </c>
       <c r="D81" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
       <c r="B82" t="s">
         <v>220</v>
       </c>
@@ -3152,10 +3131,13 @@
         <v>438</v>
       </c>
       <c r="D82" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>35</v>
+      </c>
       <c r="B83" t="s">
         <v>221</v>
       </c>
@@ -3163,10 +3145,13 @@
         <v>439</v>
       </c>
       <c r="D83" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
       <c r="B84" t="s">
         <v>222</v>
       </c>
@@ -3174,10 +3159,13 @@
         <v>440</v>
       </c>
       <c r="D84" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
       <c r="B85" t="s">
         <v>223</v>
       </c>
@@ -3185,10 +3173,13 @@
         <v>441</v>
       </c>
       <c r="D85" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
       <c r="B86" t="s">
         <v>224</v>
       </c>
@@ -3196,10 +3187,13 @@
         <v>442</v>
       </c>
       <c r="D86" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
       <c r="B87" t="s">
         <v>225</v>
       </c>
@@ -3207,10 +3201,13 @@
         <v>443</v>
       </c>
       <c r="D87" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
       <c r="B88" t="s">
         <v>226</v>
       </c>
@@ -3218,10 +3215,13 @@
         <v>444</v>
       </c>
       <c r="D88" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
       <c r="B89" t="s">
         <v>227</v>
       </c>
@@ -3229,10 +3229,13 @@
         <v>445</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>42</v>
+      </c>
       <c r="B90" t="s">
         <v>228</v>
       </c>
@@ -3240,10 +3243,13 @@
         <v>446</v>
       </c>
       <c r="D90" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
       <c r="B91" t="s">
         <v>229</v>
       </c>
@@ -3251,10 +3257,13 @@
         <v>447</v>
       </c>
       <c r="D91" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
       <c r="B92" t="s">
         <v>230</v>
       </c>
@@ -3262,10 +3271,13 @@
         <v>448</v>
       </c>
       <c r="D92" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>45</v>
+      </c>
       <c r="B93" t="s">
         <v>231</v>
       </c>
@@ -3273,10 +3285,13 @@
         <v>449</v>
       </c>
       <c r="D93" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
       <c r="B94" t="s">
         <v>232</v>
       </c>
@@ -3284,10 +3299,13 @@
         <v>450</v>
       </c>
       <c r="D94" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
       <c r="B95" t="s">
         <v>233</v>
       </c>
@@ -3295,10 +3313,13 @@
         <v>451</v>
       </c>
       <c r="D95" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
       <c r="B96" t="s">
         <v>234</v>
       </c>
@@ -3306,10 +3327,13 @@
         <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
       <c r="B97" t="s">
         <v>235</v>
       </c>
@@ -3317,12 +3341,12 @@
         <v>453</v>
       </c>
       <c r="D97" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B98" t="s">
         <v>236</v>
@@ -3331,12 +3355,12 @@
         <v>454</v>
       </c>
       <c r="D98" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
         <v>237</v>
@@ -3345,12 +3369,12 @@
         <v>455</v>
       </c>
       <c r="D99" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
         <v>238</v>
@@ -3359,12 +3383,12 @@
         <v>456</v>
       </c>
       <c r="D100" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
         <v>239</v>
@@ -3373,12 +3397,12 @@
         <v>457</v>
       </c>
       <c r="D101" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
         <v>240</v>
@@ -3387,12 +3411,12 @@
         <v>458</v>
       </c>
       <c r="D102" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
         <v>241</v>
@@ -3401,12 +3425,12 @@
         <v>459</v>
       </c>
       <c r="D103" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
         <v>242</v>
@@ -3415,12 +3439,12 @@
         <v>460</v>
       </c>
       <c r="D104" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
         <v>243</v>
@@ -3429,12 +3453,12 @@
         <v>461</v>
       </c>
       <c r="D105" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
         <v>244</v>
@@ -3443,12 +3467,12 @@
         <v>462</v>
       </c>
       <c r="D106" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
         <v>245</v>
@@ -3457,12 +3481,12 @@
         <v>463</v>
       </c>
       <c r="D107" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
         <v>246</v>
@@ -3471,12 +3495,12 @@
         <v>464</v>
       </c>
       <c r="D108" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
         <v>247</v>
@@ -3485,12 +3509,12 @@
         <v>465</v>
       </c>
       <c r="D109" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
         <v>248</v>
@@ -3499,12 +3523,12 @@
         <v>466</v>
       </c>
       <c r="D110" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
         <v>249</v>
@@ -3513,12 +3537,12 @@
         <v>467</v>
       </c>
       <c r="D111" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B112" t="s">
         <v>250</v>
@@ -3527,12 +3551,12 @@
         <v>468</v>
       </c>
       <c r="D112" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
         <v>251</v>
@@ -3541,12 +3565,12 @@
         <v>469</v>
       </c>
       <c r="D113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B114" t="s">
         <v>252</v>
@@ -3555,12 +3579,12 @@
         <v>470</v>
       </c>
       <c r="D114" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B115" t="s">
         <v>253</v>
@@ -3569,12 +3593,12 @@
         <v>471</v>
       </c>
       <c r="D115" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B116" t="s">
         <v>254</v>
@@ -3583,12 +3607,12 @@
         <v>472</v>
       </c>
       <c r="D116" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
         <v>255</v>
@@ -3602,7 +3626,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
         <v>256</v>
@@ -3616,7 +3640,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B119" t="s">
         <v>257</v>
@@ -3630,7 +3654,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B120" t="s">
         <v>258</v>
@@ -3644,7 +3668,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B121" t="s">
         <v>259</v>
@@ -3658,7 +3682,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s">
         <v>260</v>
@@ -3672,7 +3696,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B123" t="s">
         <v>261</v>
@@ -3686,7 +3710,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B124" t="s">
         <v>262</v>
@@ -3699,6 +3723,9 @@
       </c>
     </row>
     <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
       <c r="B125" t="s">
         <v>263</v>
       </c>
@@ -3706,10 +3733,13 @@
         <v>481</v>
       </c>
       <c r="D125" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
       <c r="B126" t="s">
         <v>264</v>
       </c>
@@ -3717,10 +3747,13 @@
         <v>482</v>
       </c>
       <c r="D126" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
       <c r="B127" t="s">
         <v>265</v>
       </c>
@@ -3728,10 +3761,13 @@
         <v>483</v>
       </c>
       <c r="D127" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>80</v>
+      </c>
       <c r="B128" t="s">
         <v>266</v>
       </c>
@@ -3739,10 +3775,13 @@
         <v>484</v>
       </c>
       <c r="D128" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
       <c r="B129" t="s">
         <v>267</v>
       </c>
@@ -3750,10 +3789,13 @@
         <v>485</v>
       </c>
       <c r="D129" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>82</v>
+      </c>
       <c r="B130" t="s">
         <v>268</v>
       </c>
@@ -3761,10 +3803,13 @@
         <v>486</v>
       </c>
       <c r="D130" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
       <c r="B131" t="s">
         <v>269</v>
       </c>
@@ -3772,10 +3817,13 @@
         <v>487</v>
       </c>
       <c r="D131" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>84</v>
+      </c>
       <c r="B132" t="s">
         <v>270</v>
       </c>
@@ -3783,10 +3831,13 @@
         <v>488</v>
       </c>
       <c r="D132" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>85</v>
+      </c>
       <c r="B133" t="s">
         <v>271</v>
       </c>
@@ -3794,10 +3845,13 @@
         <v>489</v>
       </c>
       <c r="D133" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>86</v>
+      </c>
       <c r="B134" t="s">
         <v>272</v>
       </c>
@@ -3805,10 +3859,13 @@
         <v>490</v>
       </c>
       <c r="D134" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>87</v>
+      </c>
       <c r="B135" t="s">
         <v>273</v>
       </c>
@@ -3816,10 +3873,13 @@
         <v>491</v>
       </c>
       <c r="D135" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>88</v>
+      </c>
       <c r="B136" t="s">
         <v>274</v>
       </c>
@@ -3827,10 +3887,13 @@
         <v>492</v>
       </c>
       <c r="D136" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>89</v>
+      </c>
       <c r="B137" t="s">
         <v>275</v>
       </c>
@@ -3838,10 +3901,13 @@
         <v>493</v>
       </c>
       <c r="D137" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>90</v>
+      </c>
       <c r="B138" t="s">
         <v>276</v>
       </c>
@@ -3849,10 +3915,13 @@
         <v>494</v>
       </c>
       <c r="D138" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>91</v>
+      </c>
       <c r="B139" t="s">
         <v>277</v>
       </c>
@@ -3860,10 +3929,13 @@
         <v>495</v>
       </c>
       <c r="D139" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>92</v>
+      </c>
       <c r="B140" t="s">
         <v>278</v>
       </c>
@@ -3871,10 +3943,13 @@
         <v>496</v>
       </c>
       <c r="D140" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>93</v>
+      </c>
       <c r="B141" t="s">
         <v>279</v>
       </c>
@@ -3882,10 +3957,13 @@
         <v>497</v>
       </c>
       <c r="D141" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>94</v>
+      </c>
       <c r="B142" t="s">
         <v>280</v>
       </c>
@@ -3893,10 +3971,13 @@
         <v>498</v>
       </c>
       <c r="D142" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>95</v>
+      </c>
       <c r="B143" t="s">
         <v>281</v>
       </c>
@@ -3904,10 +3985,13 @@
         <v>499</v>
       </c>
       <c r="D143" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>96</v>
+      </c>
       <c r="B144" t="s">
         <v>282</v>
       </c>
@@ -3915,10 +3999,13 @@
         <v>500</v>
       </c>
       <c r="D144" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>97</v>
+      </c>
       <c r="B145" t="s">
         <v>283</v>
       </c>
@@ -3926,10 +4013,13 @@
         <v>501</v>
       </c>
       <c r="D145" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>98</v>
+      </c>
       <c r="B146" t="s">
         <v>284</v>
       </c>
@@ -3937,10 +4027,13 @@
         <v>502</v>
       </c>
       <c r="D146" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>99</v>
+      </c>
       <c r="B147" t="s">
         <v>285</v>
       </c>
@@ -3948,10 +4041,13 @@
         <v>503</v>
       </c>
       <c r="D147" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
       <c r="B148" t="s">
         <v>286</v>
       </c>
@@ -3959,12 +4055,12 @@
         <v>504</v>
       </c>
       <c r="D148" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B149" t="s">
         <v>287</v>
@@ -3977,9 +4073,6 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>70</v>
-      </c>
       <c r="B150" t="s">
         <v>288</v>
       </c>
@@ -3987,13 +4080,10 @@
         <v>506</v>
       </c>
       <c r="D150" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>71</v>
-      </c>
       <c r="B151" t="s">
         <v>289</v>
       </c>
@@ -4001,13 +4091,10 @@
         <v>507</v>
       </c>
       <c r="D151" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>72</v>
-      </c>
       <c r="B152" t="s">
         <v>290</v>
       </c>
@@ -4015,13 +4102,10 @@
         <v>508</v>
       </c>
       <c r="D152" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>73</v>
-      </c>
       <c r="B153" t="s">
         <v>291</v>
       </c>
@@ -4029,13 +4113,10 @@
         <v>509</v>
       </c>
       <c r="D153" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>74</v>
-      </c>
       <c r="B154" t="s">
         <v>292</v>
       </c>
@@ -4043,13 +4124,10 @@
         <v>510</v>
       </c>
       <c r="D154" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>75</v>
-      </c>
       <c r="B155" t="s">
         <v>293</v>
       </c>
@@ -4057,13 +4135,10 @@
         <v>511</v>
       </c>
       <c r="D155" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>76</v>
-      </c>
       <c r="B156" t="s">
         <v>294</v>
       </c>
@@ -4071,13 +4146,10 @@
         <v>512</v>
       </c>
       <c r="D156" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>77</v>
-      </c>
       <c r="B157" t="s">
         <v>295</v>
       </c>
@@ -4085,13 +4157,10 @@
         <v>513</v>
       </c>
       <c r="D157" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>78</v>
-      </c>
       <c r="B158" t="s">
         <v>296</v>
       </c>
@@ -4099,13 +4168,10 @@
         <v>514</v>
       </c>
       <c r="D158" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>79</v>
-      </c>
       <c r="B159" t="s">
         <v>297</v>
       </c>
@@ -4113,13 +4179,10 @@
         <v>515</v>
       </c>
       <c r="D159" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>80</v>
-      </c>
       <c r="B160" t="s">
         <v>298</v>
       </c>
@@ -4127,13 +4190,10 @@
         <v>516</v>
       </c>
       <c r="D160" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>81</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
       <c r="B161" t="s">
         <v>299</v>
       </c>
@@ -4141,13 +4201,10 @@
         <v>517</v>
       </c>
       <c r="D161" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>82</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
       <c r="B162" t="s">
         <v>300</v>
       </c>
@@ -4155,13 +4212,10 @@
         <v>518</v>
       </c>
       <c r="D162" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>83</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
       <c r="B163" t="s">
         <v>301</v>
       </c>
@@ -4169,13 +4223,10 @@
         <v>519</v>
       </c>
       <c r="D163" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>84</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
       <c r="B164" t="s">
         <v>302</v>
       </c>
@@ -4183,13 +4234,10 @@
         <v>520</v>
       </c>
       <c r="D164" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>85</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
       <c r="B165" t="s">
         <v>303</v>
       </c>
@@ -4197,13 +4245,10 @@
         <v>521</v>
       </c>
       <c r="D165" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>86</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
       <c r="B166" t="s">
         <v>304</v>
       </c>
@@ -4211,13 +4256,10 @@
         <v>522</v>
       </c>
       <c r="D166" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>87</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
       <c r="B167" t="s">
         <v>305</v>
       </c>
@@ -4225,13 +4267,10 @@
         <v>523</v>
       </c>
       <c r="D167" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>88</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
       <c r="B168" t="s">
         <v>306</v>
       </c>
@@ -4239,13 +4278,10 @@
         <v>524</v>
       </c>
       <c r="D168" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" t="s">
-        <v>89</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
       <c r="B169" t="s">
         <v>307</v>
       </c>
@@ -4253,13 +4289,10 @@
         <v>525</v>
       </c>
       <c r="D169" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
-        <v>90</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4">
       <c r="B170" t="s">
         <v>308</v>
       </c>
@@ -4267,13 +4300,10 @@
         <v>526</v>
       </c>
       <c r="D170" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
-        <v>91</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
       <c r="B171" t="s">
         <v>309</v>
       </c>
@@ -4281,13 +4311,10 @@
         <v>527</v>
       </c>
       <c r="D171" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
-        <v>92</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
       <c r="B172" t="s">
         <v>310</v>
       </c>
@@ -4295,13 +4322,10 @@
         <v>528</v>
       </c>
       <c r="D172" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
-      <c r="A173" t="s">
-        <v>93</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
       <c r="B173" t="s">
         <v>311</v>
       </c>
@@ -4309,13 +4333,10 @@
         <v>529</v>
       </c>
       <c r="D173" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
-        <v>94</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
       <c r="B174" t="s">
         <v>312</v>
       </c>
@@ -4323,13 +4344,10 @@
         <v>530</v>
       </c>
       <c r="D174" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
-        <v>95</v>
-      </c>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
       <c r="B175" t="s">
         <v>313</v>
       </c>
@@ -4340,10 +4358,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
-        <v>96</v>
-      </c>
+    <row r="176" spans="2:4">
       <c r="B176" t="s">
         <v>314</v>
       </c>
@@ -4355,9 +4370,6 @@
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" t="s">
-        <v>97</v>
-      </c>
       <c r="B177" t="s">
         <v>315</v>
       </c>
@@ -4369,9 +4381,6 @@
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" t="s">
-        <v>98</v>
-      </c>
       <c r="B178" t="s">
         <v>316</v>
       </c>
@@ -4383,9 +4392,6 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" t="s">
-        <v>99</v>
-      </c>
       <c r="B179" t="s">
         <v>317</v>
       </c>
@@ -4397,9 +4403,6 @@
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" t="s">
-        <v>100</v>
-      </c>
       <c r="B180" t="s">
         <v>318</v>
       </c>
@@ -4411,9 +4414,6 @@
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" t="s">
-        <v>101</v>
-      </c>
       <c r="B181" t="s">
         <v>319</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>538</v>
       </c>
       <c r="D182" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4449,7 +4449,7 @@
         <v>539</v>
       </c>
       <c r="D183" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4463,7 +4463,7 @@
         <v>540</v>
       </c>
       <c r="D184" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4477,7 +4477,7 @@
         <v>541</v>
       </c>
       <c r="D185" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4491,7 +4491,7 @@
         <v>542</v>
       </c>
       <c r="D186" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:4">

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c20460\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
   <si>
     <t>ID</t>
   </si>
@@ -28,12 +33,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>61168ac6fabe8d0d893ce622</t>
-  </si>
-  <si>
-    <t>60d5e0a7245f7d03d4402180</t>
-  </si>
-  <si>
     <t>619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -61,9 +60,6 @@
     <t>6197ba8b094e9f31181725c1</t>
   </si>
   <si>
-    <t>6171b558a1c87a7e6c50c3d7</t>
-  </si>
-  <si>
     <t>619e550e399c360c8d4fbb82</t>
   </si>
   <si>
@@ -586,12 +582,6 @@
     <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
   </si>
   <si>
-    <t>4 Chicken Breasts + 2 Ranch Steaks 2 Servings Plan: 4 (5 oz) Chicken Breasts &amp; 2 (5 oz) Ranch Steaks</t>
-  </si>
-  <si>
-    <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
-  </si>
-  <si>
     <t>Baja Shrimp Tacos with Pineapple Salsa</t>
   </si>
   <si>
@@ -619,9 +609,6 @@
     <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
   </si>
   <si>
-    <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
-  </si>
-  <si>
     <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
   </si>
   <si>
@@ -1240,12 +1227,6 @@
     <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
   </si>
   <si>
-    <t>https://www.everyplate.com/recipes/4-chicken-breasts-2-ranch-steaks-61168ac6fabe8d0d893ce622</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
-  </si>
-  <si>
     <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -1271,9 +1252,6 @@
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
@@ -1765,8 +1743,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +1820,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1888,7 +1874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,9 +1906,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1954,6 +1941,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2129,14 +2117,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="127.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="145" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2150,2810 +2144,2768 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D8" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D9" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D10" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D5" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D6" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D7" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D10" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D16" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="D11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D17" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D12" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D13" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D14" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D16" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D17" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D23" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D18" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D19" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D25" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D20" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D26" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D21" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="D23" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D24" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D30" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D25" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D31" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D26" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D32" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D27" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D33" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D28" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D34" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D35" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D30" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D36" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D31" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D37" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D32" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D33" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D39" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D34" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D40" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D35" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D41" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D36" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D42" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D37" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D43" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D38" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D44" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D39" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D45" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D40" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D46" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D41" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D47" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D42" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D48" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D43" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D49" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D44" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D50" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D45" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D46" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="D47" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D48" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D49" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D50" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="D51" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D52" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D53" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D54" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D55" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D56" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D57" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D58" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D59" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D60" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D61" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D62" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D63" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D64" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D65" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D66" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D67" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D68" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D69" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D70" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D71" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D72" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D73" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D74" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D75" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D76" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D77" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D78" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D79" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D80" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D81" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D82" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D83" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D84" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D85" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D86" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D87" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D88" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D89" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D90" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D91" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D92" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D93" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D94" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D95" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D96" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D97" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D98" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D99" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D100" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D101" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D102" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D103" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D104" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D105" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D106" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D107" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D108" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D109" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D110" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D111" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D113" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D114" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D115" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D116" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D118" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D119" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D120" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D121" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D122" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D123" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>76</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D124" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D125" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D126" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D127" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D128" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D129" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D130" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D131" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D132" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D133" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D134" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D135" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D136" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>89</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D137" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D138" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>91</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D139" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D140" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D141" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D142" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D143" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D144" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D145" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>98</v>
       </c>
       <c r="B146" t="s">
+        <v>281</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D146" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>282</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D147" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D148" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>284</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C149" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D149" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>285</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D150" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>286</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D151" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D146" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
+      <c r="D152" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>288</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D153" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D154" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D155" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>291</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D156" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D157" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>293</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="D158" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>294</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D159" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>295</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D160" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>296</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D161" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>297</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D162" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>298</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D163" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>299</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D164" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>300</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D165" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D166" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>302</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D167" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D168" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>304</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D169" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D170" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D171" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>307</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D172" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D173" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>309</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D174" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>310</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D175" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>311</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D176" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>312</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D177" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>313</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D178" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>99</v>
       </c>
-      <c r="B147" t="s">
-        <v>285</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D147" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
+      <c r="B179" t="s">
+        <v>314</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D179" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>100</v>
       </c>
-      <c r="B148" t="s">
-        <v>286</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D148" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+      <c r="B180" t="s">
+        <v>315</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D180" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>101</v>
       </c>
-      <c r="B149" t="s">
-        <v>287</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D149" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="B150" t="s">
-        <v>288</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D150" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="B151" t="s">
-        <v>289</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="D151" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="B152" t="s">
-        <v>290</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="D152" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="B153" t="s">
-        <v>291</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D153" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="B154" t="s">
-        <v>292</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="D154" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="B155" t="s">
-        <v>293</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D155" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="B156" t="s">
-        <v>294</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="D156" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="B157" t="s">
-        <v>295</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D157" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="B158" t="s">
-        <v>296</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="D158" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="B159" t="s">
-        <v>297</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="D159" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="B160" t="s">
-        <v>298</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D160" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4">
-      <c r="B161" t="s">
-        <v>299</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D161" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4">
-      <c r="B162" t="s">
-        <v>300</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D162" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4">
-      <c r="B163" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="D163" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
-      <c r="B164" t="s">
-        <v>302</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D164" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4">
-      <c r="B165" t="s">
-        <v>303</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D165" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4">
-      <c r="B166" t="s">
-        <v>304</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D166" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4">
-      <c r="B167" t="s">
-        <v>305</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="D167" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4">
-      <c r="B168" t="s">
-        <v>306</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D168" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4">
-      <c r="B169" t="s">
-        <v>307</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D169" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4">
-      <c r="B170" t="s">
-        <v>308</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D170" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4">
-      <c r="B171" t="s">
-        <v>309</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D171" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4">
-      <c r="B172" t="s">
-        <v>310</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D172" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4">
-      <c r="B173" t="s">
-        <v>311</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="D173" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4">
-      <c r="B174" t="s">
-        <v>312</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="D174" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4">
-      <c r="B175" t="s">
-        <v>313</v>
-      </c>
-      <c r="C175" s="2" t="s">
+      <c r="B181" t="s">
+        <v>316</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="D175" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4">
-      <c r="B176" t="s">
-        <v>314</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D176" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="B177" t="s">
-        <v>315</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D177" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="B178" t="s">
-        <v>316</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D178" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="B179" t="s">
-        <v>317</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D179" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="B180" t="s">
-        <v>318</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D180" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="B181" t="s">
-        <v>319</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="D181" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>102</v>
       </c>
       <c r="B182" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D182" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>103</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D183" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>104</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D184" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>105</v>
       </c>
       <c r="B185" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D185" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>106</v>
       </c>
       <c r="B186" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D186" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>107</v>
       </c>
       <c r="B187" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D187" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>108</v>
       </c>
       <c r="B188" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D188" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>109</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D189" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>110</v>
       </c>
       <c r="B190" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D190" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>111</v>
       </c>
       <c r="B191" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="D191" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>112</v>
       </c>
       <c r="B192" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D192" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>113</v>
       </c>
       <c r="B193" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D193" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>114</v>
       </c>
       <c r="B194" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D194" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>115</v>
       </c>
       <c r="B195" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D195" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>116</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D196" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>117</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D197" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>118</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D198" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>119</v>
       </c>
       <c r="B199" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="D199" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>120</v>
       </c>
       <c r="B200" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D200" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>121</v>
       </c>
       <c r="B201" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D201" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>122</v>
       </c>
       <c r="B202" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="D202" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>123</v>
       </c>
       <c r="B203" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D203" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>124</v>
       </c>
       <c r="B204" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="D204" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>125</v>
       </c>
       <c r="B205" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="D205" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>126</v>
       </c>
       <c r="B206" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="D206" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>127</v>
       </c>
       <c r="B207" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="D207" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>128</v>
       </c>
       <c r="B208" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="D208" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>129</v>
       </c>
       <c r="B209" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="D209" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>130</v>
       </c>
       <c r="B210" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D210" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>131</v>
       </c>
       <c r="B211" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="D211" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>132</v>
       </c>
       <c r="B212" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D212" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>133</v>
       </c>
       <c r="B213" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="D213" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>134</v>
       </c>
       <c r="B214" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="D214" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>135</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D215" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>136</v>
       </c>
       <c r="B216" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D216" t="s">
         <v>572</v>
-      </c>
-      <c r="D216" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" t="s">
-        <v>137</v>
-      </c>
-      <c r="B217" t="s">
-        <v>355</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D217" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4">
-      <c r="A218" t="s">
-        <v>138</v>
-      </c>
-      <c r="B218" t="s">
-        <v>356</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D218" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" t="s">
-        <v>139</v>
-      </c>
-      <c r="B219" t="s">
-        <v>357</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D219" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -5173,9 +5125,6 @@
     <hyperlink ref="C214" r:id="rId213"/>
     <hyperlink ref="C215" r:id="rId214"/>
     <hyperlink ref="C216" r:id="rId215"/>
-    <hyperlink ref="C217" r:id="rId216"/>
-    <hyperlink ref="C218" r:id="rId217"/>
-    <hyperlink ref="C219" r:id="rId218"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c20460\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="714">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +28,9 @@
     <t>Site</t>
   </si>
   <si>
+    <t>60d5e0a7245f7d03d4402180</t>
+  </si>
+  <si>
     <t>619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -60,6 +58,9 @@
     <t>6197ba8b094e9f31181725c1</t>
   </si>
   <si>
+    <t>6171b558a1c87a7e6c50c3d7</t>
+  </si>
+  <si>
     <t>619e550e399c360c8d4fbb82</t>
   </si>
   <si>
@@ -186,30 +187,66 @@
     <t>616d895fdd5f077890039780</t>
   </si>
   <si>
+    <t>61769b2a0315c044e06863df</t>
+  </si>
+  <si>
+    <t>60d9f4acca1acb34fb5c8422</t>
+  </si>
+  <si>
+    <t>5fbd44f6cf4d133a4b2c316e</t>
+  </si>
+  <si>
     <t>616d895c4fd43275cb51893f</t>
   </si>
   <si>
+    <t>61769b2e49b60e5ab7159c4f</t>
+  </si>
+  <si>
     <t>616d8966197e2e0dfb7a65d6</t>
   </si>
   <si>
+    <t>61769b2b3285d3326271708c</t>
+  </si>
+  <si>
+    <t>5fd2c037e5f86961606f8995</t>
+  </si>
+  <si>
     <t>60edb06236da34788b4c1567</t>
   </si>
   <si>
     <t>616d8964b1f5893b332e9ce4</t>
   </si>
   <si>
+    <t>6061c529f4668921301881c2</t>
+  </si>
+  <si>
+    <t>61769b2fee7cf3008c6cef08</t>
+  </si>
+  <si>
     <t>601d8d0e5df88101fa189b5c</t>
   </si>
   <si>
     <t>60c747b1e3218921147f2c82</t>
   </si>
   <si>
+    <t>61769b2c4b246d756505ca39</t>
+  </si>
+  <si>
     <t>60589af6876ba841f72d150c</t>
   </si>
   <si>
+    <t>61769b2d525bb9419829771d</t>
+  </si>
+  <si>
+    <t>601d8d17001106080e0a4a9d</t>
+  </si>
+  <si>
     <t>5ffdbf3793f72459575cdc94</t>
   </si>
   <si>
+    <t>614998aa3d6525308c66895d</t>
+  </si>
+  <si>
     <t>616d895ebc2b2a553f53bf6d</t>
   </si>
   <si>
@@ -219,15 +256,48 @@
     <t>616d89658dc7791e073e24f7</t>
   </si>
   <si>
+    <t>618c0c034867cd760233b4b6</t>
+  </si>
+  <si>
+    <t>618be6c201a4b9188534698a</t>
+  </si>
+  <si>
+    <t>618be5dcc20ba564414b672c</t>
+  </si>
+  <si>
+    <t>618be64ae355fc199a46cc59</t>
+  </si>
+  <si>
+    <t>618c0b44dc354c7d6e3040ca</t>
+  </si>
+  <si>
+    <t>618be5ba0fc98d22f05e6d77</t>
+  </si>
+  <si>
+    <t>618be585c20ba564414b672a</t>
+  </si>
+  <si>
     <t>618a9199393fbc6c437c882d</t>
   </si>
   <si>
+    <t>618be7819ba8382bd2141863</t>
+  </si>
+  <si>
     <t>6182a10af281107a3002b30a</t>
   </si>
   <si>
     <t>6182a04ec95316759040d54c</t>
   </si>
   <si>
+    <t>618be4c6f342f67f6631aaec</t>
+  </si>
+  <si>
+    <t>618be6e84ae2420eda7a2f67</t>
+  </si>
+  <si>
+    <t>618c0c20fc022451f64a5401</t>
+  </si>
+  <si>
     <t>6182d5a67f8d0a023b1a3310</t>
   </si>
   <si>
@@ -237,6 +307,9 @@
     <t>61829f3815e1b62d22600abd</t>
   </si>
   <si>
+    <t>618be46578a663604c256b2a</t>
+  </si>
+  <si>
     <t>6182a0b318f21856d4018d66</t>
   </si>
   <si>
@@ -258,33 +331,69 @@
     <t>61829dd1fb233152ce61d0cc</t>
   </si>
   <si>
+    <t>618be44bec8a2a00b50a1b90</t>
+  </si>
+  <si>
     <t>6182a1f9342bd71da7787775</t>
   </si>
   <si>
+    <t>618be51233a0156ac0240cc7</t>
+  </si>
+  <si>
     <t>61829fa8c95316759040d54a</t>
   </si>
   <si>
+    <t>618be6779564675531654ec5</t>
+  </si>
+  <si>
     <t>6182d56bc55f6460c955620d</t>
   </si>
   <si>
     <t>6182a16831db7215d52e870a</t>
   </si>
   <si>
+    <t>618c0bb501a4b91885346993</t>
+  </si>
+  <si>
+    <t>618be5406ec52b514878cac5</t>
+  </si>
+  <si>
     <t>6182a2cfe979662bfb4f11bb</t>
   </si>
   <si>
+    <t>618be622f2842a3f784240c9</t>
+  </si>
+  <si>
+    <t>618c0becd2f94942bd131de3</t>
+  </si>
+  <si>
+    <t>618be753870d1c3f904f2562</t>
+  </si>
+  <si>
     <t>61829f17c13a1e0a3e659b7b</t>
   </si>
   <si>
     <t>6182d47e7fa7103a4e7d1336</t>
   </si>
   <si>
+    <t>618be6ad18908416ab58d8e1</t>
+  </si>
+  <si>
+    <t>618be482d2f94942bd131dd2</t>
+  </si>
+  <si>
+    <t>618c0b5efc022451f64a53ff</t>
+  </si>
+  <si>
     <t>6182a00694132c702a5fcb3c</t>
   </si>
   <si>
     <t>6182d550f281107a3002b32d</t>
   </si>
   <si>
+    <t>618be7ce063b40104007f991</t>
+  </si>
+  <si>
     <t>6182a14b5d8fff32c7000498</t>
   </si>
   <si>
@@ -297,12 +406,21 @@
     <t>6182a02e7b40ce453472fd5e</t>
   </si>
   <si>
+    <t>618be7302ff9ae5c026441d2</t>
+  </si>
+  <si>
     <t>61829ef92ad9000e3b24e3e6</t>
   </si>
   <si>
+    <t>618be5fe9d413e2d3129d11f</t>
+  </si>
+  <si>
     <t>618a9223c9fd3619be1a2d8e</t>
   </si>
   <si>
+    <t>618be4a512efb160bb5ff9e8</t>
+  </si>
+  <si>
     <t>6182d51046899e4b2e38d843</t>
   </si>
   <si>
@@ -312,9 +430,27 @@
     <t>61829df61d96cb794f7985f2</t>
   </si>
   <si>
+    <t>618be7b139f9261f0707a703</t>
+  </si>
+  <si>
     <t>6182a07d89377f4f84142637</t>
   </si>
   <si>
+    <t>618c0c3333a0156ac0240cf2</t>
+  </si>
+  <si>
+    <t>618be7170fc98d22f05e6d7e</t>
+  </si>
+  <si>
+    <t>618be5606d9f7160110130a5</t>
+  </si>
+  <si>
+    <t>618c0bd4289f6960d23c2ffc</t>
+  </si>
+  <si>
+    <t>618be4f6e8b61739d04ab72f</t>
+  </si>
+  <si>
     <t>61829fe618f21856d4018d64</t>
   </si>
   <si>
@@ -582,6 +718,9 @@
     <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
   </si>
   <si>
+    <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
+  </si>
+  <si>
     <t>Baja Shrimp Tacos with Pineapple Salsa</t>
   </si>
   <si>
@@ -609,6 +748,9 @@
     <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
   </si>
   <si>
+    <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
+  </si>
+  <si>
     <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
   </si>
   <si>
@@ -735,30 +877,66 @@
     <t>APRICOT-GLAZED PORK MEATBALLS pearl couscous, kale salad with radishes, carrots &amp; pistachios</t>
   </si>
   <si>
+    <t>BARRAMUNDI WITH CHIPOTLE LIME AÏOLI kale, mangos, cabbage, carrots, almonds</t>
+  </si>
+  <si>
+    <t>BEEF TENDERLOIN WITH BROWN BUTTER CARROTS garlicky broccoli, Worcestershire sauce</t>
+  </si>
+  <si>
+    <t>CHICKEN WITH CREAMY LEMON SAUCE sautéed squash, Brussels sprouts, hazelnuts</t>
+  </si>
+  <si>
     <t>CREAMY CHICKEN &amp; POTATO SOUP corn, roasted red peppers, sharp cheddar cheese, chives</t>
   </si>
   <si>
+    <t>CREAMY PESTO FARFALLE BOWLS tomatoes, peas, roasted butternut squash, mozzarella</t>
+  </si>
+  <si>
     <t>CREAMY TOMATO CHICKPEA SPAGHETTI Barilla® Chickpea Spaghetti, Parmesan-crusted cauliflower, peas</t>
   </si>
   <si>
+    <t>CUBAN PICADILLO HASH bell pepper, potatoes, raisins, creamy chimichurri</t>
+  </si>
+  <si>
+    <t>HARISSA-SPICED CHICKEN rice with schug sauce, sautéed peas &amp; radishes, mint</t>
+  </si>
+  <si>
     <t>HONEY-MUSTARD SALMON smoky roasted rainbow carrots, sautéed broccoli</t>
   </si>
   <si>
     <t>ITALIAN HERB-SEASONED BARRAMUNDI kale, artichoke &amp; roasted red pepper couscous, almonds</t>
   </si>
   <si>
+    <t>ITALIAN PORK SAUSAGE PUTTANESCA spaghetti, olives, capers, Parmesan cheese, roasted broccoli</t>
+  </si>
+  <si>
+    <t>KIDNEY BEAN BURGERS roasted potatoes, cabbage slaw with cotija, paprika-Dijon aïoli</t>
+  </si>
+  <si>
     <t>MEDITERRANEAN-STYLE CHICKEN SALAD kale, sautéed yellow squash, gremolata, lemon aïoli</t>
   </si>
   <si>
     <t>ROASTED CHICKPEA &amp; CARROT BOWLS kale, rice with dates &amp; feta, creamy turmeric-spiced vinaigrette</t>
   </si>
   <si>
+    <t>SALMON WITH CREAMY DILL SAUCE kale salad with tomato, cabbage, olives &amp; dates</t>
+  </si>
+  <si>
     <t>SPICED BEEF &amp; CAULIFLOWER “RICE” roasted carrots, roasted almonds, lemon-scallion crema</t>
   </si>
   <si>
+    <t>SPICY CHICKEN &amp; GUACAMOLE WRAPS cabbage, tomato, corn, creamy parsley &amp; cilantro chimichurri</t>
+  </si>
+  <si>
+    <t>SPICY KIMCHI BEEF PATTIES cabbage, carrots, chard, cashews, fried eggs, sesame seeds</t>
+  </si>
+  <si>
     <t>SPICY MUSHROOM STIR-FRY jasmine rice, broccoli, red bell pepper, carrot, cabbage</t>
   </si>
   <si>
+    <t>SQUASH &amp; MOZZARELLA FLATBREADS pine nuts, honey, crushed red pepper flakes, kale salad</t>
+  </si>
+  <si>
     <t>SRIRACHA-TAMARI BEEF BOWLS jasmine rice, broccoli, cabbage &amp; carrots, peanuts, sesame seeds</t>
   </si>
   <si>
@@ -768,15 +946,48 @@
     <t>TRUFFLE BUTTER STEAKS roasted potato wedges, broccoli with Parmesan</t>
   </si>
   <si>
+    <t>Al Pastor Pico Chicken with Zesty Lime Rice &amp; Smoky Red Pepper Crema</t>
+  </si>
+  <si>
+    <t>Al Pastor Pico Pork with Zesty Lime Rice &amp; Smoky Red Pepper Crema</t>
+  </si>
+  <si>
+    <t>Bacon Buckaroo Burgers with BBQ Caramelized Onion &amp; Cheesy Roasted Potatoes</t>
+  </si>
+  <si>
+    <t>Beef &amp; Zucchini Bibimbap with Carrots &amp; Jasmine Rice</t>
+  </si>
+  <si>
+    <t>Beef Tenderloin over Lemony Spaghetti with Zucchini and Chili Flakes</t>
+  </si>
+  <si>
+    <t>Beef Tenderloin with Brown Butter Veggies plus Parmesan Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Black Bean &amp; Blue Corn Crunch Burritos with Pico de Gallo &amp; Lime Crema</t>
+  </si>
+  <si>
     <t>Black Bean &amp; Charred Corn Burrito Bowls with Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
   </si>
   <si>
+    <t>Brocc Out Gouda Melts with Caramelized Onion, Potato Wedges &amp; Honey Dijon Mayo</t>
+  </si>
+  <si>
     <t>Butter-Basted Chicken with Candied Bacon Brussels Sprouts &amp; Mashed Potatoes</t>
   </si>
   <si>
     <t>Chicken Ramen in a Shoyu-Style Broth with Carrots, Chili Garlic Oil &amp; Crispy Onions</t>
   </si>
   <si>
+    <t>Chicken Sausage Rigatoni in a Creamy Pink Sauce with Bell Pepper &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Creamy Lemon Spinach Ricotta Ravioli with Roasted Bell Pepper &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Creamy Lemon Spinach Ricotta Ravioli with Seared Salmon, Roasted Bell Pepper &amp; Parmesan</t>
+  </si>
+  <si>
     <t>Crunchy Curried Chickpea Bowls with Chicken, Golden Raisins &amp; Pickled Cabbage</t>
   </si>
   <si>
@@ -786,6 +997,9 @@
     <t>Crunchy Italian Chicken Sheet Pan Bake with Spiced Potatoes &amp; Lemony Green Beans</t>
   </si>
   <si>
+    <t>Firecracker Meatballs with Roasted Green Beans &amp; Jasmine Rice</t>
+  </si>
+  <si>
     <t>Gametime Chicken Sausage &amp; Pepper Subs with Mixed Green Salad &amp; Balsamic Vinaigrette</t>
   </si>
   <si>
@@ -807,33 +1021,69 @@
     <t>Homestyle Chicken &amp; Biscuit Pot Pie with Pillsbury™️ Buttermilk Southern Homestyle Biscuits, Carrots &amp; Celery</t>
   </si>
   <si>
+    <t>Italian Chicken over Lemony Spaghetti with Zucchini &amp; Chili Flakes</t>
+  </si>
+  <si>
     <t>Italian Garden Veggie Soup with Kale, Pearled Couscous &amp; Garlic Bread</t>
   </si>
   <si>
+    <t>Kung Pao Chicken with Sweet Szechuan Sauce, Peanuts &amp; Jasmine Rice</t>
+  </si>
+  <si>
     <t>Lil’ Sweet Lil’ Spicy Chicken with Roasted Carrots &amp; Cheesy Garlic Potato Wedges</t>
   </si>
   <si>
+    <t>Lobster-Filled Ravioli &amp; Shrimp with Zucchini Ribbons</t>
+  </si>
+  <si>
     <t>Lone Star Poblano Mac &amp; Cheese with Bacon and a Crispy Panko Topping</t>
   </si>
   <si>
     <t>Lone Star Poblano Mac &amp; Cheese with a Crispy Panko Topping</t>
   </si>
   <si>
+    <t>Middle Eastern Chickpea Bowls with Chicken, Spiced Basmati Rice &amp; Garlicky White Sauce</t>
+  </si>
+  <si>
+    <t>Middle Eastern Chickpea Bowls with Spiced Basmati Rice &amp; Garlicky White Sauce</t>
+  </si>
+  <si>
     <t>Middle Eastern Spiced Turkey Bowls with Bulgur, Zucchini &amp; Cilantro Yogurt</t>
   </si>
   <si>
+    <t>Nacho Pork Burgers with Roasted Jalapeño Cheese Sauce, Crispy Fried Onions &amp; Potato Wedges</t>
+  </si>
+  <si>
+    <t>Nacho Turkey Burgers with Roasted Jalapeño Cheese Sauce, Crispy Fried Onions &amp; Potato Wedges</t>
+  </si>
+  <si>
+    <t>One-Pan Easy Cheesy Chicken Quesadillas with Smoky Red Pepper Crema</t>
+  </si>
+  <si>
     <t>One-Pan Moo Shu Pork Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
   </si>
   <si>
     <t>One-Pan Moo Shu Shrimp Bowls with Cabbage, Scallions &amp; Buttery Rice</t>
   </si>
   <si>
+    <t>One-Pan Moroccan Chicken &amp; Couscous with Pistachios &amp; Lemon Garlic Crema</t>
+  </si>
+  <si>
+    <t>One-Pan Santa Fe Pork Tacos with Monterey Jack &amp; Cilantro Lime Slaw</t>
+  </si>
+  <si>
+    <t>One-Pan Santa Fe Shrimp Tacos with Monterey Jack &amp; Cilantro Lime Slaw</t>
+  </si>
+  <si>
     <t>One-Pan Smashed Black Bean Tacos with Creamy Slaw, Pickled Onion &amp; Red Pepper Crema</t>
   </si>
   <si>
     <t>One-Pot Beef &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
   </si>
   <si>
+    <t>One-Pot Longhorn Turkey &amp; Bean Chili with Jalapeño &amp; Smoky Red Pepper Crema</t>
+  </si>
+  <si>
     <t>One-Pot Pork &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
   </si>
   <si>
@@ -846,12 +1096,21 @@
     <t>Peppercorn-Crusted Beef Tenderloin with Chive Butter, Asparagus Amandine &amp; Mashed Sweet Potatoes</t>
   </si>
   <si>
+    <t>Plant-Based Protein Messy Janes with Pickled Onion, Roasted Potato Wedges &amp; Lime Aioli</t>
+  </si>
+  <si>
     <t>San Antonio Beef Bowls with Blue Corn Tortilla Chips, Fresh Salsa &amp; Lime Crema</t>
   </si>
   <si>
+    <t>Sheet Pan Walnut-Crusted Salmon with a Roasted Veggie Jumble &amp; Lemon Crème Fraîche</t>
+  </si>
+  <si>
     <t>Shrimp &amp; Black Bean Burrito Bowls with Charred Corn, Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
   </si>
   <si>
+    <t>Sirloin au Poivre &amp; Garlic Herb Shrimp with Garlic Bread &amp; Lemony Green Beans</t>
+  </si>
+  <si>
     <t>Smoky Brown Sugar Beef Tenderloin Salad with Kale, Apple, Roasted Carrots, Sunflower Seeds &amp; Honey Dijon Dressing</t>
   </si>
   <si>
@@ -861,9 +1120,27 @@
     <t>Southwest Beef Cavatappi with Poblano &amp; Smoky Red Pepper Crema</t>
   </si>
   <si>
+    <t>Spiced Chicken In Apricot Sauce with Almond Rice, Cucumber Salad &amp; Lemon Yogurt Dressing</t>
+  </si>
+  <si>
     <t>Spicy Shrimp &amp; Broccoli Stir-Fry in a Sweet Chili Soy Glaze over Jasmine Rice</t>
   </si>
   <si>
+    <t>Spinach Caprese Salad with Chicken plus Herbed Chickpeas, Caramelized Shallots &amp; Creamy Balsamic Vinaigrette</t>
+  </si>
+  <si>
+    <t>Spinach Caprese Salad with Herbed Chickpeas, Caramelized Shallots &amp; Creamy Balsamic Vinaigrette</t>
+  </si>
+  <si>
+    <t>Sun-Dried Tomato Spaghetti with Philadelphia Cream Cheese, Fresh Herbs, Almonds &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Sun-Dried Tomato Spaghetti with Shrimp plus Philadelphia Cream Cheese, Fresh Herbs, Almonds &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Sweet As Honey Dijon Chicken with Lemony Green Beans &amp; Cheesy Cauliflower “Rice”</t>
+  </si>
+  <si>
     <t>Zucchini &amp; Tomato Flatbreads with Lemon Ricotta, Fresh Herbs, Honey &amp; Chili Flakes</t>
   </si>
   <si>
@@ -1227,6 +1504,9 @@
     <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -1254,6 +1534,9 @@
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
   </si>
   <si>
@@ -1380,30 +1663,66 @@
     <t>https://cg.greenchef.com/recipes/apricot-glazed-pork-meatballs-616d895fdd5f077890039780</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/barramundi-with-chipotle-lime-aioli-61769b2a0315c044e06863df</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/beef-tenderloin-with-brown-butter-carrots-60d9f4acca1acb34fb5c8422</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/chicken-with-creamy-lemon-sauce-5fbd44f6cf4d133a4b2c316e</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/creamy-chicken-potato-soup-616d895c4fd43275cb51893f</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/creamy-pesto-farfalle-bowls-61769b2e49b60e5ab7159c4f</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/creamy-tomato-chickpea-spaghetti-616d8966197e2e0dfb7a65d6</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/cuban-picadillo-hash-61769b2b3285d3326271708c</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/harissa-spiced-chicken-5fd2c037e5f86961606f8995</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/honey-mustard-salmon-60edb06236da34788b4c1567</t>
   </si>
   <si>
     <t>https://cg.greenchef.com/recipes/italian-herb-seasoned-barramundi-616d8964b1f5893b332e9ce4</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/italian-pork-sausage-puttanesca-6061c529f4668921301881c2</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/kidney-bean-burgers-61769b2fee7cf3008c6cef08</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/mediterranean-style-chicken-salad-601d8d0e5df88101fa189b5c</t>
   </si>
   <si>
     <t>https://cg.greenchef.com/recipes/roasted-chickpea-carrot-bowls-60c747b1e3218921147f2c82</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/salmon-with-creamy-dill-sauce-61769b2c4b246d756505ca39</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/spiced-beef-cauliflower-rice-60589af6876ba841f72d150c</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/spicy-chicken-guacamole-wraps-61769b2d525bb9419829771d</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/spicy-kimchi-beef-patties-601d8d17001106080e0a4a9d</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/spicy-mushroom-stir-fry-5ffdbf3793f72459575cdc94</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/squash-mozzarella-flatbreads-614998aa3d6525308c66895d</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/sriracha-tamari-beef-bowls-616d895ebc2b2a553f53bf6d</t>
   </si>
   <si>
@@ -1413,15 +1732,48 @@
     <t>https://cg.greenchef.com/recipes/truffle-butter-steaks-616d89658dc7791e073e24f7</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/al-pastor-pico-chicken-618c0c034867cd760233b4b6</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/al-pastor-pico-pork-618be6c201a4b9188534698a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/bacon-buckaroo-burgers-618be5dcc20ba564414b672c</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/beef-zucchini-bibimbap-618be64ae355fc199a46cc59</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/beef-tenderloin-over-lemony-spaghetti-618c0b44dc354c7d6e3040ca</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/beef-tenderloin-with-brown-butter-veggies-618be5ba0fc98d22f05e6d77</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/black-bean-blue-corn-crunch-burritos-618be585c20ba564414b672a</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/black-bean-charred-corn-burrito-bowls-618a9199393fbc6c437c882d</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/brocc-out-gouda-melts-618be7819ba8382bd2141863</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/butter-basted-chicken-6182a10af281107a3002b30a</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/chicken-ramen-in-a-shoyu-style-broth-6182a04ec95316759040d54c</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/chicken-sausage-rigatoni-618be4c6f342f67f6631aaec</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/creamy-lemon-spinach-ricotta-ravioli-618be6e84ae2420eda7a2f67</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/creamy-lemon-spinach-ricotta-ravioli-618c0c20fc022451f64a5401</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182d5a67f8d0a023b1a3310</t>
   </si>
   <si>
@@ -1431,6 +1783,9 @@
     <t>https://www.hellofresh.com/recipes/crunchy-italian-chicken-sheet-pan-bake-61829f3815e1b62d22600abd</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/firecracker-meatballs-618be46578a663604c256b2a</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/gametime-chicken-sausage-pepper-subs-6182a0b318f21856d4018d66</t>
   </si>
   <si>
@@ -1452,33 +1807,69 @@
     <t>https://www.hellofresh.com/recipes/homestyle-chicken-biscuit-pot-pie-61829dd1fb233152ce61d0cc</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/italian-chicken-over-lemony-spaghetti-618be44bec8a2a00b50a1b90</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/italian-garden-veggie-soup-6182a1f9342bd71da7787775</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/kung-pao-chicken-618be51233a0156ac0240cc7</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/lil-sweet-lil-spicy-chicken-61829fa8c95316759040d54a</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/lobster-filled-ravioli-shrimp-618be6779564675531654ec5</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182d56bc55f6460c955620d</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/lone-star-poblano-mac-cheese-6182a16831db7215d52e870a</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/middle-eastern-chickpea-bowls-618c0bb501a4b91885346993</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/middle-eastern-chickpea-bowls-618be5406ec52b514878cac5</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/middle-eastern-spiced-turkey-bowls-6182a2cfe979662bfb4f11bb</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/nacho-pork-burgers-618be622f2842a3f784240c9</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/nacho-turkey-burgers-618c0becd2f94942bd131de3</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-easy-cheesy-chicken-quesadillas-618be753870d1c3f904f2562</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-pork-bowls-61829f17c13a1e0a3e659b7b</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/one-pan-moo-shu-shrimp-bowls-6182d47e7fa7103a4e7d1336</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-moroccan-chicken-couscous-618be6ad18908416ab58d8e1</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-santa-fe-pork-tacos-618be482d2f94942bd131dd2</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-santa-fe-shrimp-tacos-618c0b5efc022451f64a53ff</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/one-pan-smashed-black-bean-tacos-6182a00694132c702a5fcb3c</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/one-pan-beef-black-bean-chili-6182d550f281107a3002b32d</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/one-pot-longhorn-turkey-bean-chili-618be7ce063b40104007f991</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/one-pan-pork-black-bean-chili-6182a14b5d8fff32c7000498</t>
   </si>
   <si>
@@ -1491,12 +1882,21 @@
     <t>https://www.hellofresh.com/recipes/peppercorn-crusted-beef-tenderloin-6182a02e7b40ce453472fd5e</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/plant-based-protein-messy-janes-618be7302ff9ae5c026441d2</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/san-antonio-beef-bowls-61829ef92ad9000e3b24e3e6</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/sheet-pan-walnut-crusted-salmon-618be5fe9d413e2d3129d11f</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/shrimp-black-bean-burrito-bowls-618a9223c9fd3619be1a2d8e</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/sirloin-au-poivre-garlic-herb-shrimp-618be4a512efb160bb5ff9e8</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/smoky-brown-sugar-beef-tenderloin-salad-6182d51046899e4b2e38d843</t>
   </si>
   <si>
@@ -1506,7 +1906,25 @@
     <t>https://www.hellofresh.com/recipes/southwest-beef-cavatappi-61829df61d96cb794f7985f2</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/spiced-chicken-in-apricot-sauce-618be7b139f9261f0707a703</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/spicy-shrimp-broccoli-stir-fry-6182a07d89377f4f84142637</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/spinach-caprese-salad-with-chicken-618c0c3333a0156ac0240cf2</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/spinach-caprese-salad-618be7170fc98d22f05e6d7e</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/sun-dried-tomato-spaghetti-618be5606d9f7160110130a5</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/sun-dried-tomato-spaghetti-with-shrimp-618c0bd4289f6960d23c2ffc</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/sweet-as-honey-dijon-chicken-618be4f6e8b61739d04ab72f</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/zucchini-and-tomato-flatbreads-61829fe618f21856d4018d64</t>
@@ -1743,8 +2161,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,14 +2238,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1874,7 +2284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1906,10 +2316,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1941,7 +2350,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2117,20 +2525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="127.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="145" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,2768 +2546,3426 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>138</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>358</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>359</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>361</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>362</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>363</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>364</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>365</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>366</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>367</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>368</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>369</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>370</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>371</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>372</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>374</v>
+        <v>468</v>
       </c>
       <c r="D24" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>375</v>
+        <v>469</v>
       </c>
       <c r="D25" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>376</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>377</v>
+        <v>471</v>
       </c>
       <c r="D27" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>378</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>379</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
       <c r="D30" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>381</v>
+        <v>475</v>
       </c>
       <c r="D31" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>382</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>384</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>385</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>387</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="D38" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>389</v>
+        <v>483</v>
       </c>
       <c r="D39" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>390</v>
+        <v>484</v>
       </c>
       <c r="D40" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
       <c r="D41" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="D42" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>178</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>393</v>
+        <v>487</v>
       </c>
       <c r="D43" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>394</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>395</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>396</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>397</v>
+        <v>491</v>
       </c>
       <c r="D47" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>398</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="B49" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>399</v>
+        <v>493</v>
       </c>
       <c r="D49" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>400</v>
+        <v>494</v>
       </c>
       <c r="D50" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>401</v>
+        <v>495</v>
       </c>
       <c r="D51" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>402</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>403</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>404</v>
+        <v>498</v>
       </c>
       <c r="D54" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>405</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>407</v>
+        <v>501</v>
       </c>
       <c r="D57" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>408</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>409</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>410</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>411</v>
+        <v>505</v>
       </c>
       <c r="D61" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>412</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>413</v>
+        <v>507</v>
       </c>
       <c r="D63" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>414</v>
+        <v>508</v>
       </c>
       <c r="D64" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="D66" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>418</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="D71" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="D72" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="D73" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>426</v>
+        <v>520</v>
       </c>
       <c r="D76" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>427</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>214</v>
+        <v>261</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>429</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>430</v>
+        <v>524</v>
       </c>
       <c r="D80" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>431</v>
+        <v>525</v>
       </c>
       <c r="D81" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>432</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>433</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>434</v>
+        <v>528</v>
       </c>
       <c r="D84" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>435</v>
+        <v>529</v>
       </c>
       <c r="D85" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>436</v>
+        <v>530</v>
       </c>
       <c r="D86" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="D87" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="D88" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>439</v>
+        <v>533</v>
       </c>
       <c r="D89" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>440</v>
+        <v>534</v>
       </c>
       <c r="D90" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>441</v>
+        <v>535</v>
       </c>
       <c r="D91" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>442</v>
+        <v>536</v>
       </c>
       <c r="D92" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>443</v>
+        <v>537</v>
       </c>
       <c r="D93" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>444</v>
+        <v>538</v>
       </c>
       <c r="D94" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>445</v>
+        <v>539</v>
       </c>
       <c r="D95" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="D96" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>447</v>
+        <v>541</v>
       </c>
       <c r="D97" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>448</v>
+        <v>542</v>
       </c>
       <c r="D98" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>449</v>
+        <v>543</v>
       </c>
       <c r="D99" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D100" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>451</v>
+        <v>545</v>
       </c>
       <c r="D101" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>284</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>452</v>
+        <v>546</v>
       </c>
       <c r="D102" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>453</v>
+        <v>547</v>
       </c>
       <c r="D103" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>454</v>
+        <v>548</v>
       </c>
       <c r="D104" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>455</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>456</v>
+        <v>550</v>
       </c>
       <c r="D106" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>457</v>
+        <v>551</v>
       </c>
       <c r="D107" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>458</v>
+        <v>552</v>
       </c>
       <c r="D108" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="D109" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
       <c r="D110" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>461</v>
+        <v>555</v>
       </c>
       <c r="D111" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>462</v>
+        <v>556</v>
       </c>
       <c r="D112" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>463</v>
+        <v>557</v>
       </c>
       <c r="D113" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>464</v>
+        <v>558</v>
       </c>
       <c r="D114" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>465</v>
+        <v>559</v>
       </c>
       <c r="D115" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>466</v>
+        <v>560</v>
       </c>
       <c r="D116" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>467</v>
+        <v>561</v>
       </c>
       <c r="D117" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>468</v>
+        <v>562</v>
       </c>
       <c r="D118" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>469</v>
+        <v>563</v>
       </c>
       <c r="D119" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>470</v>
+        <v>564</v>
       </c>
       <c r="D120" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>303</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>471</v>
+        <v>565</v>
       </c>
       <c r="D121" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>472</v>
+        <v>566</v>
       </c>
       <c r="D122" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="D123" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>76</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
       <c r="D124" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>475</v>
+        <v>569</v>
       </c>
       <c r="D125" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>476</v>
+        <v>570</v>
       </c>
       <c r="D126" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>477</v>
+        <v>571</v>
       </c>
       <c r="D127" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>478</v>
+        <v>572</v>
       </c>
       <c r="D128" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
       <c r="D129" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="D130" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
       <c r="D131" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>482</v>
+        <v>576</v>
       </c>
       <c r="D132" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>315</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="D133" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>484</v>
+        <v>578</v>
       </c>
       <c r="D134" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>485</v>
+        <v>579</v>
       </c>
       <c r="D135" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>486</v>
+        <v>580</v>
       </c>
       <c r="D136" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>89</v>
       </c>
       <c r="B137" t="s">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>487</v>
+        <v>581</v>
       </c>
       <c r="D137" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>320</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>488</v>
+        <v>582</v>
       </c>
       <c r="D138" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>91</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>489</v>
+        <v>583</v>
       </c>
       <c r="D139" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>322</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>490</v>
+        <v>584</v>
       </c>
       <c r="D140" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>323</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>491</v>
+        <v>585</v>
       </c>
       <c r="D141" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
       <c r="D142" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
       <c r="D143" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>494</v>
+        <v>588</v>
       </c>
       <c r="D144" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>495</v>
+        <v>589</v>
       </c>
       <c r="D145" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>98</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>496</v>
+        <v>590</v>
       </c>
       <c r="D146" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>99</v>
+      </c>
       <c r="B147" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="D147" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
       <c r="B148" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>498</v>
+        <v>592</v>
       </c>
       <c r="D148" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
       <c r="B149" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>499</v>
+        <v>593</v>
       </c>
       <c r="D149" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>102</v>
+      </c>
       <c r="B150" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>500</v>
+        <v>594</v>
       </c>
       <c r="D150" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>103</v>
+      </c>
       <c r="B151" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="D151" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>104</v>
+      </c>
       <c r="B152" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="D152" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>105</v>
+      </c>
       <c r="B153" t="s">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="D153" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>106</v>
+      </c>
       <c r="B154" t="s">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
       <c r="D154" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>107</v>
+      </c>
       <c r="B155" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="D155" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>108</v>
+      </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="D156" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>109</v>
+      </c>
       <c r="B157" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>507</v>
+        <v>601</v>
       </c>
       <c r="D157" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>110</v>
+      </c>
       <c r="B158" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="D158" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>111</v>
+      </c>
       <c r="B159" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>509</v>
+        <v>603</v>
       </c>
       <c r="D159" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>112</v>
+      </c>
       <c r="B160" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="D160" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>113</v>
+      </c>
       <c r="B161" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>511</v>
+        <v>605</v>
       </c>
       <c r="D161" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>114</v>
+      </c>
       <c r="B162" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>512</v>
+        <v>606</v>
       </c>
       <c r="D162" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>115</v>
+      </c>
       <c r="B163" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>513</v>
+        <v>607</v>
       </c>
       <c r="D163" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>116</v>
+      </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>514</v>
+        <v>608</v>
       </c>
       <c r="D164" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>117</v>
+      </c>
       <c r="B165" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>515</v>
+        <v>609</v>
       </c>
       <c r="D165" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>118</v>
+      </c>
       <c r="B166" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>516</v>
+        <v>610</v>
       </c>
       <c r="D166" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>119</v>
+      </c>
       <c r="B167" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>517</v>
+        <v>611</v>
       </c>
       <c r="D167" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>120</v>
+      </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>518</v>
+        <v>612</v>
       </c>
       <c r="D168" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>121</v>
+      </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>519</v>
+        <v>613</v>
       </c>
       <c r="D169" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>122</v>
+      </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>520</v>
+        <v>614</v>
       </c>
       <c r="D170" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>123</v>
+      </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>521</v>
+        <v>615</v>
       </c>
       <c r="D171" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>124</v>
+      </c>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>354</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>522</v>
+        <v>616</v>
       </c>
       <c r="D172" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>125</v>
+      </c>
       <c r="B173" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>523</v>
+        <v>617</v>
       </c>
       <c r="D173" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>126</v>
+      </c>
       <c r="B174" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="D174" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>127</v>
+      </c>
       <c r="B175" t="s">
-        <v>310</v>
+        <v>357</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>525</v>
+        <v>619</v>
       </c>
       <c r="D175" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>128</v>
+      </c>
       <c r="B176" t="s">
-        <v>311</v>
+        <v>358</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>526</v>
+        <v>620</v>
       </c>
       <c r="D176" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>129</v>
+      </c>
       <c r="B177" t="s">
-        <v>312</v>
+        <v>359</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>527</v>
+        <v>621</v>
       </c>
       <c r="D177" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>130</v>
+      </c>
       <c r="B178" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>528</v>
+        <v>622</v>
       </c>
       <c r="D178" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>529</v>
+        <v>623</v>
       </c>
       <c r="D179" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="D180" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>531</v>
+        <v>625</v>
       </c>
       <c r="D181" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B182" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>532</v>
+        <v>626</v>
       </c>
       <c r="D182" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B183" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>533</v>
+        <v>627</v>
       </c>
       <c r="D183" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B184" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>534</v>
+        <v>628</v>
       </c>
       <c r="D184" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="B185" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="D185" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B186" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="D186" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="B187" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>537</v>
+        <v>631</v>
       </c>
       <c r="D187" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B188" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>538</v>
+        <v>632</v>
       </c>
       <c r="D188" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B189" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>539</v>
+        <v>633</v>
       </c>
       <c r="D189" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B190" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>540</v>
+        <v>634</v>
       </c>
       <c r="D190" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B191" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>541</v>
+        <v>635</v>
       </c>
       <c r="D191" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B192" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>542</v>
+        <v>636</v>
       </c>
       <c r="D192" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B193" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>543</v>
+        <v>637</v>
       </c>
       <c r="D193" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>114</v>
-      </c>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="B194" t="s">
-        <v>329</v>
+        <v>376</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>544</v>
+        <v>638</v>
       </c>
       <c r="D194" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>115</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>545</v>
+        <v>639</v>
       </c>
       <c r="D195" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>116</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="B196" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>546</v>
+        <v>640</v>
       </c>
       <c r="D196" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>117</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="B197" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
       <c r="D197" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>118</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="B198" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
       <c r="D198" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>119</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="B199" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>549</v>
+        <v>643</v>
       </c>
       <c r="D199" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>120</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="B200" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="D200" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>121</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="B201" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>551</v>
+        <v>645</v>
       </c>
       <c r="D201" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>122</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="B202" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
       <c r="D202" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>123</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="B203" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
       <c r="D203" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>124</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="B204" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>554</v>
+        <v>648</v>
       </c>
       <c r="D204" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>125</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="B205" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>555</v>
+        <v>649</v>
       </c>
       <c r="D205" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>126</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="B206" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>556</v>
+        <v>650</v>
       </c>
       <c r="D206" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>127</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="B207" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>557</v>
+        <v>651</v>
       </c>
       <c r="D207" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>128</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="B208" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>558</v>
+        <v>652</v>
       </c>
       <c r="D208" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>129</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>559</v>
+        <v>653</v>
       </c>
       <c r="D209" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>130</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>560</v>
+        <v>654</v>
       </c>
       <c r="D210" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>131</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>561</v>
+        <v>655</v>
       </c>
       <c r="D211" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>132</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>562</v>
+        <v>656</v>
       </c>
       <c r="D212" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>133</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>563</v>
+        <v>657</v>
       </c>
       <c r="D213" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>134</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>564</v>
+        <v>658</v>
       </c>
       <c r="D214" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>135</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="D215" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>136</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>566</v>
+        <v>660</v>
       </c>
       <c r="D216" t="s">
-        <v>572</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" t="s">
+        <v>399</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D217" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" t="s">
+        <v>400</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D218" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" t="s">
+        <v>401</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D219" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" t="s">
+        <v>402</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D220" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" t="s">
+        <v>403</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D221" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" t="s">
+        <v>404</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D222" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" t="s">
+        <v>405</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D223" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" t="s">
+        <v>406</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D224" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="B225" t="s">
+        <v>407</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D225" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>146</v>
+      </c>
+      <c r="B226" t="s">
+        <v>408</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D226" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>147</v>
+      </c>
+      <c r="B227" t="s">
+        <v>409</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D227" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>148</v>
+      </c>
+      <c r="B228" t="s">
+        <v>410</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D228" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>149</v>
+      </c>
+      <c r="B229" t="s">
+        <v>411</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D229" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>150</v>
+      </c>
+      <c r="B230" t="s">
+        <v>412</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D230" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>151</v>
+      </c>
+      <c r="B231" t="s">
+        <v>413</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D231" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>152</v>
+      </c>
+      <c r="B232" t="s">
+        <v>414</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D232" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>153</v>
+      </c>
+      <c r="B233" t="s">
+        <v>415</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D233" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>154</v>
+      </c>
+      <c r="B234" t="s">
+        <v>416</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D234" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>155</v>
+      </c>
+      <c r="B235" t="s">
+        <v>417</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D235" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>156</v>
+      </c>
+      <c r="B236" t="s">
+        <v>418</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D236" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>157</v>
+      </c>
+      <c r="B237" t="s">
+        <v>419</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D237" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>158</v>
+      </c>
+      <c r="B238" t="s">
+        <v>420</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D238" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>159</v>
+      </c>
+      <c r="B239" t="s">
+        <v>421</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D239" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>160</v>
+      </c>
+      <c r="B240" t="s">
+        <v>422</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D240" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>161</v>
+      </c>
+      <c r="B241" t="s">
+        <v>423</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D241" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>162</v>
+      </c>
+      <c r="B242" t="s">
+        <v>424</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D242" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>163</v>
+      </c>
+      <c r="B243" t="s">
+        <v>425</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D243" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>164</v>
+      </c>
+      <c r="B244" t="s">
+        <v>426</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D244" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>165</v>
+      </c>
+      <c r="B245" t="s">
+        <v>427</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D245" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>166</v>
+      </c>
+      <c r="B246" t="s">
+        <v>428</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D246" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>167</v>
+      </c>
+      <c r="B247" t="s">
+        <v>429</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D247" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>168</v>
+      </c>
+      <c r="B248" t="s">
+        <v>430</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D248" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>169</v>
+      </c>
+      <c r="B249" t="s">
+        <v>431</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D249" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>170</v>
+      </c>
+      <c r="B250" t="s">
+        <v>432</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D250" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>171</v>
+      </c>
+      <c r="B251" t="s">
+        <v>433</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D251" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>172</v>
+      </c>
+      <c r="B252" t="s">
+        <v>434</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D252" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>173</v>
+      </c>
+      <c r="B253" t="s">
+        <v>435</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D253" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>174</v>
+      </c>
+      <c r="B254" t="s">
+        <v>436</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D254" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>175</v>
+      </c>
+      <c r="B255" t="s">
+        <v>437</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D255" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>176</v>
+      </c>
+      <c r="B256" t="s">
+        <v>438</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D256" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>177</v>
+      </c>
+      <c r="B257" t="s">
+        <v>439</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D257" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>178</v>
+      </c>
+      <c r="B258" t="s">
+        <v>440</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D258" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>179</v>
+      </c>
+      <c r="B259" t="s">
+        <v>441</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D259" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>180</v>
+      </c>
+      <c r="B260" t="s">
+        <v>442</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D260" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>181</v>
+      </c>
+      <c r="B261" t="s">
+        <v>443</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D261" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>182</v>
+      </c>
+      <c r="B262" t="s">
+        <v>444</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D262" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>183</v>
+      </c>
+      <c r="B263" t="s">
+        <v>445</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D263" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -5125,6 +6185,53 @@
     <hyperlink ref="C214" r:id="rId213"/>
     <hyperlink ref="C215" r:id="rId214"/>
     <hyperlink ref="C216" r:id="rId215"/>
+    <hyperlink ref="C217" r:id="rId216"/>
+    <hyperlink ref="C218" r:id="rId217"/>
+    <hyperlink ref="C219" r:id="rId218"/>
+    <hyperlink ref="C220" r:id="rId219"/>
+    <hyperlink ref="C221" r:id="rId220"/>
+    <hyperlink ref="C222" r:id="rId221"/>
+    <hyperlink ref="C223" r:id="rId222"/>
+    <hyperlink ref="C224" r:id="rId223"/>
+    <hyperlink ref="C225" r:id="rId224"/>
+    <hyperlink ref="C226" r:id="rId225"/>
+    <hyperlink ref="C227" r:id="rId226"/>
+    <hyperlink ref="C228" r:id="rId227"/>
+    <hyperlink ref="C229" r:id="rId228"/>
+    <hyperlink ref="C230" r:id="rId229"/>
+    <hyperlink ref="C231" r:id="rId230"/>
+    <hyperlink ref="C232" r:id="rId231"/>
+    <hyperlink ref="C233" r:id="rId232"/>
+    <hyperlink ref="C234" r:id="rId233"/>
+    <hyperlink ref="C235" r:id="rId234"/>
+    <hyperlink ref="C236" r:id="rId235"/>
+    <hyperlink ref="C237" r:id="rId236"/>
+    <hyperlink ref="C238" r:id="rId237"/>
+    <hyperlink ref="C239" r:id="rId238"/>
+    <hyperlink ref="C240" r:id="rId239"/>
+    <hyperlink ref="C241" r:id="rId240"/>
+    <hyperlink ref="C242" r:id="rId241"/>
+    <hyperlink ref="C243" r:id="rId242"/>
+    <hyperlink ref="C244" r:id="rId243"/>
+    <hyperlink ref="C245" r:id="rId244"/>
+    <hyperlink ref="C246" r:id="rId245"/>
+    <hyperlink ref="C247" r:id="rId246"/>
+    <hyperlink ref="C248" r:id="rId247"/>
+    <hyperlink ref="C249" r:id="rId248"/>
+    <hyperlink ref="C250" r:id="rId249"/>
+    <hyperlink ref="C251" r:id="rId250"/>
+    <hyperlink ref="C252" r:id="rId251"/>
+    <hyperlink ref="C253" r:id="rId252"/>
+    <hyperlink ref="C254" r:id="rId253"/>
+    <hyperlink ref="C255" r:id="rId254"/>
+    <hyperlink ref="C256" r:id="rId255"/>
+    <hyperlink ref="C257" r:id="rId256"/>
+    <hyperlink ref="C258" r:id="rId257"/>
+    <hyperlink ref="C259" r:id="rId258"/>
+    <hyperlink ref="C260" r:id="rId259"/>
+    <hyperlink ref="C261" r:id="rId260"/>
+    <hyperlink ref="C262" r:id="rId261"/>
+    <hyperlink ref="C263" r:id="rId262"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c20460\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="708">
   <si>
     <t>ID</t>
   </si>
@@ -28,9 +33,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>60d5e0a7245f7d03d4402180</t>
-  </si>
-  <si>
     <t>619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -58,9 +60,6 @@
     <t>6197ba8b094e9f31181725c1</t>
   </si>
   <si>
-    <t>6171b558a1c87a7e6c50c3d7</t>
-  </si>
-  <si>
     <t>619e550e399c360c8d4fbb82</t>
   </si>
   <si>
@@ -718,9 +717,6 @@
     <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
   </si>
   <si>
-    <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
-  </si>
-  <si>
     <t>Baja Shrimp Tacos with Pineapple Salsa</t>
   </si>
   <si>
@@ -748,9 +744,6 @@
     <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
   </si>
   <si>
-    <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
-  </si>
-  <si>
     <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
   </si>
   <si>
@@ -1504,9 +1497,6 @@
     <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
   </si>
   <si>
-    <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
-  </si>
-  <si>
     <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -1532,9 +1522,6 @@
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
-  </si>
-  <si>
-    <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
@@ -2161,8 +2148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2238,6 +2225,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2284,7 +2279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2316,9 +2311,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2350,6 +2346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2525,14 +2522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D263"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2546,3426 +2548,3398 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D5" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="D7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D8" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D12" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D9" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D13" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D10" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D14" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D11" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D15" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D12" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D13" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D14" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D15" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D16" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D20" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D21" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="D19" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D20" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D24" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D21" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D25" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D22" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D26" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D23" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D27" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D24" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D25" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D29" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D26" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D30" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D27" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D31" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D28" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D32" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D29" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D30" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D34" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D31" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D35" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D32" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D36" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D33" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D37" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D34" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D38" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D35" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D39" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D36" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D40" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D37" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D41" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="D38" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D42" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D39" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D43" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D40" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D44" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D41" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D45" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D42" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D46" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D43" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D47" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D44" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D48" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D45" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D49" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D46" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D50" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D47" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D48" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="B49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D49" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="B50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D50" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="B51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="D51" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D52" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D53" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D54" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D55" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D56" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D57" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D58" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D60" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D61" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D62" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D63" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D64" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D65" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D66" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D67" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D68" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D69" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D70" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D71" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D72" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D73" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D74" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D75" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D76" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D77" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D78" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D79" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D80" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D81" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D82" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D83" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D84" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D86" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D87" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D88" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D89" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D90" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D91" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D92" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D93" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D94" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D95" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D96" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D97" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D98" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D99" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D100" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D101" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D102" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D103" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D104" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D105" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D106" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D107" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D108" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D109" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D110" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D111" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D112" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D113" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D114" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D115" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D116" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D117" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D118" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D119" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D120" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D121" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D122" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D123" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>76</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D124" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D125" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D126" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D127" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D128" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D129" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D130" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D131" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D132" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D133" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D134" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D135" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D136" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>89</v>
       </c>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D137" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D138" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>91</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D139" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D140" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D141" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D142" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D143" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D144" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D145" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>98</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D146" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>99</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D147" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>100</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D148" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>101</v>
       </c>
       <c r="B149" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D149" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>102</v>
       </c>
       <c r="B150" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D150" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>103</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D151" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>104</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D152" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>105</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D153" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>106</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D154" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>107</v>
       </c>
       <c r="B155" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D155" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>108</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D156" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>109</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D157" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>110</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D158" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>111</v>
       </c>
       <c r="B159" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D159" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>112</v>
       </c>
       <c r="B160" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D160" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D161" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>114</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D162" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>115</v>
       </c>
       <c r="B163" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D163" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>116</v>
       </c>
       <c r="B164" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D164" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>117</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D165" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>118</v>
       </c>
       <c r="B166" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D166" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>119</v>
       </c>
       <c r="B167" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D167" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>120</v>
       </c>
       <c r="B168" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D168" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>121</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D169" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>122</v>
       </c>
       <c r="B170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D170" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D171" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>124</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D172" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>125</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D173" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D174" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D175" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>128</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D176" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>129</v>
       </c>
       <c r="B177" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D177" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>130</v>
       </c>
       <c r="B178" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D178" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D179" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D180" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>133</v>
       </c>
       <c r="B181" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D181" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>134</v>
       </c>
       <c r="B182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D182" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>135</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D183" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>136</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D184" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>137</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D185" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>138</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D186" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>139</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D187" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>140</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D188" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>141</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D189" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>142</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D190" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>143</v>
       </c>
       <c r="B191" t="s">
+        <v>371</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D191" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>372</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D192" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>373</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C193" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D193" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>374</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D194" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>375</v>
+      </c>
+      <c r="C195" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D191" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" t="s">
+      <c r="D195" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>376</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D196" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>377</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D197" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>378</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D198" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>379</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D199" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>380</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D200" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>381</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D201" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>382</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D202" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>383</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D203" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>384</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D204" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>385</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D205" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>386</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D206" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>387</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D207" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>388</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D208" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>389</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D209" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>390</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D210" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>391</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D211" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>392</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D212" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>393</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D213" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>394</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D214" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>395</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D215" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>396</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D216" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>397</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D217" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>398</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D218" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>399</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D219" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>400</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D220" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>401</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D221" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>402</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D222" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>403</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D223" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>144</v>
       </c>
-      <c r="B192" t="s">
-        <v>374</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D192" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" t="s">
+      <c r="B224" t="s">
+        <v>404</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D224" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>145</v>
       </c>
-      <c r="B193" t="s">
-        <v>375</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D193" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="B194" t="s">
-        <v>376</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D194" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="B195" t="s">
-        <v>377</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D195" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="B196" t="s">
-        <v>378</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D196" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="B197" t="s">
-        <v>379</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D197" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="B198" t="s">
-        <v>380</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D198" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="B199" t="s">
-        <v>381</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D199" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="B200" t="s">
-        <v>382</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D200" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="B201" t="s">
-        <v>383</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D201" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="B202" t="s">
-        <v>384</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D202" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="B203" t="s">
-        <v>385</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D203" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="B204" t="s">
-        <v>386</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D204" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="B205" t="s">
-        <v>387</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D205" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="B206" t="s">
-        <v>388</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D206" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="B207" t="s">
-        <v>389</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D207" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="B208" t="s">
-        <v>390</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D208" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" t="s">
-        <v>391</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D209" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" t="s">
-        <v>392</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D210" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D211" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" t="s">
-        <v>394</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D212" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" t="s">
-        <v>395</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D213" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" t="s">
-        <v>396</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D214" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" t="s">
-        <v>397</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D215" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" t="s">
-        <v>398</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D216" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4">
-      <c r="B217" t="s">
-        <v>399</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D217" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4">
-      <c r="B218" t="s">
-        <v>400</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D218" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4">
-      <c r="B219" t="s">
-        <v>401</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D219" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4">
-      <c r="B220" t="s">
-        <v>402</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D220" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
-      <c r="B221" t="s">
-        <v>403</v>
-      </c>
-      <c r="C221" s="2" t="s">
+      <c r="B225" t="s">
+        <v>405</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D221" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
-      <c r="B222" t="s">
-        <v>404</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D222" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
-      <c r="B223" t="s">
-        <v>405</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="D223" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4">
-      <c r="B224" t="s">
-        <v>406</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D224" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="B225" t="s">
-        <v>407</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="D225" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>146</v>
       </c>
       <c r="B226" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D226" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>147</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D227" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>148</v>
       </c>
       <c r="B228" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D228" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>149</v>
       </c>
       <c r="B229" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D229" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>150</v>
       </c>
       <c r="B230" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D230" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>151</v>
       </c>
       <c r="B231" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D231" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>152</v>
       </c>
       <c r="B232" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D232" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>153</v>
       </c>
       <c r="B233" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D233" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>154</v>
       </c>
       <c r="B234" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D234" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>155</v>
       </c>
       <c r="B235" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D235" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>156</v>
       </c>
       <c r="B236" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D236" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>157</v>
       </c>
       <c r="B237" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D237" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>158</v>
       </c>
       <c r="B238" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D238" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>159</v>
       </c>
       <c r="B239" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D239" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>160</v>
       </c>
       <c r="B240" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D240" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>161</v>
       </c>
       <c r="B241" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D241" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>162</v>
       </c>
       <c r="B242" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D242" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>163</v>
       </c>
       <c r="B243" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D243" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>164</v>
       </c>
       <c r="B244" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D244" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>165</v>
       </c>
       <c r="B245" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D245" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D246" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>167</v>
       </c>
       <c r="B247" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D247" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>168</v>
       </c>
       <c r="B248" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D248" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>169</v>
       </c>
       <c r="B249" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D249" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>170</v>
       </c>
       <c r="B250" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D250" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>171</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D251" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>172</v>
       </c>
       <c r="B252" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D252" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>173</v>
       </c>
       <c r="B253" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D253" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>174</v>
       </c>
       <c r="B254" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D254" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>175</v>
       </c>
       <c r="B255" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D255" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>176</v>
       </c>
       <c r="B256" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D256" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>177</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D257" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>178</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D258" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>179</v>
       </c>
       <c r="B259" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D259" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>180</v>
       </c>
       <c r="B260" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D260" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>181</v>
       </c>
       <c r="B261" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D261" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" t="s">
-        <v>182</v>
-      </c>
-      <c r="B262" t="s">
-        <v>444</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D262" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="A263" t="s">
-        <v>183</v>
-      </c>
-      <c r="B263" t="s">
-        <v>445</v>
-      </c>
-      <c r="C263" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="D263" t="s">
-        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -6230,8 +6204,6 @@
     <hyperlink ref="C259" r:id="rId258"/>
     <hyperlink ref="C260" r:id="rId259"/>
     <hyperlink ref="C261" r:id="rId260"/>
-    <hyperlink ref="C262" r:id="rId261"/>
-    <hyperlink ref="C263" r:id="rId262"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c20460\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11100"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="714">
   <si>
     <t>ID</t>
   </si>
@@ -33,6 +28,9 @@
     <t>Site</t>
   </si>
   <si>
+    <t>60d5e0a7245f7d03d4402180</t>
+  </si>
+  <si>
     <t>619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -60,6 +58,9 @@
     <t>6197ba8b094e9f31181725c1</t>
   </si>
   <si>
+    <t>6171b558a1c87a7e6c50c3d7</t>
+  </si>
+  <si>
     <t>619e550e399c360c8d4fbb82</t>
   </si>
   <si>
@@ -717,6 +718,9 @@
     <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
   </si>
   <si>
+    <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
+  </si>
+  <si>
     <t>Baja Shrimp Tacos with Pineapple Salsa</t>
   </si>
   <si>
@@ -744,6 +748,9 @@
     <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
   </si>
   <si>
+    <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
+  </si>
+  <si>
     <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
   </si>
   <si>
@@ -1497,6 +1504,9 @@
     <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
   </si>
   <si>
@@ -1522,6 +1532,9 @@
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
@@ -2148,8 +2161,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2225,14 +2238,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2279,7 +2284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2311,10 +2316,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2346,7 +2350,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2522,19 +2525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D261"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="50.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2548,3398 +2546,3426 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D5" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D8" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D10" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D13" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D15" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D16" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D18" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D19" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D20" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D22" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D23" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D24" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D25" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D27" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D28" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D29" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D30" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D31" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D32" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D33" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D34" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D35" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D36" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D37" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D38" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D39" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D40" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D41" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D42" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D43" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D45" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D47" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D48" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="B49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D49" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="B50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D50" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="B51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D51" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D53" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D54" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D55" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D56" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D57" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D60" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D61" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D63" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D64" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D66" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D67" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D68" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D69" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D70" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D71" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D72" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>25</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D73" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D75" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D76" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D77" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D78" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D79" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D80" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D81" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D83" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>36</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D84" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>37</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D85" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D86" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D87" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D88" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>41</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D89" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D90" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D91" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>44</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D92" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D93" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D94" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D95" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D96" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D97" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>50</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D98" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D99" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D100" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D101" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D102" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D103" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D104" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D105" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D106" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D107" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D108" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D109" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D110" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D111" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>64</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D112" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D113" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>66</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D114" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>67</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D115" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>68</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D116" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D117" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D118" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>71</v>
       </c>
       <c r="B119" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D119" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D120" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>73</v>
       </c>
       <c r="B121" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D121" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>74</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D122" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>75</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D123" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>76</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D124" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>77</v>
       </c>
       <c r="B125" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D125" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>78</v>
       </c>
       <c r="B126" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D126" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D127" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>80</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D128" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D129" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D130" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D131" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>84</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D132" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>85</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D133" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>86</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D134" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>87</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D135" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>88</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D136" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>89</v>
       </c>
       <c r="B137" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D137" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>90</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D138" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>91</v>
       </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D139" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D140" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D141" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D142" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>95</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D143" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>96</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D144" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>97</v>
       </c>
       <c r="B145" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D145" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>98</v>
       </c>
       <c r="B146" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D146" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>99</v>
       </c>
       <c r="B147" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D147" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>100</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D148" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>101</v>
       </c>
       <c r="B149" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D149" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>102</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D150" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>103</v>
       </c>
       <c r="B151" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D151" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>104</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D152" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>105</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D153" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>106</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D154" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>107</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D155" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>108</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D156" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>109</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D157" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>110</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D158" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>111</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D159" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>112</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D160" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>113</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D161" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>114</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D162" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>115</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D163" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>116</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D164" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>117</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D165" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>118</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D166" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>119</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D167" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>120</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D168" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>121</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D169" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>122</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D170" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>123</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D171" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>124</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D172" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>125</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D173" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>126</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D174" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>127</v>
       </c>
       <c r="B175" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D175" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>128</v>
       </c>
       <c r="B176" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D176" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>129</v>
       </c>
       <c r="B177" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D177" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>130</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D178" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>131</v>
       </c>
       <c r="B179" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D179" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>132</v>
       </c>
       <c r="B180" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D180" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>133</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D181" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>134</v>
       </c>
       <c r="B182" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D182" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>135</v>
       </c>
       <c r="B183" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D183" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>136</v>
       </c>
       <c r="B184" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D184" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>137</v>
       </c>
       <c r="B185" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D185" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>138</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D186" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>139</v>
       </c>
       <c r="B187" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D187" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>140</v>
       </c>
       <c r="B188" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D188" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>141</v>
       </c>
       <c r="B189" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D189" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>142</v>
       </c>
       <c r="B190" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D190" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>143</v>
       </c>
       <c r="B191" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D191" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>144</v>
+      </c>
       <c r="B192" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D192" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>145</v>
+      </c>
       <c r="B193" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D193" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="B194" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D194" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="B195" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D195" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="B196" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D196" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="B197" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D197" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="B198" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D198" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="B199" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D199" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="B200" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D200" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="B201" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D201" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="B202" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D202" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="B203" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D203" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="B204" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D204" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="B205" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D205" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="B206" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D206" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="B207" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D207" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="B208" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D208" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
       <c r="B209" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D209" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
       <c r="B210" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D210" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
       <c r="B211" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D211" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
       <c r="B212" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D212" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
       <c r="B213" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D213" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
       <c r="B214" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D214" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
       <c r="B215" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D215" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
       <c r="B216" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D216" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D217" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
       <c r="B218" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D218" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
       <c r="B219" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D219" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
       <c r="B220" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D220" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
       <c r="B221" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D221" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
       <c r="B222" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D222" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
       <c r="B223" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D223" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>144</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
       <c r="B224" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D224" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>145</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="B225" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D225" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>146</v>
       </c>
       <c r="B226" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D226" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>147</v>
       </c>
       <c r="B227" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D227" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>148</v>
       </c>
       <c r="B228" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D228" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>149</v>
       </c>
       <c r="B229" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D229" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>150</v>
       </c>
       <c r="B230" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D230" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>151</v>
       </c>
       <c r="B231" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D231" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>152</v>
       </c>
       <c r="B232" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D232" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>153</v>
       </c>
       <c r="B233" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D233" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>154</v>
       </c>
       <c r="B234" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D234" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>155</v>
       </c>
       <c r="B235" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D235" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>156</v>
       </c>
       <c r="B236" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D236" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>157</v>
       </c>
       <c r="B237" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D237" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>158</v>
       </c>
       <c r="B238" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D238" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>159</v>
       </c>
       <c r="B239" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D239" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>160</v>
       </c>
       <c r="B240" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D240" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>161</v>
       </c>
       <c r="B241" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D241" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>162</v>
       </c>
       <c r="B242" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D242" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>163</v>
       </c>
       <c r="B243" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D243" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>164</v>
       </c>
       <c r="B244" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D244" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>165</v>
       </c>
       <c r="B245" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D245" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>166</v>
       </c>
       <c r="B246" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D246" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>167</v>
       </c>
       <c r="B247" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D247" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>168</v>
       </c>
       <c r="B248" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D248" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>169</v>
       </c>
       <c r="B249" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D249" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>170</v>
       </c>
       <c r="B250" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D250" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>171</v>
       </c>
       <c r="B251" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D251" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>172</v>
       </c>
       <c r="B252" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D252" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>173</v>
       </c>
       <c r="B253" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D253" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>174</v>
       </c>
       <c r="B254" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D254" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>175</v>
       </c>
       <c r="B255" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D255" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>176</v>
       </c>
       <c r="B256" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D256" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>177</v>
       </c>
       <c r="B257" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D257" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>178</v>
       </c>
       <c r="B258" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D258" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>179</v>
       </c>
       <c r="B259" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D259" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>180</v>
       </c>
       <c r="B260" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D260" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>181</v>
       </c>
       <c r="B261" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D261" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>182</v>
+      </c>
+      <c r="B262" t="s">
+        <v>444</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D262" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>183</v>
+      </c>
+      <c r="B263" t="s">
+        <v>445</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>707</v>
+      </c>
+      <c r="D263" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -6204,6 +6230,8 @@
     <hyperlink ref="C259" r:id="rId258"/>
     <hyperlink ref="C260" r:id="rId259"/>
     <hyperlink ref="C261" r:id="rId260"/>
+    <hyperlink ref="C262" r:id="rId261"/>
+    <hyperlink ref="C263" r:id="rId262"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/Recipes/Recipes.xlsx
+++ b/code/Recipes/Recipes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1160">
   <si>
     <t>ID</t>
   </si>
@@ -28,15 +28,27 @@
     <t>Site</t>
   </si>
   <si>
+    <t>61168ac6fabe8d0d893ce622</t>
+  </si>
+  <si>
     <t>60d5e0a7245f7d03d4402180</t>
   </si>
   <si>
     <t>619e4a8baf05be11d064a137</t>
   </si>
   <si>
+    <t>61aa4b734e4088026d45e46d</t>
+  </si>
+  <si>
+    <t>61a9429c39bd6e2c980a546e</t>
+  </si>
+  <si>
     <t>619e556ea1430503f13eeb02</t>
   </si>
   <si>
+    <t>61aa4d3f9bd7661d646a826a</t>
+  </si>
+  <si>
     <t>6197cfde57e8d2215070afd3</t>
   </si>
   <si>
@@ -52,18 +64,36 @@
     <t>619e54d1da11ff0b564f2d92</t>
   </si>
   <si>
+    <t>61a941d7c0203b3eb47655f0</t>
+  </si>
+  <si>
+    <t>61aa4badd7116e2ce86b8152</t>
+  </si>
+  <si>
     <t>6197cff2fce7c231035ca2e0</t>
   </si>
   <si>
     <t>6197ba8b094e9f31181725c1</t>
   </si>
   <si>
+    <t>61a94323b9e06967544df356</t>
+  </si>
+  <si>
     <t>6171b558a1c87a7e6c50c3d7</t>
   </si>
   <si>
     <t>619e550e399c360c8d4fbb82</t>
   </si>
   <si>
+    <t>61a9412939bd6e2c980a546a</t>
+  </si>
+  <si>
+    <t>61a942530abe937ffe5c2e07</t>
+  </si>
+  <si>
+    <t>61aa4c2558768c1dc8644f42</t>
+  </si>
+  <si>
     <t>6197b86d4310ff3559187192</t>
   </si>
   <si>
@@ -100,6 +130,9 @@
     <t>619e5410440e87540e386f6f</t>
   </si>
   <si>
+    <t>61a9435be220e51bc5740b19</t>
+  </si>
+  <si>
     <t>619e54895754da49c63a77f2</t>
   </si>
   <si>
@@ -109,6 +142,15 @@
     <t>619e4896446df24e7560b35d</t>
   </si>
   <si>
+    <t>61a942c679ca9c035048980f</t>
+  </si>
+  <si>
+    <t>61aa4c6106420e3f8c089db2</t>
+  </si>
+  <si>
+    <t>61a9427659ca8e68932c9284</t>
+  </si>
+  <si>
     <t>6197ba057601ed24791385c7</t>
   </si>
   <si>
@@ -118,6 +160,9 @@
     <t>6197b940772e7c4b583cd50a</t>
   </si>
   <si>
+    <t>61a942dd361179347a2488ef</t>
+  </si>
+  <si>
     <t>6197bab806397d0841399d11</t>
   </si>
   <si>
@@ -130,12 +175,27 @@
     <t>6197cf9c8cb33d0257217de4</t>
   </si>
   <si>
+    <t>61a943051265154bb3779925</t>
+  </si>
+  <si>
+    <t>61aa4d7e3de1e6563e1d5d92</t>
+  </si>
+  <si>
     <t>6197b7bdcb4de65cec4b6b05</t>
   </si>
   <si>
     <t>619e4919dbb57840b03afa99</t>
   </si>
   <si>
+    <t>61a942390c1c3561f95a36f4</t>
+  </si>
+  <si>
+    <t>61aa4c0262b8d06a8f748722</t>
+  </si>
+  <si>
+    <t>61a941b5ed93fb219e675b43</t>
+  </si>
+  <si>
     <t>619e48f390cc600b712d5ef7</t>
   </si>
   <si>
@@ -145,9 +205,24 @@
     <t>619e48d473610a461673dc39</t>
   </si>
   <si>
+    <t>61a942104b19bf34b159c71d</t>
+  </si>
+  <si>
+    <t>61aa4cc1cecd7142ea5e8642</t>
+  </si>
+  <si>
+    <t>61a9433ab6c6280f4f5e5f3e</t>
+  </si>
+  <si>
     <t>6197baaa64e40b505d2b4f2d</t>
   </si>
   <si>
+    <t>61a9416855c931160400385e</t>
+  </si>
+  <si>
+    <t>61aa4b1faddd756b685a2a0a</t>
+  </si>
+  <si>
     <t>619e5454dbb57840b03afa9e</t>
   </si>
   <si>
@@ -181,21 +256,48 @@
     <t>6197b62ccea5f944cc746674</t>
   </si>
   <si>
+    <t>61a9434491e93f72fe494b56</t>
+  </si>
+  <si>
     <t>619e49555343ce59b7723ab2</t>
   </si>
   <si>
+    <t>61a9434fd8899d65930d1610</t>
+  </si>
+  <si>
     <t>616d895fdd5f077890039780</t>
   </si>
   <si>
     <t>61769b2a0315c044e06863df</t>
   </si>
   <si>
+    <t>60aadee8e02aba451178ee97</t>
+  </si>
+  <si>
+    <t>617ffcc2c801b30a1473bd5d</t>
+  </si>
+  <si>
     <t>60d9f4acca1acb34fb5c8422</t>
   </si>
   <si>
+    <t>5fbd57a7590d225e551a6e36</t>
+  </si>
+  <si>
+    <t>610e4523e5bfd521750aa3a4</t>
+  </si>
+  <si>
+    <t>617ffcc4c801b30a1473bd61</t>
+  </si>
+  <si>
+    <t>617ffcc200dea46eb1211650</t>
+  </si>
+  <si>
     <t>5fbd44f6cf4d133a4b2c316e</t>
   </si>
   <si>
+    <t>60a4d059b42f4e2fe41bdfa0</t>
+  </si>
+  <si>
     <t>616d895c4fd43275cb51893f</t>
   </si>
   <si>
@@ -223,15 +325,30 @@
     <t>61769b2fee7cf3008c6cef08</t>
   </si>
   <si>
+    <t>617ffcc31a01f7758c783cde</t>
+  </si>
+  <si>
     <t>601d8d0e5df88101fa189b5c</t>
   </si>
   <si>
+    <t>5fbd44f60a041608574a59a5</t>
+  </si>
+  <si>
+    <t>617ffcad7479a977794944c9</t>
+  </si>
+  <si>
     <t>60c747b1e3218921147f2c82</t>
   </si>
   <si>
+    <t>601d8d1a001106080e0a4aa1</t>
+  </si>
+  <si>
     <t>61769b2c4b246d756505ca39</t>
   </si>
   <si>
+    <t>617ffcc0f5ce18271f6b2ceb</t>
+  </si>
+  <si>
     <t>60589af6876ba841f72d150c</t>
   </si>
   <si>
@@ -262,6 +379,12 @@
     <t>618be6c201a4b9188534698a</t>
   </si>
   <si>
+    <t>619559b23d44694ee15152cf</t>
+  </si>
+  <si>
+    <t>61952a6c34421e12a24ff1bc</t>
+  </si>
+  <si>
     <t>618be5dcc20ba564414b672c</t>
   </si>
   <si>
@@ -280,24 +403,60 @@
     <t>618a9199393fbc6c437c882d</t>
   </si>
   <si>
+    <t>61952a8186e5c11f6520a7f0</t>
+  </si>
+  <si>
     <t>618be7819ba8382bd2141863</t>
   </si>
   <si>
     <t>6182a10af281107a3002b30a</t>
   </si>
   <si>
+    <t>6195293cf72c906e14510a1a</t>
+  </si>
+  <si>
+    <t>61952972fe59410495283828</t>
+  </si>
+  <si>
     <t>6182a04ec95316759040d54c</t>
   </si>
   <si>
+    <t>619529027d68f737b70b1828</t>
+  </si>
+  <si>
+    <t>6195590bf72c906e14510a46</t>
+  </si>
+  <si>
     <t>618be4c6f342f67f6631aaec</t>
   </si>
   <si>
+    <t>619528c957acc614ec7ab0df</t>
+  </si>
+  <si>
+    <t>61952aff8a2dcd5b963bfc69</t>
+  </si>
+  <si>
+    <t>6195595298529f7a49198e97</t>
+  </si>
+  <si>
+    <t>619527b42451582bb62a4930</t>
+  </si>
+  <si>
     <t>618be6e84ae2420eda7a2f67</t>
   </si>
   <si>
     <t>618c0c20fc022451f64a5401</t>
   </si>
   <si>
+    <t>619528879f352019af64e9a2</t>
+  </si>
+  <si>
+    <t>61952910ab560b4c78562481</t>
+  </si>
+  <si>
+    <t>619526ea2af12e712829b302</t>
+  </si>
+  <si>
     <t>6182d5a67f8d0a023b1a3310</t>
   </si>
   <si>
@@ -307,6 +466,12 @@
     <t>61829f3815e1b62d22600abd</t>
   </si>
   <si>
+    <t>6195596636d36c7bd666d328</t>
+  </si>
+  <si>
+    <t>619528037b708d76b82fa813</t>
+  </si>
+  <si>
     <t>618be46578a663604c256b2a</t>
   </si>
   <si>
@@ -319,6 +484,9 @@
     <t>61829fc4c55f6460c95561fb</t>
   </si>
   <si>
+    <t>61952a107837f62d41040079</t>
+  </si>
+  <si>
     <t>6182a0c2505c1933651c3471</t>
   </si>
   <si>
@@ -367,6 +535,12 @@
     <t>618c0becd2f94942bd131de3</t>
   </si>
   <si>
+    <t>61952a3757c45c7edd3ae6e2</t>
+  </si>
+  <si>
+    <t>61952aac1e429c3c246b4c40</t>
+  </si>
+  <si>
     <t>618be753870d1c3f904f2562</t>
   </si>
   <si>
@@ -388,9 +562,18 @@
     <t>6182a00694132c702a5fcb3c</t>
   </si>
   <si>
+    <t>61952ae1e855fb278a35edae</t>
+  </si>
+  <si>
+    <t>61955994fe59410495283871</t>
+  </si>
+  <si>
     <t>6182d550f281107a3002b32d</t>
   </si>
   <si>
+    <t>6195285abeaa625a39572a3c</t>
+  </si>
+  <si>
     <t>618be7ce063b40104007f991</t>
   </si>
   <si>
@@ -409,9 +592,24 @@
     <t>618be7302ff9ae5c026441d2</t>
   </si>
   <si>
+    <t>61952739c5bcf8359c7c75a9</t>
+  </si>
+  <si>
+    <t>619559809692c65e43464ffd</t>
+  </si>
+  <si>
+    <t>6195283028ba344bdb109390</t>
+  </si>
+  <si>
     <t>61829ef92ad9000e3b24e3e6</t>
   </si>
   <si>
+    <t>6195275f62a6d036c14fa1d5</t>
+  </si>
+  <si>
+    <t>619559272534af709130ac62</t>
+  </si>
+  <si>
     <t>618be5fe9d413e2d3129d11f</t>
   </si>
   <si>
@@ -451,18 +649,42 @@
     <t>618be4f6e8b61739d04ab72f</t>
   </si>
   <si>
+    <t>61952789fd27fb1eda396688</t>
+  </si>
+  <si>
+    <t>6195593d7837f62d410400c7</t>
+  </si>
+  <si>
+    <t>61952b11e28fc13f6049f13b</t>
+  </si>
+  <si>
+    <t>619527e90e3afa39de1ac86e</t>
+  </si>
+  <si>
+    <t>61952711ab560b4c78562473</t>
+  </si>
+  <si>
     <t>61829fe618f21856d4018d64</t>
   </si>
   <si>
     <t>V395</t>
   </si>
   <si>
+    <t>S371</t>
+  </si>
+  <si>
     <t>S394</t>
   </si>
   <si>
+    <t>V351</t>
+  </si>
+  <si>
     <t>J138</t>
   </si>
   <si>
+    <t>J215</t>
+  </si>
+  <si>
     <t>J276</t>
   </si>
   <si>
@@ -472,9 +694,21 @@
     <t>J268</t>
   </si>
   <si>
+    <t>B117</t>
+  </si>
+  <si>
     <t>G151</t>
   </si>
   <si>
+    <t>J246</t>
+  </si>
+  <si>
+    <t>V374</t>
+  </si>
+  <si>
+    <t>J262</t>
+  </si>
+  <si>
     <t>Q005</t>
   </si>
   <si>
@@ -490,36 +724,90 @@
     <t>F051</t>
   </si>
   <si>
+    <t>J096</t>
+  </si>
+  <si>
+    <t>J203</t>
+  </si>
+  <si>
+    <t>J271</t>
+  </si>
+  <si>
+    <t>J134</t>
+  </si>
+  <si>
     <t>J190</t>
   </si>
   <si>
+    <t>S340</t>
+  </si>
+  <si>
     <t>P216</t>
   </si>
   <si>
+    <t>J127</t>
+  </si>
+  <si>
+    <t>P080</t>
+  </si>
+  <si>
     <t>B156</t>
   </si>
   <si>
+    <t>J210</t>
+  </si>
+  <si>
+    <t>F378</t>
+  </si>
+  <si>
     <t>J211</t>
   </si>
   <si>
+    <t>B169</t>
+  </si>
+  <si>
     <t>J187</t>
   </si>
   <si>
+    <t>F425</t>
+  </si>
+  <si>
     <t>F448</t>
   </si>
   <si>
     <t>F223</t>
   </si>
   <si>
+    <t>J162</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>J273</t>
+  </si>
+  <si>
+    <t>G145</t>
+  </si>
+  <si>
     <t>P123</t>
   </si>
   <si>
     <t>V368</t>
   </si>
   <si>
+    <t>J206</t>
+  </si>
+  <si>
     <t>J219</t>
   </si>
   <si>
+    <t>J243</t>
+  </si>
+  <si>
+    <t>F053</t>
+  </si>
+  <si>
     <t>J116</t>
   </si>
   <si>
@@ -529,21 +817,48 @@
     <t>J275</t>
   </si>
   <si>
+    <t>J267</t>
+  </si>
+  <si>
     <t>J105</t>
   </si>
   <si>
+    <t>J153</t>
+  </si>
+  <si>
     <t>J125</t>
   </si>
   <si>
     <t>S105</t>
   </si>
   <si>
+    <t>J143</t>
+  </si>
+  <si>
     <t>J213</t>
   </si>
   <si>
+    <t>J212</t>
+  </si>
+  <si>
+    <t>J131</t>
+  </si>
+  <si>
+    <t>J112</t>
+  </si>
+  <si>
+    <t>J189</t>
+  </si>
+  <si>
+    <t>J188</t>
+  </si>
+  <si>
     <t>J163</t>
   </si>
   <si>
+    <t>B107</t>
+  </si>
+  <si>
     <t>B181</t>
   </si>
   <si>
@@ -559,6 +874,9 @@
     <t>G203</t>
   </si>
   <si>
+    <t>F398</t>
+  </si>
+  <si>
     <t>J135</t>
   </si>
   <si>
@@ -568,18 +886,42 @@
     <t>J197</t>
   </si>
   <si>
+    <t>J130</t>
+  </si>
+  <si>
+    <t>S344</t>
+  </si>
+  <si>
+    <t>J141</t>
+  </si>
+  <si>
+    <t>G199</t>
+  </si>
+  <si>
     <t>Baked Egg &amp; Potato Hash with Kale, Cheddar &amp; Hot Sauce</t>
   </si>
   <si>
     <t>Basil Pesto Gnocchi with Mushrooms &amp; Pistachio Breadcrumbs</t>
   </si>
   <si>
+    <t>Beef over Curry-Spiced Rice with Creamy Cilantro Sauce</t>
+  </si>
+  <si>
     <t>Blackened Cajun Burger with Roasted Sweet Potatoes &amp; Spicy Ketchup</t>
   </si>
   <si>
     <t>Calabrian Honey Chicken with Gnocchi &amp; Roasted Broccoli</t>
   </si>
   <si>
+    <t>Calabrian Shrimp &amp; Orzo with Zucchini &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Caramelized Onion Grilled Cheese with Butter Lettuce Salad &amp; Creamy Mustard Dressing</t>
+  </si>
+  <si>
+    <t>Cheesy Truffle &amp; Mushroom Crostini with Chives</t>
+  </si>
+  <si>
     <t>Chicken &amp; Farro Grain Bowl with Arugula &amp; Roasted Vegetables</t>
   </si>
   <si>
@@ -610,30 +952,51 @@
     <t>Family Meal Prep Bundle with Chicken &amp; Pork</t>
   </si>
   <si>
+    <t>Fennel &amp; Onion Pizza with Fried Rosemary</t>
+  </si>
+  <si>
     <t>Feta-Stuffed Burgers with Tzatziki &amp; Oregano Potatoes</t>
   </si>
   <si>
     <t>Fresh Basil Fettuccine Pasta with Zucchini, Tomatoes &amp; Parmesan</t>
   </si>
   <si>
+    <t>Fried Egg &amp; White Cheddar Burgers with Roasted Fingerling Potatoes</t>
+  </si>
+  <si>
     <t>Glazed Beef &amp; Crispy Rice with Sautéed Green Beans &amp; Peppers</t>
   </si>
   <si>
+    <t>Greek Chicken &amp; Carrots with Sautéed Kale, Raisins &amp; Feta Cheese</t>
+  </si>
+  <si>
     <t>Greek-Style Veggie Pitas with Lemon-Dressed Broccoli</t>
   </si>
   <si>
     <t>Guajillo Chicken Tacos with Cheesy Roasted Potatoes</t>
   </si>
   <si>
+    <t>Hoisin-Glazed Pork Meatloaf with Sesame Mashed Potatoes &amp; Bok Choy</t>
+  </si>
+  <si>
+    <t>Hot Honey Chicken with Rosemary &amp; Cipolline Onion Panzanella</t>
+  </si>
+  <si>
     <t>Lemon-Caper Tilapia with Orzo, Zucchini &amp; Peppers</t>
   </si>
   <si>
+    <t>Middle Eastern Baked Chicken Thighs &amp; Rice with Chickpeas &amp; Yogurt</t>
+  </si>
+  <si>
     <t>Miso-Ponzu Beyond Burger™ with Sesame Shishitos &amp; Mushrooms</t>
   </si>
   <si>
     <t>Olive &amp; Feta Cheese Pizza with Spicy Tomato Sauce</t>
   </si>
   <si>
+    <t>Orange Beef Lo Mein with Bok Choy &amp; Sesame Seeds</t>
+  </si>
+  <si>
     <t>Orange Tofu &amp; Brown Rice with Sweet Peppers, Kohlrabi &amp; Cashews</t>
   </si>
   <si>
@@ -643,6 +1006,12 @@
     <t>Pan-Seared Duck Breasts with Crispy Duck Fat Rice &amp; Sesame-Ginger Arugula Salad</t>
   </si>
   <si>
+    <t>Parmesan Knots with Parsley &amp; Tomato Sauce</t>
+  </si>
+  <si>
+    <t>Pork &amp; Vegetable Lo Mein with Furikake</t>
+  </si>
+  <si>
     <t>Pork Chorizo Meatballs &amp; Poblano Rice with Chipotle-Peanut Sauce</t>
   </si>
   <si>
@@ -652,12 +1021,30 @@
     <t>Roasted Cauliflower &amp; Lentil Salad with Jalapeño Vinaigrette &amp; Creamy Salsa Verde</t>
   </si>
   <si>
+    <t>Roasted Red Pepper Pasta with Broccoli &amp; Parmesan Cheese</t>
+  </si>
+  <si>
     <t>Seafood Trio Salmon, Shrimp &amp; Scallops</t>
   </si>
   <si>
+    <t>Seared Chicken &amp; Creamy Italian Dressing with Mashed Potatoes &amp; Glazed Vegetables</t>
+  </si>
+  <si>
     <t>Seared Chicken &amp; Persimmon Pan Sauce with Cheddar Biscuits &amp; Spiced Honey Butter</t>
   </si>
   <si>
+    <t>Seared Salmon &amp; Sweet Chili Glaze with Aromatic Rice &amp; Sautéed Vegetables</t>
+  </si>
+  <si>
+    <t>Seared Scallop &amp; Pancetta Fettuccine with Roasted Vegetables, Ricotta &amp; Pistachios</t>
+  </si>
+  <si>
+    <t>Seared Scallops &amp; Bucatini with Roasted Vegetables, Ricotta &amp; Pistachios</t>
+  </si>
+  <si>
+    <t>Seared Steaks &amp; Fried Rosemary with Mashed Potatoes &amp; Sherry-Butter Pan Sauce</t>
+  </si>
+  <si>
     <t>Seared Steaks &amp; Homemade Steak Sauce with Mashed Potatoes &amp; Sautéed Carrots</t>
   </si>
   <si>
@@ -673,6 +1060,12 @@
     <t>Sheet Pan Pesto Salmon with a Roasted Vegetable Medley</t>
   </si>
   <si>
+    <t>Southwest-Style Turkey Skillet with Tomatillo-Poblano Sauce, Black Beans &amp; Creamy Guacamole</t>
+  </si>
+  <si>
+    <t>Spanish-Spiced Salmon &amp; Veggie Quinoa with Almond-Date Topping</t>
+  </si>
+  <si>
     <t>Specialty Selection NY Strip Steaks, Scallops &amp; Prime Ground Beef</t>
   </si>
   <si>
@@ -691,6 +1084,9 @@
     <t>Surf &amp; Turf Steaks, Chicken, Salmon &amp; Shrimp</t>
   </si>
   <si>
+    <t>Sweet &amp; Spicy Chicken Stir-Fry with Rice &amp; Bok Choy</t>
+  </si>
+  <si>
     <t>Sweet &amp; Spicy Salmon with Green Beans, Bell Pepper &amp; White Rice</t>
   </si>
   <si>
@@ -709,24 +1105,42 @@
     <t>Tomato-Coconut Cod Curry with White Rice &amp; Marinated Vegetables</t>
   </si>
   <si>
+    <t>Weeknight Favorites Chicken, Ribeye Steak, Italian Sausage &amp; Ground Beef</t>
+  </si>
+  <si>
     <t>Wellness Meal Prep Bundle with Chicken &amp; Salmon</t>
   </si>
   <si>
     <t>Wellness Meal Prep Bundle with Pork &amp; Chicken</t>
   </si>
   <si>
+    <t>Za’atar White Bean &amp; Rice Bowls with Carrots, Sweet Peppers &amp; Marinated Feta</t>
+  </si>
+  <si>
     <t>Zesty Pork Chorizo Tacos with Lime Mayo &amp; Garlic-Cotija Potatoes</t>
   </si>
   <si>
+    <t>4 Chicken Breasts + 2 Ranch Steaks 2 Servings Plan: 4 (5 oz) Chicken Breasts &amp; 2 (5 oz) Ranch Steaks</t>
+  </si>
+  <si>
     <t>6 Chicken Breasts 2 Servings Plan: 6 (5 oz) Chicken Breasts</t>
   </si>
   <si>
     <t>Baja Shrimp Tacos with Pineapple Salsa</t>
   </si>
   <si>
+    <t>Beef &amp; Poblano Tacos with Pico de Gallo &amp; Garlicky Sour Cream</t>
+  </si>
+  <si>
+    <t>Beef &amp; Rice Fiesta Skillet with Pickled Onion &amp; Zesty Crema</t>
+  </si>
+  <si>
     <t>Beef Chili Loaded Sweet Potatoes with Pepper Jack &amp; Southwest Crema</t>
   </si>
   <si>
+    <t>Beef Flautas with Pickled Onion &amp; Sour Cream</t>
+  </si>
+  <si>
     <t>Beef, Sweet Potato &amp; Black Bean Stew with Monterey Jack &amp; Jalapeño</t>
   </si>
   <si>
@@ -742,18 +1156,36 @@
     <t>Cajun Shrimp Linguine with Monterey Jack</t>
   </si>
   <si>
+    <t>Caramelized Zucchini Linguine with Lemony Parmesan Cream Sauce</t>
+  </si>
+  <si>
+    <t>Caramelized Zucchini Linguine with Shrimp and Lemony Parmesan Cream Sauce</t>
+  </si>
+  <si>
     <t>Cheese-tastic Southwestern Hash with Bacon, Peppers, Sour Cream &amp; a Fried Egg</t>
   </si>
   <si>
     <t>Cheese-tastic Southwestern Hash with Peppers, Sour Cream &amp; a Fried Egg</t>
   </si>
   <si>
+    <t>Cheesy Corn Bisque with Garlic Bread</t>
+  </si>
+  <si>
     <t>Chicken Breasts, Ground Beef + Chicken Sausage Mix 2 Servings Plan: 2 (5 oz) Chicken Breasts, 10 oz Ground Beef + 9 oz Chicken Sausage Mix</t>
   </si>
   <si>
     <t>Chicken Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
   </si>
   <si>
+    <t>Chicken Sausage Linguine with Long Green Pepper &amp; Parmesan</t>
+  </si>
+  <si>
+    <t>Chicken Scallopini in Lemon Cream Sauce with Zucchini &amp; Potatoes</t>
+  </si>
+  <si>
+    <t>Chicken Scallopini in Lemon Cream with Brussels Sprouts &amp; Potatoes</t>
+  </si>
+  <si>
     <t>Cowboy Skillet Pie with Poblano &amp; Jalapeño</t>
   </si>
   <si>
@@ -790,6 +1222,9 @@
     <t>Griddled Onion Burgers with Creamy Dijon Aioli &amp; Sweet Potato Frites</t>
   </si>
   <si>
+    <t>Guacamole Burgers with Crispy Chorizo Potatoes &amp; Cumin Lime Crema</t>
+  </si>
+  <si>
     <t>Harissa Chickpea Bowls with Salmon plus Couscous, Creamy Avocado Dressing &amp; Cilantro</t>
   </si>
   <si>
@@ -799,6 +1234,15 @@
     <t>Herb Butter Steak with Roasted Brussels Sprouts &amp; Cheesy Potatoes</t>
   </si>
   <si>
+    <t>Honey Dill Chickpea Bowls with Israeli Salad &amp; Couscous Pilaf</t>
+  </si>
+  <si>
+    <t>Honey Ginger Chicken Breasts with Sesame Roasted Carrots &amp; Scallion Rice</t>
+  </si>
+  <si>
+    <t>Honey Ginger Pork Chops with Sesame Roasted Carrots &amp; Scallion Rice</t>
+  </si>
+  <si>
     <t>Lemon Butter Barramundi a Light, Flaky, Buttery Fish with Carrots &amp; Rice</t>
   </si>
   <si>
@@ -808,6 +1252,9 @@
     <t>Lemon Chive Chicken Legs with Garlic Mashed Potatoes &amp; Schmaltzy Carrots</t>
   </si>
   <si>
+    <t>Lemon Garlic Shrimp over Creamy Parmesan Risotto</t>
+  </si>
+  <si>
     <t>Lemon Herb Risotto With Chicken and Tomato-Bacon Jam</t>
   </si>
   <si>
@@ -820,12 +1267,27 @@
     <t>Mediterranean Veggie Sandwiches with Feta, Creamy Hummus &amp; Sweet Potato Wedges</t>
   </si>
   <si>
+    <t>Melty Mozz, Tomato Jam &amp; Zucchini Panini with Herby Potato Wedges &amp; Balsamic Ketchup</t>
+  </si>
+  <si>
+    <t>Melty Mozz, Tomato Jam &amp; Zucchini Panini with Herby Sweet Potato Wedges &amp; Balsamic Ketchup</t>
+  </si>
+  <si>
     <t>Peanut Chicken Stir-Fry Bowls with Garlic Rice &amp; Pickled Cucumber Salad</t>
   </si>
   <si>
     <t>Ponzu Chili Steak Bowls with Garlic Ginger Rice, Snap Peas &amp; Chili Mayo</t>
   </si>
   <si>
+    <t>Ponzu Punch Chicken Stir-Fry with Garlic Rice &amp; Special Spicy Sauce</t>
+  </si>
+  <si>
+    <t>Ponzu Punch Shrimp Stir-Fry with Garlic Rice &amp; Special Spicy Sauce</t>
+  </si>
+  <si>
+    <t>Pork &amp; Poblano Tacos with Pico de Gallo &amp; Garlicky Sour Cream</t>
+  </si>
+  <si>
     <t>Pork Chili Loaded Sweet Potatoes with Pepper Jack &amp; Southwest Crema</t>
   </si>
   <si>
@@ -835,9 +1297,24 @@
     <t>Pork Sausage &amp; Pepper Penne in a Creamy Pink Sauce</t>
   </si>
   <si>
+    <t>Roasted Garlic Dijon Butter Steak with Brussels Sprouts &amp; Mashed Sweet Potatoes</t>
+  </si>
+  <si>
+    <t>Sesame Chicken Rice Bowls with Creamy Slaw &amp; Spicy May</t>
+  </si>
+  <si>
+    <t>Sesame Pork Rice Bowls with Creamy Slaw &amp; Spicy May</t>
+  </si>
+  <si>
     <t>Shallot &amp; Snap Pea Flatbreads with Peppery Cream Sauce</t>
   </si>
   <si>
+    <t>Smothered &amp; Stuffed Meatloaves with Potato Wedges</t>
+  </si>
+  <si>
+    <t>Smothered &amp; Stuffed Meatloaves with Sweet Potato Wedges</t>
+  </si>
+  <si>
     <t>Southwest Beef Flautas with Zesty Crema &amp; Pico de Gallo</t>
   </si>
   <si>
@@ -871,21 +1348,48 @@
     <t>Sweet ’n’ Tangy Cherry Meatballs with Roasted Zucchini &amp; Garlic Mashed Potatoes</t>
   </si>
   <si>
+    <t>Turkey Flautas with Pickled Onion &amp; Sour Cream</t>
+  </si>
+  <si>
     <t>Turkey Shepherd's Pie topped with Garlic Mashed Potatoes</t>
   </si>
   <si>
+    <t>Tuscan White Bean Couscous Skillet with Garlic Bread</t>
+  </si>
+  <si>
     <t>APRICOT-GLAZED PORK MEATBALLS pearl couscous, kale salad with radishes, carrots &amp; pistachios</t>
   </si>
   <si>
     <t>BARRAMUNDI WITH CHIPOTLE LIME AÏOLI kale, mangos, cabbage, carrots, almonds</t>
   </si>
   <si>
+    <t>BBQ CHICKEN SANDWICHES WITH CREAMY SLAW ciabattas, caramelized onion, sharp cheddar cheese</t>
+  </si>
+  <si>
+    <t>BEEF BURGERS WITH TOMATO SHALLOT AÏOLI mozzarella, roasted potato wedges</t>
+  </si>
+  <si>
     <t>BEEF TENDERLOIN WITH BROWN BUTTER CARROTS garlicky broccoli, Worcestershire sauce</t>
   </si>
   <si>
+    <t>BLACK BEAN &amp; CORN QUESADILLAS rice with roasted tomatoes, spiced cilantro-lime crema</t>
+  </si>
+  <si>
+    <t>BLACKENED TILAPIA chipotle aïoli with lime, roasted veggies, pepitas, guacamole</t>
+  </si>
+  <si>
+    <t>CAJUN CHICKEN &amp; CREAMY KALE WITH BACON sautéed squash &amp; bell pepper, Creole Dijonnaise, pecans</t>
+  </si>
+  <si>
+    <t>CHICKEN &amp; BROCCOLI BOWLS kale, pickled radish &amp; carrots, spicy ginger-lime aïoli</t>
+  </si>
+  <si>
     <t>CHICKEN WITH CREAMY LEMON SAUCE sautéed squash, Brussels sprouts, hazelnuts</t>
   </si>
   <si>
+    <t>CHIMICHURRI BEEF STUFFED PEPPERS guacamole rice with tomato, roasted corn, cotija cheese</t>
+  </si>
+  <si>
     <t>CREAMY CHICKEN &amp; POTATO SOUP corn, roasted red peppers, sharp cheddar cheese, chives</t>
   </si>
   <si>
@@ -913,15 +1417,30 @@
     <t>KIDNEY BEAN BURGERS roasted potatoes, cabbage slaw with cotija, paprika-Dijon aïoli</t>
   </si>
   <si>
+    <t>LEMON-HERB SHRIMP BOWLS red bell pepper, cabbage, Parmesan, toasted walnuts</t>
+  </si>
+  <si>
     <t>MEDITERRANEAN-STYLE CHICKEN SALAD kale, sautéed yellow squash, gremolata, lemon aïoli</t>
   </si>
   <si>
+    <t>PESTO CAPRESE SANDWICHES balsamic kale salad with apple &amp; toasted walnuts</t>
+  </si>
+  <si>
+    <t>PORK WITH APPLES &amp; RAISINS smoky roasted sweet potatoes, sautéed garlicky broccoli</t>
+  </si>
+  <si>
     <t>ROASTED CHICKPEA &amp; CARROT BOWLS kale, rice with dates &amp; feta, creamy turmeric-spiced vinaigrette</t>
   </si>
   <si>
+    <t>ROASTED SWEET POTATO FARRO BOWLS chickpeas, kale, feta, pistachios, turmeric ginger vinaigrette</t>
+  </si>
+  <si>
     <t>SALMON WITH CREAMY DILL SAUCE kale salad with tomato, cabbage, olives &amp; dates</t>
   </si>
   <si>
+    <t>SALMON WITH RED PEPPER VINAIGRETTE broccoli puttanesca with tomato, Kalamata olives &amp; capers</t>
+  </si>
+  <si>
     <t>SPICED BEEF &amp; CAULIFLOWER “RICE” roasted carrots, roasted almonds, lemon-scallion crema</t>
   </si>
   <si>
@@ -952,6 +1471,12 @@
     <t>Al Pastor Pico Pork with Zesty Lime Rice &amp; Smoky Red Pepper Crema</t>
   </si>
   <si>
+    <t>BBQ Chickpea Spinach Salad with Chicken with Ranch Dressing &amp; Avocado</t>
+  </si>
+  <si>
+    <t>BBQ Chickpea Spinach Salad with Ranch Dressing &amp; Avocado</t>
+  </si>
+  <si>
     <t>Bacon Buckaroo Burgers with BBQ Caramelized Onion &amp; Cheesy Roasted Potatoes</t>
   </si>
   <si>
@@ -970,24 +1495,60 @@
     <t>Black Bean &amp; Charred Corn Burrito Bowls with Blue Corn Tortilla Chips &amp; Tomato Salsa</t>
   </si>
   <si>
+    <t>Blue Corn Tortilla Skillet with Eggs, Black Beans, Lime Crema, Pickled Onion &amp; Pepper Jack</t>
+  </si>
+  <si>
     <t>Brocc Out Gouda Melts with Caramelized Onion, Potato Wedges &amp; Honey Dijon Mayo</t>
   </si>
   <si>
     <t>Butter-Basted Chicken with Candied Bacon Brussels Sprouts &amp; Mashed Potatoes</t>
   </si>
   <si>
+    <t>Cherry Balsamic Bavette Steak with Herby Fingerling Potatoes &amp; Roasted Brussels Sprouts</t>
+  </si>
+  <si>
+    <t>Chicken Penne Limone with Zucchini, Toasted Garlic &amp; Fresh Herbs</t>
+  </si>
+  <si>
     <t>Chicken Ramen in a Shoyu-Style Broth with Carrots, Chili Garlic Oil &amp; Crispy Onions</t>
   </si>
   <si>
+    <t>Chicken Sausage &amp; Bell Pepper Gnocchi with Parmesan Cream Sauce</t>
+  </si>
+  <si>
+    <t>Chicken Sausage &amp; Bell Pepper Pasta with Creamy Parmesan Garlic Tomato Sauce</t>
+  </si>
+  <si>
     <t>Chicken Sausage Rigatoni in a Creamy Pink Sauce with Bell Pepper &amp; Parmesan</t>
   </si>
   <si>
+    <t>Chimichurri Barramundi with Lemony Carrots &amp; Garlic Couscous</t>
+  </si>
+  <si>
+    <t>Chophouse-Style Chicken Cutlets with Shallot Sauce, Roasted Squash &amp; Lemony Green Beans</t>
+  </si>
+  <si>
+    <t>Creamy Lemon Butter Bavette Steak with Parmesan Zucchini Rounds &amp; Scallion Couscous</t>
+  </si>
+  <si>
+    <t>Creamy Lemon Butter Chicken with Parmesan Zucchini Rounds &amp; Scallion Couscous</t>
+  </si>
+  <si>
     <t>Creamy Lemon Spinach Ricotta Ravioli with Roasted Bell Pepper &amp; Parmesan</t>
   </si>
   <si>
     <t>Creamy Lemon Spinach Ricotta Ravioli with Seared Salmon, Roasted Bell Pepper &amp; Parmesan</t>
   </si>
   <si>
+    <t>Creamy Shrimp &amp; Bacon Spaghetti with Smoky Charred Corn &amp; Chives</t>
+  </si>
+  <si>
+    <t>Crispy Cheddar Chicken with Roasted Broccoli &amp; Loaded Bacon Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Crispy Parmesan Chicken with Garlic Scallion Couscous &amp; Lemony Roasted Carrots</t>
+  </si>
+  <si>
     <t>Crunchy Curried Chickpea Bowls with Chicken, Golden Raisins &amp; Pickled Cabbage</t>
   </si>
   <si>
@@ -997,6 +1558,12 @@
     <t>Crunchy Italian Chicken Sheet Pan Bake with Spiced Potatoes &amp; Lemony Green Beans</t>
   </si>
   <si>
+    <t>Curry-Spiced Chickpea &amp; Barramundi Bowls with Roasted Veggies, Cucumber Raita &amp; Garlic Basmati Rice</t>
+  </si>
+  <si>
+    <t>Curry-Spiced Chickpea Bowls with Roasted Veggies, Cucumber Raita &amp; Garlic Basmati Rice</t>
+  </si>
+  <si>
     <t>Firecracker Meatballs with Roasted Green Beans &amp; Jasmine Rice</t>
   </si>
   <si>
@@ -1009,6 +1576,9 @@
     <t>Garden Spinach Ricotta Ravioli with Zucchini Ribbons, Tomato &amp; Creamy Lemon Sauce</t>
   </si>
   <si>
+    <t>Herby Balsamic Pork Tenderloin with Roasted Broccoli &amp; Garlic Bread</t>
+  </si>
+  <si>
     <t>Hibachi Sweet Soy Bavette Steak &amp; Shrimp with Garlic Rice, Sesame-Roasted Zucchini &amp; Spicy Special Sauce</t>
   </si>
   <si>
@@ -1057,6 +1627,12 @@
     <t>Nacho Turkey Burgers with Roasted Jalapeño Cheese Sauce, Crispy Fried Onions &amp; Potato Wedges</t>
   </si>
   <si>
+    <t>One-Pan Black Bean &amp; Poblano Quesadillas with Lime Crema</t>
+  </si>
+  <si>
+    <t>One-Pan Cantina Shrimp Fajitas with Spicy Guacamole &amp; Smoky Red Pepper Crema</t>
+  </si>
+  <si>
     <t>One-Pan Easy Cheesy Chicken Quesadillas with Smoky Red Pepper Crema</t>
   </si>
   <si>
@@ -1078,9 +1654,18 @@
     <t>One-Pan Smashed Black Bean Tacos with Creamy Slaw, Pickled Onion &amp; Red Pepper Crema</t>
   </si>
   <si>
+    <t>One-Pan Tomato &amp; Bean Skillet Italiano With Zucchini, Ricotta &amp; Parmesan Croutons</t>
+  </si>
+  <si>
+    <t>One-Pot Bean, Poblano &amp; Turkey Soup with Blue Corn Tortilla Chips, Monterey Jack &amp; Lime Sour Cream</t>
+  </si>
+  <si>
     <t>One-Pot Beef &amp; Black Bean Chili with Sour Cream &amp; Monterey Jack Cheese</t>
   </si>
   <si>
+    <t>One-Pot Black Bean &amp; Poblano Soup with Blue Corn Tortilla Chips, Monterey Jack &amp; Lime Sour Cream</t>
+  </si>
+  <si>
     <t>One-Pot Longhorn Turkey &amp; Bean Chili with Jalapeño &amp; Smoky Red Pepper Crema</t>
   </si>
   <si>
@@ -1099,9 +1684,24 @@
     <t>Plant-Based Protein Messy Janes with Pickled Onion, Roasted Potato Wedges &amp; Lime Aioli</t>
   </si>
   <si>
+    <t>Pork Sausage &amp; Bell Pepper Pasta with Creamy Parmesan Garlic Tomato Sauce</t>
+  </si>
+  <si>
+    <t>Ricotta Tomato Stuffed Ravioli &amp; Shrimp with Toasted Panko, Lemony Squash &amp; Parsley</t>
+  </si>
+  <si>
+    <t>Ricotta Tomato Stuffed Ravioli with Toasted Panko, Lemony Squash &amp; Parsley</t>
+  </si>
+  <si>
     <t>San Antonio Beef Bowls with Blue Corn Tortilla Chips, Fresh Salsa &amp; Lime Crema</t>
   </si>
   <si>
+    <t>Sesame-Soy Beef Bowls with Sriracha Mayo, Cilantro &amp; Crispy Onions</t>
+  </si>
+  <si>
+    <t>Sesame-Soy Chicken Bowls with Sriracha Mayo, Cilantro &amp; Crispy Onions</t>
+  </si>
+  <si>
     <t>Sheet Pan Walnut-Crusted Salmon with a Roasted Veggie Jumble &amp; Lemon Crème Fraîche</t>
   </si>
   <si>
@@ -1141,6 +1741,21 @@
     <t>Sweet As Honey Dijon Chicken with Lemony Green Beans &amp; Cheesy Cauliflower “Rice”</t>
   </si>
   <si>
+    <t>Szechuan Pork Ramen Stir-Fry with Carrot, Scallion &amp; Peanuts</t>
+  </si>
+  <si>
+    <t>Szechuan Shrimp Ramen Stir-Fry with Carrot, Scallion &amp; Peanuts</t>
+  </si>
+  <si>
+    <t>Tex-Mex Turkey Stuffed Peppers with Smoky Red Pepper Crema &amp; Pickled Red Onion</t>
+  </si>
+  <si>
+    <t>Tuscan Chicken with Balsamic Tomato Sauce with Mashed Cannellini Beans &amp; Roasted Green Beans</t>
+  </si>
+  <si>
+    <t>White Cheddar Wonderburgers with Caramelized Onion, Special Sauce &amp; Old Bay Fries</t>
+  </si>
+  <si>
     <t>Zucchini &amp; Tomato Flatbreads with Lemon Ricotta, Fresh Herbs, Honey &amp; Chili Flakes</t>
   </si>
   <si>
@@ -1150,12 +1765,27 @@
     <t>BBQ Mushroom Flatbread with ranch drizzle and cilantro</t>
   </si>
   <si>
+    <t>BBQ Pulled Pork Sliders with Creamy Corn Slaw no prep, quick cook</t>
+  </si>
+  <si>
+    <t>Bacon and Cheddar-Jack Meatloaf and Smoky BBQ Sauce with ranch green beans</t>
+  </si>
+  <si>
     <t>Balsamic Spicy Onion Jam Burger with garlic-aioli potatoes</t>
   </si>
   <si>
     <t>Beef Meatloaf with Chipotle Crema and Southwest succotash</t>
   </si>
   <si>
+    <t>Belgian Waffles 2 waffles with sweet pearl sugar</t>
+  </si>
+  <si>
+    <t>Blue Cheese and Red Wine Caramelized Onion Burger and garlic fries</t>
+  </si>
+  <si>
+    <t>Blueberry Butter Cake with juicy Michigan blueberries</t>
+  </si>
+  <si>
     <t>Boneless Skinless Chicken Breast a la carte protein</t>
   </si>
   <si>
@@ -1171,36 +1801,84 @@
     <t>Cheddar Bacon Crusted Chicken with Ranch Potatoes easy prep &amp; pan included</t>
   </si>
   <si>
+    <t>Cheesy Chipotle Steak Penne easy prep &amp; pan included</t>
+  </si>
+  <si>
     <t>Cheesy Spinach Artichoke Stuffed Chicken Breast with lemon green beans almondine</t>
   </si>
   <si>
+    <t>Chicken Gyros with Grape Tomatoes stovetop cooking</t>
+  </si>
+  <si>
+    <t>Chocolate Chip Cheesecake 2 mini cheesecakes with chocolate cookie crust</t>
+  </si>
+  <si>
+    <t>Cinnamon Bread Slice with smooth cinnamon icing</t>
+  </si>
+  <si>
+    <t>Coconut Jasmine Rice Bowl with fried plantains and corn pico de gallo</t>
+  </si>
+  <si>
     <t>Cranberry Goat Cheese-Stuffed Chicken Breast with Sage Demi-Glace and roasted Brussels sprouts</t>
   </si>
   <si>
     <t>Crispy Arrabbiata Chicken with Asiago Broccoli and Peppers easy prep &amp; pan included</t>
   </si>
   <si>
+    <t>Diced Chicken Breast a la carte protein</t>
+  </si>
+  <si>
     <t>Four-Cheese Pepperoni Pizza appetizer-style flatbread</t>
   </si>
   <si>
+    <t>Goat Cheese-Topped Chicken Breast with honey-walnut butter biscuits and butternut squash</t>
+  </si>
+  <si>
     <t>Gooey Butter Cake with crackly sugar crust</t>
   </si>
   <si>
+    <t>Greek Zucchini Tostadas with tomato and Kalamata olive salsa</t>
+  </si>
+  <si>
     <t>Ground Turkey a la carte protein</t>
   </si>
   <si>
+    <t>Hearty Chicken Stew with kale and butternut squash</t>
+  </si>
+  <si>
+    <t>Impossible Burger a la carte protein</t>
+  </si>
+  <si>
     <t>Italian Sausage a la carte protein</t>
   </si>
   <si>
     <t>Italian-Style Parmesan Fried Chicken with zucchini and brown sugar butter sweet potatoes</t>
   </si>
   <si>
+    <t>Korean-Style Pork Tacos with Sriracha mayo and slaw</t>
+  </si>
+  <si>
+    <t>Mahi-Mahi Fillets a la carte protein</t>
+  </si>
+  <si>
     <t>One-Pan BBQ Beef Enchiladas with guacamole-lime crema</t>
   </si>
   <si>
+    <t>One-Pan Sweet and Sour Chicken Rice Bowl with edamame and red peppers</t>
+  </si>
+  <si>
     <t>Pepperoni Pizza Pasta with Bell Peppers and Spinach no prep, quick cook</t>
   </si>
   <si>
+    <t>Pesto Butter Chicken with Asiago Broccoli stovetop cooking</t>
+  </si>
+  <si>
+    <t>Pesto Chicken Pizza appetizer-style flatbread</t>
+  </si>
+  <si>
+    <t>Pork Chop and Sweet Onion Demi with Cheesy Bacon Green Beans stovetop cooking</t>
+  </si>
+  <si>
     <t>Pork Chop with Sage &amp; Honey Butter with roasted garlic and hazelnut broccoli</t>
   </si>
   <si>
@@ -1216,39 +1894,87 @@
     <t>Sausage, Egg &amp; Cheese Croissant 2 mini breakfast criossants</t>
   </si>
   <si>
+    <t>Sausage, Egg &amp; Cheese Sliders 2 mini breakfast sliders</t>
+  </si>
+  <si>
     <t>Shrimp Avocado BLT with fajita potatoes</t>
   </si>
   <si>
+    <t>Shrimp Bruschetta Risotto with Asiago and grape tomatoes</t>
+  </si>
+  <si>
     <t>Shrimp a la carte protein</t>
   </si>
   <si>
+    <t>Skinnytaste Chicken with Mushroom-Shallot Sauce and wild rice</t>
+  </si>
+  <si>
+    <t>Skinnytaste Jumbo Turkey Meatball Bake with Broccoli and Peppers easy prep &amp; pan included</t>
+  </si>
+  <si>
+    <t>Skinnytaste Mahi-Mahi Florentine with herb-roasted fingerling potatoes</t>
+  </si>
+  <si>
+    <t>Smothered Hatch Chile Chicken Breast  with Elote-Style Mexican Rice easy prep &amp; pan included</t>
+  </si>
+  <si>
+    <t>Sourdough - Demi Loaf simply bake and eat</t>
+  </si>
+  <si>
     <t>Spaghetti with Roasted Red Pepper Cream with garlic bread</t>
   </si>
   <si>
+    <t>Spinach &amp; Artichoke Pizza appetizer-style flatbread</t>
+  </si>
+  <si>
     <t>Steak Strip Tacos with Corn Elote and Slaw easy prep &amp; pan included</t>
   </si>
   <si>
     <t>Sticky Chicken Thigh Tacos with pineapple-pepper salsa</t>
   </si>
   <si>
+    <t>Sweet and Spicy Al Pastor Pork Flautas with lime crema and cilantro</t>
+  </si>
+  <si>
+    <t>Tangerine Crunch Chopped Salad &amp; Chicken with 2 ready-to-cook chicken breasts</t>
+  </si>
+  <si>
+    <t>Tangerine Crunch Chopped Salad with toasted quinoa and tangerine vinaigrette</t>
+  </si>
+  <si>
+    <t>Teriyaki Steak Pad Thai with peanuts and cilantro</t>
+  </si>
+  <si>
     <t>Teriyaki-Lime Ahi Tuna with jasmine rice and roasted broccoli</t>
   </si>
   <si>
     <t>Three Cheese Asiago - Demi Loaf simply bake and eat</t>
   </si>
   <si>
+    <t>Tilapia a la carte protein</t>
+  </si>
+  <si>
     <t>Turkey Elote Corn Chowder with Jalapeños stovetop cooking</t>
   </si>
   <si>
     <t>Artichoke and fresh mozzarella pizza with radicchio-hazelnut salad</t>
   </si>
   <si>
+    <t>BBQ salmon and Southern-style rice salad with cabbage and cranberries</t>
+  </si>
+  <si>
     <t>Baja shrimp bowls with spicy chipotle cabbage over cilantro-lime rice</t>
   </si>
   <si>
+    <t>Bali tofu burgers with sambal mayo and sweet potato fries</t>
+  </si>
+  <si>
     <t>Beef chili with cheddar and Greek yogurt</t>
   </si>
   <si>
+    <t>Beef donburi rice bowl with edamame and kimchi-lime vegetables</t>
+  </si>
+  <si>
     <t>Beef mole enchilada pie with pinto beans and queso fresco</t>
   </si>
   <si>
@@ -1258,9 +1984,21 @@
     <t>Beef ’n’ cheddar chili mac</t>
   </si>
   <si>
+    <t>Black Angus steaks with tarragon béarnaise and roasted root vegetables</t>
+  </si>
+  <si>
     <t>Black rice bowls with delicata squash, pear, and cashew dressing</t>
   </si>
   <si>
+    <t>Buffalo grilled chicken breast over cauliflower-potato mash</t>
+  </si>
+  <si>
+    <t>Caprese orecchiette with cherry tomatoes and basil pesto</t>
+  </si>
+  <si>
+    <t>Cauliflower mac and cheese</t>
+  </si>
+  <si>
     <t>Cheesy French onion meatloaf with lentil and mixed green salad</t>
   </si>
   <si>
@@ -1276,36 +2014,90 @@
     <t>Chicken breasts and parsley-pecan pesto with roasted beet and orange</t>
   </si>
   <si>
+    <t>Chicken chop suey with shishito peppers, mushrooms, and scallions</t>
+  </si>
+  <si>
+    <t>Chicken enchilada pie with olives and pickled jalapeños</t>
+  </si>
+  <si>
+    <t>Chicken tikka masala</t>
+  </si>
+  <si>
+    <t>Chicken-andouille jambalaya</t>
+  </si>
+  <si>
     <t>Chili-spiced tofu biryani with cauliflower, brown rice, and raisins</t>
   </si>
   <si>
+    <t>Chipotle shrimp and Cajun-spiced potato over romaine salad</t>
+  </si>
+  <si>
     <t>Chorizo, chard, and potato frittata with mixed green salad</t>
   </si>
   <si>
+    <t>Creamy linguine with peas and pancetta</t>
+  </si>
+  <si>
+    <t>Farro soup with Italian sausages and kale</t>
+  </si>
+  <si>
     <t>Filet mignons with roasted garlic, root vegetables, and lemon aioli</t>
   </si>
   <si>
+    <t>Grilled pork chop with curry sauce over roasted apples and cauliflower</t>
+  </si>
+  <si>
+    <t>Hearty turkey soup with zucchini, rainbow chard, and Urfa chile oil</t>
+  </si>
+  <si>
     <t>Japanese curry chicken katsu with roasted vegetables and brown rice</t>
   </si>
   <si>
+    <t>Korean beef bibimbap with spinach, squash, and fried eggs</t>
+  </si>
+  <si>
     <t>Korean beef japchae with glass noodles, kale, and mushrooms</t>
   </si>
   <si>
+    <t>Mediterranean meze platter with chicken and spicy tahini dressing</t>
+  </si>
+  <si>
     <t>Mediterranean turkey and spinach skillet with sun-dried tomato tapenade</t>
   </si>
   <si>
     <t>Moroccan chicken in chraime sauce with sweet potato mash</t>
   </si>
   <si>
+    <t>Pork chile verde over cilantro–cauliflower “rice”</t>
+  </si>
+  <si>
+    <t>Pork chops and onion gravy with Brussels sprout slaw</t>
+  </si>
+  <si>
+    <t>Portobello mushroom stroganoff over egg noodles</t>
+  </si>
+  <si>
+    <t>Pozole verde with mild green chiles, pinto beans, and avocado</t>
+  </si>
+  <si>
     <t>Pulled-pork taquitos with tomatillo salsa verde and queso fresco</t>
   </si>
   <si>
     <t>Quinoa-spinach grain bowls with fresh dill, feta, and fried eggs</t>
   </si>
   <si>
+    <t>Rainbow quinoa–black bean tacos with guacamole and cabbage slaw</t>
+  </si>
+  <si>
     <t>Roast chicken with harissa-spiced veggies, cauli mash, and almonds</t>
   </si>
   <si>
+    <t>Roasted chicken breast with sun-dried tomato sauce and broccoli</t>
+  </si>
+  <si>
+    <t>Roasted chicken, parsnips, and carrots with Catalan salbitxada sauce</t>
+  </si>
+  <si>
     <t>Salmon tacos with cabbage slaw, salsa roja, and chipotle yogurt</t>
   </si>
   <si>
@@ -1315,21 +2107,48 @@
     <t>Shrimp chow mein with broccoli, mushrooms, and toasted garlic</t>
   </si>
   <si>
+    <t>Shrimp paella</t>
+  </si>
+  <si>
     <t>Sloppy joes with pickled jalapeños and tangy coleslaw</t>
   </si>
   <si>
+    <t>Smoked linguiça sausage with sweet potatoes and cauliflower</t>
+  </si>
+  <si>
     <t>Smokehouse sausage jambalaya</t>
   </si>
   <si>
     <t>Sole with red pepper–caper sauce and lemon-garlic broccoli</t>
   </si>
   <si>
+    <t>Spicy Sichuan dan dan noodles with tofu and kale</t>
+  </si>
+  <si>
     <t>Spicy Sichuan glass noodle stir-fry with Impossible plant-based beef</t>
   </si>
   <si>
+    <t>Spicy Sichuan glass noodles with pork, cabbage, and carrots</t>
+  </si>
+  <si>
+    <t>Spicy Southwest beef and sweet potato skillet</t>
+  </si>
+  <si>
+    <t>Spicy Thai green curry with shrimp, zucchini, and jasmine rice</t>
+  </si>
+  <si>
+    <t>Spicy chicken biryani with cauliflower and raisins</t>
+  </si>
+  <si>
+    <t>Spicy yuba noodle japchae with kale, mushrooms, and pickled carrots</t>
+  </si>
+  <si>
     <t>Spinach saag paneer with basmati rice</t>
   </si>
   <si>
+    <t>Steak salad with chipotle vinaigrette and sautéed scallion relish</t>
+  </si>
+  <si>
     <t>Steak stir-fry with broccoli, carrots, and sesame seeds</t>
   </si>
   <si>
@@ -1345,6 +2164,9 @@
     <t>Thai-style spicy yuba noodle soup with potato and bell pepper</t>
   </si>
   <si>
+    <t>Tomato-braised chicken with sweet potato and chard</t>
+  </si>
+  <si>
     <t>Turkey Bolognese over spaghetti</t>
   </si>
   <si>
@@ -1354,18 +2176,42 @@
     <t>Vegetarian couscous with artichokes, olives, and creamy feta dressing</t>
   </si>
   <si>
+    <t>White bean turkey chili</t>
+  </si>
+  <si>
+    <t>Wild Alaskan halibut en papillote with avocado-citrus salsa</t>
+  </si>
+  <si>
+    <t>Zesty black bean–quinoa bowl</t>
+  </si>
+  <si>
+    <t>Zucchini-chickpea köfte over mixed greens with mango amba dressing</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/baked-egg-potato-hash-with-kale-cheddar-hot-sauce</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/basil-pesto-gnocchi-with-mushrooms-pistachio-breadcrumbs-9c2a9dc4-fb65-4050-aa26-ef42ddd714c6</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/beef-over-curry-spiced-rice-with-creamy-cilantro-sauce-cfbc9909-afcb-4440-8104-bb72ccde191d</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/blackened-cajun-burger-with-roasted-sweet-potatoes-spicy-ketchup</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/calabrian-honey-chicken-with-gnocchi-roasted-broccoli-661a97e5-1561-4b95-818a-a37263126220</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/calabrian-shrimp-orzo-with-zucchini-parmesan-e6b54034-1117-4d0e-a2b2-cb530c8491a9</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/caramelized-onion-grilled-cheese-with-butter-lettuce-salad-creamy-mustard-dressing-95429f77-0be7-4802-ab12-4e430ba14ab3</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/cheesy-truffle-mushroom-crostini-with-chives</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/chicken-farro-grain-bowl-with-arugula-roasted-vegetables</t>
   </si>
   <si>
@@ -1396,30 +2242,51 @@
     <t>https://www.blueapron.com/recipes/family-meal-prep-bundle-with-chicken-pork-3</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/fennel-onion-pizza-with-fried-rosemary-e80844f4-6227-4276-bfb5-4f2a4cff3e3e</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/greek-style-feta-burgers-with-tzatziki-oregano-potatoes-6d17c74f-41f9-4caa-8395-a6a80de65329</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/fresh-basil-fettuccine-pasta-with-zucchini-tomatoes-parmesan</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/fried-egg-white-cheddar-burgers-with-roasted-fingerling-potatoes</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/glazed-beef-crispy-rice-with-sauteed-green-beans-peppers-4</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/greek-chicken-carrots-with-sauteed-kale-raisins-feta-cheese</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/greek-style-veggie-pitas-with-lemon-dressed-broccoli-9</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/guajillo-chicken-tacos-with-cheesy-roasted-potatoes</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/hoisin-glazed-pork-meatloaf-with-sesame-mashed-potatoes-bok-choy-a52e2d28-1256-4f95-96f2-2e98d0e6fb2d</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/hot-honey-chicken-with-rosemary-cipolline-onion-panzanella-54e25be6-d8ad-4f9c-aadd-73188b5eece2</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/lemon-caper-tilapia-with-orzo-zucchini-peppers-8180fcdd-e970-4d26-859b-357cc0b8d68d</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/middle-eastern-baked-chicken-thighs-rice-with-chickpeas-yogurt-4</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/miso-ponzu-beyond-burger-with-sesame-shishitos-mushrooms</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/olive-feta-cheese-pizza-with-spicy-tomato-sauce</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/orange-beef-lo-mein-with-bok-choy-sesame-seeds-a84e2fc6-57e3-49e9-bc08-0409ed9ca7ba</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/orange-tofu-brown-rice-with-sweet-peppers-kohlrabi-cashews</t>
   </si>
   <si>
@@ -1429,6 +2296,12 @@
     <t>https://www.blueapron.com/recipes/pan-seared-duck-breasts-with-crispy-duck-fat-rice-sesame-ginger-arugula-salad</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/parmesan-knots-with-parsley-tomato-sauce</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/pork-vegetable-lo-mein-with-furikake-7270cc2a-67d7-4747-89d6-3201380d892a</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/pork-chorizo-meatballs-poblano-rice-with-chipotle-peanut-sauce</t>
   </si>
   <si>
@@ -1438,12 +2311,30 @@
     <t>https://www.blueapron.com/recipes/roasted-cauliflower-lentil-salad-with-jalapeno-vinaigrette-creamy-salsa-verde-9e1d3f3e-7d8c-4e00-bad0-b6492d6a2f8c</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/roasted-red-pepper-pasta-with-broccoli-parmesan-cheese-93d8fdb6-6aa6-43bb-b7f8-74a9442c7195</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/seafood-trio-salmon-shrimp-scallops-29</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/seared-chicken-creamy-italian-dressing-with-mashed-potatoes-glazed-vegetables-12</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/seared-chicken-persimmon-pan-sauce-with-cheddar-biscuits-spiced-honey-butter</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/seared-salmon-sweet-chili-glaze-with-aromatic-rice-sauteed-vegetables-44674bde-16af-4694-ac97-aaf0c61b5e5d</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seared-scallop-pancetta-fettuccine-with-roasted-vegetables-ricotta-pistachios-3</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seared-scallops-bucatini-with-roasted-vegetables-ricotta-pistachios-3</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/seared-steaks-fried-rosemary-with-mashed-potatoes-sherry-butter-pan-sauce-f490acbb-b605-4cf8-a4fd-1b9138948434</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/seared-steaks-homemade-steak-sauce-with-mashed-potatoes-sauteed-carrots-8ac1dda1-c68e-4cf0-9349-98b882a627ca</t>
   </si>
   <si>
@@ -1459,6 +2350,12 @@
     <t>https://www.blueapron.com/recipes/sheet-pan-pesto-salmon-with-a-roasted-vegetable-medley-6</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/southwest-style-turkey-skillet-with-tomatillo-poblano-sauce-black-beans-creamy-guacamole-167aeb6f-4aa9-4223-a744-5c8b5bcb4307</t>
+  </si>
+  <si>
+    <t>https://www.blueapron.com/recipes/spanish-spiced-salmon-veggie-quinoa-with-almond-date-topping-3</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/specialty-selection-ny-strip-steaks-scallops-prime-ground-beef-27</t>
   </si>
   <si>
@@ -1477,6 +2374,9 @@
     <t>https://www.blueapron.com/recipes/surf-turf-steaks-chicken-salmon-shrimp-29</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/sweet-spicy-chicken-stir-fry-with-rice-bok-choy</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/sweet-spicy-salmon-with-green-beans-bell-pepper-white-rice-4</t>
   </si>
   <si>
@@ -1495,24 +2395,42 @@
     <t>https://www.blueapron.com/recipes/tomato-coconut-cod-curry-with-white-rice-marinated-vegetables</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/weeknight-favorites-chicken-steak-italian-sausage-ground-beef-bfb4178e-1cd9-44c8-935e-f15d59eee824</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-chicken-salmon-4</t>
   </si>
   <si>
     <t>https://www.blueapron.com/recipes/wellness-meal-prep-bundle-with-pork-chicken</t>
   </si>
   <si>
+    <t>https://www.blueapron.com/recipes/za-atar-white-bean-rice-bowls-with-carrots-sweet-peppers-marinated-feta</t>
+  </si>
+  <si>
     <t>https://www.blueapron.com/recipes/zesty-pork-chorizo-tacos-with-lime-mayo-garlic-cotija-potatoes-7</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/4-chicken-breasts-2-ranch-steaks-61168ac6fabe8d0d893ce622</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/6-chicken-breasts-60d5e0a7245f7d03d4402180</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/baja-shrimp-tacos-619e4a8baf05be11d064a137</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/beef-poblano-tacos-61aa4b734e4088026d45e46d</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/beef-rice-fiesta-skillet-61a9429c39bd6e2c980a546e</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/beef-chili-loaded-sweet-potatoes-619e556ea1430503f13eeb02</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/beef-flautas-61aa4d3f9bd7661d646a826a</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/beef-sweet-potato-black-bean-stew-6197cfde57e8d2215070afd3</t>
   </si>
   <si>
@@ -1528,18 +2446,36 @@
     <t>https://www.everyplate.com/recipes/cajun-shrimp-linguine-619e54d1da11ff0b564f2d92</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/caramelized-zucchini-linguine-61a941d7c0203b3eb47655f0</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/caramelized-zucchini-linguine-61aa4badd7116e2ce86b8152</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197cff2fce7c231035ca2e0</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/cheese-tastic-southwestern-hash-6197ba8b094e9f31181725c1</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/cheesy-corn-bisque-61a94323b9e06967544df356</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/chicken-breasts-ground-beef-chicken-sausage-mix-6171b558a1c87a7e6c50c3d7</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/chicken-sausage-pepper-penne-619e550e399c360c8d4fbb82</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/chicken-sausage-linguine-61a9412939bd6e2c980a546a</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/chicken-scallopini-61a942530abe937ffe5c2e07</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/chicken-scallopini-61aa4c2558768c1dc8644f42</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/cowboy-skillet-pie-6197b86d4310ff3559187192</t>
   </si>
   <si>
@@ -1576,6 +2512,9 @@
     <t>https://www.everyplate.com/recipes/griddled-onion-burgers-619e5410440e87540e386f6f</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/guacamole-burgers-61a9435be220e51bc5740b19</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/harissa-chickpea-bowls-with-salmon-619e54895754da49c63a77f2</t>
   </si>
   <si>
@@ -1585,6 +2524,15 @@
     <t>https://www.everyplate.com/recipes/herb-butter-steak-619e4896446df24e7560b35d</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/honey-dill-chickpea-bowls-61a942c679ca9c035048980f</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/honey-ginger-chicken-breasts-61aa4c6106420e3f8c089db2</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/honey-ginger-pork-chops-61a9427659ca8e68932c9284</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/lemon-butter-barramundi-6197ba057601ed24791385c7</t>
   </si>
   <si>
@@ -1594,6 +2542,9 @@
     <t>https://www.everyplate.com/recipes/lemon-chive-chicken-legs-6197b940772e7c4b583cd50a</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/lemon-garlic-shrimp-61a942dd361179347a2488ef</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/lemon-herb-risotto-with-chicken-6197bab806397d0841399d11</t>
   </si>
   <si>
@@ -1606,12 +2557,27 @@
     <t>https://www.everyplate.com/recipes/mediterranean-veggie-sandwiches-6197cf9c8cb33d0257217de4</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/mozz-tomato-jam-zucchini-panini-61a943051265154bb3779925</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/mozz-tomato-jam-zucchini-panini-61aa4d7e3de1e6563e1d5d92</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/peanut-chicken-stir-fry-bowls-6197b7bdcb4de65cec4b6b05</t>
   </si>
   <si>
     <t>https://www.everyplate.com/recipes/ponzu-chili-steak-bowls-619e4919dbb57840b03afa99</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/ponzu-punch-chicken-stir-fry-61a942390c1c3561f95a36f4</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/ponzu-punch-shrimp-stir-fry-61aa4c0262b8d06a8f748722</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/pork-poblano-tacos-61a941b5ed93fb219e675b43</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/pork-chili-loaded-sweet-potatoes-619e48f390cc600b712d5ef7</t>
   </si>
   <si>
@@ -1621,9 +2587,24 @@
     <t>https://www.everyplate.com/recipes/pork-sausage-pepper-penne-619e48d473610a461673dc39</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/garlic-dijon-butter-steak-61a942104b19bf34b159c71d</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sesame-chicken-rice-bowls-61aa4cc1cecd7142ea5e8642</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/sesame-pork-rice-bowls-61a9433ab6c6280f4f5e5f3e</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/shallot-snap-pea-flatbreads-6197baaa64e40b505d2b4f2d</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/smothered-and-stuffed-meatloaves-61a9416855c931160400385e</t>
+  </si>
+  <si>
+    <t>https://www.everyplate.com/recipes/smothered-and-stuffed-meatloaves-61aa4b1faddd756b685a2a0a</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/southwest-beef-flautas-619e5454dbb57840b03afa9e</t>
   </si>
   <si>
@@ -1657,21 +2638,48 @@
     <t>https://www.everyplate.com/recipes/sweet-n-tangy-cherry-meatballs-6197b62ccea5f944cc746674</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/turkey-flautas-61a9434491e93f72fe494b56</t>
+  </si>
+  <si>
     <t>https://www.everyplate.com/recipes/turkey-shepherds-pie-619e49555343ce59b7723ab2</t>
   </si>
   <si>
+    <t>https://www.everyplate.com/recipes/tuscan-white-bean-couscous-skillet-61a9434fd8899d65930d1610</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/apricot-glazed-pork-meatballs-616d895fdd5f077890039780</t>
   </si>
   <si>
     <t>https://cg.greenchef.com/recipes/barramundi-with-chipotle-lime-aioli-61769b2a0315c044e06863df</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/bbq-chicken-sandwiches-with-creamy-slaw-60aadee8e02aba451178ee97</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/beef-burgers-with-tomato-shallot-aioli-617ffcc2c801b30a1473bd5d</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/beef-tenderloin-with-brown-butter-carrots-60d9f4acca1acb34fb5c8422</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/black-bean-corn-quesadillas-5fbd57a7590d225e551a6e36</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/blackened-tilapia-610e4523e5bfd521750aa3a4</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/cajun-chicken-creamy-kale-with-bacon-617ffcc4c801b30a1473bd61</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/chicken-broccoli-bowls-617ffcc200dea46eb1211650</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/chicken-with-creamy-lemon-sauce-5fbd44f6cf4d133a4b2c316e</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/chimichurri-beef-stuffed-peppers-60a4d059b42f4e2fe41bdfa0</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/creamy-chicken-potato-soup-616d895c4fd43275cb51893f</t>
   </si>
   <si>
@@ -1699,15 +2707,30 @@
     <t>https://cg.greenchef.com/recipes/kidney-bean-burgers-61769b2fee7cf3008c6cef08</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/lemon-herb-shrimp-bowls-617ffcc31a01f7758c783cde</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/mediterranean-style-chicken-salad-601d8d0e5df88101fa189b5c</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/pesto-caprese-sandwiches-5fbd44f60a041608574a59a5</t>
+  </si>
+  <si>
+    <t>https://cg.greenchef.com/recipes/pork-with-apples-raisins-617ffcad7479a977794944c9</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/roasted-chickpea-carrot-bowls-60c747b1e3218921147f2c82</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/roasted-sweet-potato-farro-bowls-601d8d1a001106080e0a4aa1</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/salmon-with-creamy-dill-sauce-61769b2c4b246d756505ca39</t>
   </si>
   <si>
+    <t>https://cg.greenchef.com/recipes/salmon-with-red-pepper-vinaigrette-617ffcc0f5ce18271f6b2ceb</t>
+  </si>
+  <si>
     <t>https://cg.greenchef.com/recipes/spiced-beef-cauliflower-rice-60589af6876ba841f72d150c</t>
   </si>
   <si>
@@ -1738,6 +2761,12 @@
     <t>https://www.hellofresh.com/recipes/al-pastor-pico-pork-618be6c201a4b9188534698a</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/bbq-chickpea-spinach-salad-with-chicken-619559b23d44694ee15152cf</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/bbq-chickpea-spinach-salad-61952a6c34421e12a24ff1bc</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/bacon-buckaroo-burgers-618be5dcc20ba564414b672c</t>
   </si>
   <si>
@@ -1756,24 +2785,60 @@
     <t>https://www.hellofresh.com/recipes/black-bean-charred-corn-burrito-bowls-618a9199393fbc6c437c882d</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/blue-corn-tortilla-skillet-61952a8186e5c11f6520a7f0</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/brocc-out-gouda-melts-618be7819ba8382bd2141863</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/butter-basted-chicken-6182a10af281107a3002b30a</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/cherry-balsamic-bavette-steak-6195293cf72c906e14510a1a</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/chicken-penne-limone-61952972fe59410495283828</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/chicken-ramen-in-a-shoyu-style-broth-6182a04ec95316759040d54c</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/chicken-sausage-bell-pepper-gnocchi-619529027d68f737b70b1828</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/chicken-sausage-bell-pepper-pasta-6195590bf72c906e14510a46</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/chicken-sausage-rigatoni-618be4c6f342f67f6631aaec</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/chimichurri-barramundi-619528c957acc614ec7ab0df</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/chophouse-style-chicken-cutlets-61952aff8a2dcd5b963bfc69</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/creamy-lemon-butter-bavette-steak-6195595298529f7a49198e97</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/creamy-lemon-butter-chicken-619527b42451582bb62a4930</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/creamy-lemon-spinach-ricotta-ravioli-618be6e84ae2420eda7a2f67</t>
   </si>
   <si>
     <t>https://www.hellofresh.com/recipes/creamy-lemon-spinach-ricotta-ravioli-618c0c20fc022451f64a5401</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/creamy-shrimp-bacon-spaghetti-619528879f352019af64e9a2</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crispy-cheddar-chicken-61952910ab560b4c78562481</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/crispy-parmesan-chicken-619526ea2af12e712829b302</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/crunchy-curried-chickpea-bowls-6182d5a67f8d0a023b1a3310</t>
   </si>
   <si>
@@ -1783,6 +2848,12 @@
     <t>https://www.hellofresh.com/recipes/crunchy-italian-chicken-sheet-pan-bake-61829f3815e1b62d22600abd</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/curry-spiced-chickpea-barramundi-bowls-6195596636d36c7bd666d328</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/curry-spiced-chickpea-bowls-619528037b708d76b82fa813</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/firecracker-meatballs-618be46578a663604c256b2a</t>
   </si>
   <si>
@@ -1795,6 +2866,9 @@
     <t>https://www.hellofresh.com/recipes/garden-spinach-ricotta-ravioli-61829fc4c55f6460c95561fb</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/herby-balsamic-pork-tenderloin-61952a107837f62d41040079</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/hibachi-sweet-soy-bavette-steak-shrimp-6182a0c2505c1933651c3471</t>
   </si>
   <si>
@@ -1843,6 +2917,12 @@
     <t>https://www.hellofresh.com/recipes/nacho-turkey-burgers-618c0becd2f94942bd131de3</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-black-bean-poblano-quesadillas-61952a3757c45c7edd3ae6e2</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-cantina-shrimp-fajitas-61952aac1e429c3c246b4c40</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/one-pan-easy-cheesy-chicken-quesadillas-618be753870d1c3f904f2562</t>
   </si>
   <si>
@@ -1864,9 +2944,18 @@
     <t>https://www.hellofresh.com/recipes/one-pan-smashed-black-bean-tacos-6182a00694132c702a5fcb3c</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/one-pan-tomato-bean-skillet-italiano-61952ae1e855fb278a35edae</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/one-pot-bean-poblano-turkey-soup-61955994fe59410495283871</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/one-pan-beef-black-bean-chili-6182d550f281107a3002b32d</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/one-pot-black-bean-poblano-soup-6195285abeaa625a39572a3c</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/one-pot-longhorn-turkey-bean-chili-618be7ce063b40104007f991</t>
   </si>
   <si>
@@ -1885,9 +2974,24 @@
     <t>https://www.hellofresh.com/recipes/plant-based-protein-messy-janes-618be7302ff9ae5c026441d2</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/pork-sausage-bell-pepper-pasta-61952739c5bcf8359c7c75a9</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/ricotta-tomato-stuffed-ravioli-shrimp-619559809692c65e43464ffd</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/ricotta-tomato-stuffed-ravioli-6195283028ba344bdb109390</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/san-antonio-beef-bowls-61829ef92ad9000e3b24e3e6</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/sesame-soy-beef-bowls-6195275f62a6d036c14fa1d5</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/sesame-soy-chicken-bowls-619559272534af709130ac62</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/sheet-pan-walnut-crusted-salmon-618be5fe9d413e2d3129d11f</t>
   </si>
   <si>
@@ -1927,6 +3031,21 @@
     <t>https://www.hellofresh.com/recipes/sweet-as-honey-dijon-chicken-618be4f6e8b61739d04ab72f</t>
   </si>
   <si>
+    <t>https://www.hellofresh.com/recipes/szechuan-pork-ramen-stir-fry-61952789fd27fb1eda396688</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/szechuan-shrimp-ramen-stir-fry-6195593d7837f62d410400c7</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/tex-mex-turkey-stuffed-peppers-61952b11e28fc13f6049f13b</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/tuscan-chicken-with-balsamic-tomato-sauce-619527e90e3afa39de1ac86e</t>
+  </si>
+  <si>
+    <t>https://www.hellofresh.com/recipes/white-cheddar-wonderburgers-61952711ab560b4c78562473</t>
+  </si>
+  <si>
     <t>https://www.hellofresh.com/recipes/zucchini-and-tomato-flatbreads-61829fe618f21856d4018d64</t>
   </si>
   <si>
@@ -1936,12 +3055,27 @@
     <t>https://www.homechef.com/meals/bbq-mushroom-flatbread-a84d26ab-7251-4c77-9a5a-27f430640f10</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/bbq-pulled-pork-sliders-with-creamy-corn-slaw</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/bacon-and-cheddar-jack-meatloaf-and-smoky-bbq-sauce-standard</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/balsamic-spicy-onion-jam-burger</t>
   </si>
   <si>
     <t>https://www.homechef.com/meals/beef-meatloaf-with-chipotle-crema-standard</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/belgian-waffles</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/blue-cheese-and-red-wine-caramelized-onion-burger</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/blueberry-butter-cake-d527b9bb-4a79-4d17-98f2-a88932008587</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/boneless-skinless-chicken-breast-8b769bef-c9e9-4b67-86f3-f6093f36e8d9</t>
   </si>
   <si>
@@ -1957,36 +3091,84 @@
     <t>https://www.homechef.com/meals/cheddar-bacon-crusted-chicken-with-ranch-potatoes-9af6b244-80ab-45ce-8706-cdff16879749</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/cheesy-chipotle-steak-penne</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/cheesy-spinach-artichoke-stuffed-chicken-breast</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/chicken-gyros-with-grape-tomatoes-3d83e7c0-8e9e-4221-98a6-6aaf7c8d82bb</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/chocolate-chip-cheesecake-170eb6a4-512a-47db-85d7-23f150bf11c2</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/cinnamon-bread-slice-c712df29-b0e1-4807-92f1-1a1db39f9647</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/coconut-jasmine-rice-bowl-00ecabf9-02f3-4be1-8997-e8f4aa4c28a1</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/cranberry-goat-cheese-stuffed-chicken-breast-with-sage-demi-glace-6c41d441-ae31-43c4-b941-0061c275b865</t>
   </si>
   <si>
     <t>https://www.homechef.com/meals/crispy-arrabbiata-chicken-with-asiago-broccoli-and-peppers</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/diced-chicken-breast-standard</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/four-cheese-pepperoni-pizza-ce53fd42-967d-424e-8bd1-fe3a3ccc0a3c</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/goat-cheese-topped-chicken-breast-3fd35c1e-5073-4f1e-bf6c-3516d512032d</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/gooey-butter-cake-9a96830b-e60e-4faf-98cf-6027bd18aaa0</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/greek-zucchini-tostadas-87c2b414-b32d-4f7a-9f06-86447c38ce75</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/ground-turkey-65a59861-baff-498d-920e-be620e1ab2e2</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/hearty-chicken-stew-85706d54-d6f3-4f2d-bfba-bfc8f1e85c52</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/impossible-burger-b5e0fcaf-f911-4077-834a-93fab2b1cfb4</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/italian-sausage-f74341ee-fa2c-4196-bc95-0964c79a868d</t>
   </si>
   <si>
     <t>https://www.homechef.com/meals/italian-style-parmesan-fried-chicken</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/korean-style-pork-tacos-07a499be-35a8-4959-b308-a7def2a97194</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/mahi-mahi-fillets-bd699a44-8f71-4f83-8d10-cae8338b6ca1</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/one-pan-bbq-beef-enchiladas</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/one-pan-sweet-and-sour-chicken-rice-bowl</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/pepperoni-pizza-pasta-with-bell-peppers-and-spinach-standard</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/pesto-butter-chicken-with-asiago-broccoli-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/pesto-chicken-pizza-d6f3c987-791f-47d0-be7f-6a3b5fed30b4</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/pork-chop-and-sweet-onion-demi-with-cheesy-bacon-green-beans</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/pork-chop-with-sage-honey-butter-standard</t>
   </si>
   <si>
@@ -2002,39 +3184,87 @@
     <t>https://www.homechef.com/meals/sausage-egg-cheese-croissant-standard</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/sausage-egg-cheese-sliders</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/shrimp-avocado-blt</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/shrimp-bruschetta-risotto-66eac5b6-2637-407f-89c6-b266b7f202eb</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/shrimp-1f88ac88-3ffb-4f94-9ee8-f4d40a9b9721</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/skinnytaste-chicken-with-mushroom-shallot-sauce</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/skinnytaste-jumbo-turkey-meatball-bake-with-broccoli-and-peppers</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/skinnytaste-mahi-mahi-florentine</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/smothered-hatch-chile-chicken-breast-with-elote-style-mexican-rice-standard</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/sourdough-demi-loaf-a27665f4-1d5c-46b3-914f-bf416814eec6</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/spaghetti-with-roasted-red-pepper-cream-standard</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/spinach-artichoke-pizza-b6430465-1468-4fef-b6e4-9db64a06a11a</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/steak-strip-tacos-with-corn-elote-and-slaw-288c2872-36a2-447c-993f-e790997f1ae9</t>
   </si>
   <si>
     <t>https://www.homechef.com/meals/sticky-chicken-thigh-tacos</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/sweet-and-spicy-al-pastor-pork-flautas</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/tangerine-crunch-chopped-salad-chicken</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/tangerine-crunch-chopped-salad</t>
+  </si>
+  <si>
+    <t>https://www.homechef.com/meals/teriyaki-steak-pad-thai-standard</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/teriyaki-lime-ahi-tuna-2b7f626a-d200-423a-8b05-f71995ac8ad7</t>
   </si>
   <si>
     <t>https://www.homechef.com/meals/three-cheese-asiago-demi-loaf-c7222854-9767-43d5-af1f-03bfd50162b9</t>
   </si>
   <si>
+    <t>https://www.homechef.com/meals/tilapia</t>
+  </si>
+  <si>
     <t>https://www.homechef.com/meals/turkey-elote-corn-chowder-with-jalapenos</t>
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/artichoke-and-fresh-mozzarella-pizza-with-radicchio-hazelnut-salad</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/bbq-salmon-and-southern-style-rice-salad-with-cabbage-and-cranberries</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/baja-shrimp-bowls-with-spicy-chipotle-cabbage-over-cilantro-lime-rice</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/bali-tofu-burgers-with-sambal-mayo-and-sweet-potato-fries</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/beef-chili-with-cheddar-and-greek-yogurt</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/beef-donburi-rice-bowl-with-edamame-and-kimchi-lime-vegetables</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/beef-mole-enchilada-pie-with-pinto-beans-and-queso-fresco-1</t>
   </si>
   <si>
@@ -2044,9 +3274,21 @@
     <t>https://sunbasket.com/modals/recipe-modal/beef-n-cheddar-chili-mac-1</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/steak-with-tarragon-bearnaise-and-roasted-winter-vegetables</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/black-rice-bowls-with-winter-vegetables-pear-and-cashew-dressing</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/buffalo-grilled-chicken-breast-over-cauliflower-potato-mash</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/caprese-orecchiette-with-cherry-tomatoes-and-basil-pesto</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/cauliflower-mac-and-cheese-1</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/cheesy-french-onion-meatloaf-with-lentil-and-mixed-green-salad</t>
   </si>
   <si>
@@ -2062,36 +3304,90 @@
     <t>https://sunbasket.com/modals/recipe-modal/chicken-with-roasted-beets-chard-and-parsley-pesto</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-chop-suey-with-shishito-peppers-mushrooms-and-scallions</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-enchilada-pie-with-olives-and-pickled-jalapenos</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-tikka-masala-2</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-andouille-jambalaya</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/chili-spiced-tofu-biryani-with-cauliflower-brown-rice-and-raisins</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chipotle-shrimp-and-cajun-spiced-potato-on-a-crisp-mixed-salad</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/chorizo-chard-and-potato-frittata-with-mixed-green-salad</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/creamy-linguine-with-peas-and-pancetta</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/farro-bowls-with-italian-sausage-and-kale</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/steaks-with-roasted-garlic-root-vegetables-and-lemon-aioli</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/grilled-pork-chop-with-curry-sauce-over-roasted-apples-and-cauliflower</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/hearty-turkey-soup-with-zucchini-rainbow-chard-and-urfa-chile-oil</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/japanese-curry-chicken-katsu-with-roasted-vegetables-and-brown-rice</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/korean-beef-bibimbap-with-spinach-zucchini-and-fried-egg</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/korean-beef-japchae-with-glass-noodles-kale-and-mushrooms</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/mediterranean-meze-platter-with-chicken-and-spicy-tahini-dressing</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/mediterranean-turkey-and-spinach-skillet-with-sun-dried-tomato-tapenade</t>
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/moroccan-chicken-in-chraime-sauce-with-sweet-potato-mash</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/pork-chile-verde-over-cilantro-cauliflower-rice</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/pork-chops-and-onion-gravy-with-brussels-sprouts-slaw</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/portobello-mushroom-stroganoff-over-egg-noodles-1</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/quick-pozole-verde-with-mild-chiles-red-radish-and-avocado</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/pulled-pork-taquitos-with-tomatillo-salsa-verde-and-queso-fresco</t>
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/quinoa-spinach-grain-bowls-with-fresh-dill-feta-and-fried-eggs</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/rainbow-quinoablack-bean-tacos-with-guacamole-and-cabbage-slaw-1</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/roast-chicken-with-harissa-spiced-veggies-cauli-mash-and-almonds</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/roasted-chicken-breast-with-sun-dried-tomato-sauce-and-broccoli</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/roast-chicken-and-parsnips-with-catalan-salbitxada-sauce</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/salmon-tacos-with-cabbage-slaw-salsa-roja-and-chipotle-yogurt-1</t>
   </si>
   <si>
@@ -2101,21 +3397,48 @@
     <t>https://sunbasket.com/modals/recipe-modal/shrimp-chow-mein-with-broccoli-mushrooms-and-toasted-garlic-1</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/shrimp-paella-2</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/sloppy-joes-with-pickled-jalapenos-and-tangy-coleslaw</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/smoked-linguica-sausage-with-sweet-potatoes-and-cauliflower</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/smokehouse-sausage-jambalaya</t>
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/sole-piccata-with-red-pepper-vinaigrette-and-baby-broccoli</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/spicy-sichuan-dan-dan-noodles-with-tofu-and-kale</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/spicy-sichuan-glass-noodle-stir-fry-with-impossible-plant-based-beef</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/spicy-sichuan-glass-noodles-with-pork-cabbage-and-carrots</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/spicy-southwest-beef-and-sweet-potato-skillet</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/thai-green-curry-with-shrimp-zucchini-and-jasmine-rice</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/chicken-biryani-with-spiced-cauliflower-and-raisins</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/spicy-yuba-noodle-japchae-with-kale-mushrooms-and-pickled-carrots</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/spinach-saag-paneer-with-basmati-rice</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/steak-salad-with-chipotle-vinaigrette-and-grilled-scallionjalapeno-relish</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/steak-stir-fry-with-broccoli-carrots-and-sesame-seeds</t>
   </si>
   <si>
@@ -2131,6 +3454,9 @@
     <t>https://sunbasket.com/modals/recipe-modal/thai-style-spicy-yuba-noodle-soup-with-potato-and-bell-pepper</t>
   </si>
   <si>
+    <t>https://sunbasket.com/modals/recipe-modal/tomato-braised-chicken-with-sweet-potato-and-chard</t>
+  </si>
+  <si>
     <t>https://sunbasket.com/modals/recipe-modal/turkey-bolognese-over-spaghetti</t>
   </si>
   <si>
@@ -2138,6 +3464,18 @@
   </si>
   <si>
     <t>https://sunbasket.com/modals/recipe-modal/vegetarian-couscous-with-artichokes-olives-and-creamy-feta-dressing</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/white-bean-turkey-chili</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/wild-alaskan-halibut-en-papillote-with-avocado-citrus-salsa</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/zesty-black-beanquinoa-bowl</t>
+  </si>
+  <si>
+    <t>https://sunbasket.com/modals/recipe-modal/zucchini-chickpea-kofte-over-mixed-greens-with-mango-amba-dressing</t>
   </si>
   <si>
     <t>Blue Apron</t>
@@ -2526,7 +3864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2548,3424 +3886,5602 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>446</v>
+        <v>724</v>
       </c>
       <c r="D2" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>447</v>
+        <v>725</v>
       </c>
       <c r="D3" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>448</v>
+        <v>726</v>
       </c>
       <c r="D4" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>449</v>
+        <v>727</v>
       </c>
       <c r="D5" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>450</v>
+        <v>728</v>
       </c>
       <c r="D6" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>451</v>
+        <v>729</v>
       </c>
       <c r="D7" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>452</v>
+        <v>730</v>
       </c>
       <c r="D8" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>453</v>
+        <v>731</v>
       </c>
       <c r="D9" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>454</v>
+        <v>732</v>
       </c>
       <c r="D10" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>455</v>
+        <v>733</v>
       </c>
       <c r="D11" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>456</v>
+        <v>734</v>
       </c>
       <c r="D12" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>457</v>
+        <v>735</v>
       </c>
       <c r="D13" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>458</v>
+        <v>736</v>
       </c>
       <c r="D14" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>459</v>
+        <v>737</v>
       </c>
       <c r="D15" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>308</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>460</v>
+        <v>738</v>
       </c>
       <c r="D16" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>461</v>
+        <v>739</v>
       </c>
       <c r="D17" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>462</v>
+        <v>740</v>
       </c>
       <c r="D18" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>463</v>
+        <v>741</v>
       </c>
       <c r="D19" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>464</v>
+        <v>742</v>
       </c>
       <c r="D20" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>465</v>
+        <v>743</v>
       </c>
       <c r="D21" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>466</v>
+        <v>744</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>467</v>
+        <v>745</v>
       </c>
       <c r="D23" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>206</v>
+        <v>316</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>468</v>
+        <v>746</v>
       </c>
       <c r="D24" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>469</v>
+        <v>747</v>
       </c>
       <c r="D25" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>208</v>
+        <v>318</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>470</v>
+        <v>748</v>
       </c>
       <c r="D26" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>319</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>471</v>
+        <v>749</v>
       </c>
       <c r="D27" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>472</v>
+        <v>750</v>
       </c>
       <c r="D28" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>211</v>
+        <v>321</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>473</v>
+        <v>751</v>
       </c>
       <c r="D29" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>474</v>
+        <v>752</v>
       </c>
       <c r="D30" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>213</v>
+        <v>323</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>475</v>
+        <v>753</v>
       </c>
       <c r="D31" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>476</v>
+        <v>754</v>
       </c>
       <c r="D32" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>477</v>
+        <v>755</v>
       </c>
       <c r="D33" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>478</v>
+        <v>756</v>
       </c>
       <c r="D34" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>217</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>479</v>
+        <v>757</v>
       </c>
       <c r="D35" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>218</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>480</v>
+        <v>758</v>
       </c>
       <c r="D36" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>481</v>
+        <v>759</v>
       </c>
       <c r="D37" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>482</v>
+        <v>760</v>
       </c>
       <c r="D38" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>221</v>
+        <v>331</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>483</v>
+        <v>761</v>
       </c>
       <c r="D39" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>222</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>484</v>
+        <v>762</v>
       </c>
       <c r="D40" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>223</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>485</v>
+        <v>763</v>
       </c>
       <c r="D41" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>224</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>486</v>
+        <v>764</v>
       </c>
       <c r="D42" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>487</v>
+        <v>765</v>
       </c>
       <c r="D43" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>226</v>
+        <v>336</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>488</v>
+        <v>766</v>
       </c>
       <c r="D44" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" t="s">
-        <v>227</v>
+        <v>337</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>489</v>
+        <v>767</v>
       </c>
       <c r="D45" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>490</v>
+        <v>768</v>
       </c>
       <c r="D46" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>491</v>
+        <v>769</v>
       </c>
       <c r="D47" t="s">
-        <v>708</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>492</v>
+        <v>770</v>
       </c>
       <c r="D48" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
       <c r="B49" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>493</v>
+        <v>771</v>
       </c>
       <c r="D49" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>494</v>
+        <v>772</v>
       </c>
       <c r="D50" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>495</v>
+        <v>773</v>
       </c>
       <c r="D51" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>496</v>
+        <v>774</v>
       </c>
       <c r="D52" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>5</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>497</v>
+        <v>775</v>
       </c>
       <c r="D53" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>6</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
       <c r="B54" t="s">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>498</v>
+        <v>776</v>
       </c>
       <c r="D54" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
       <c r="B55" t="s">
-        <v>237</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>499</v>
+        <v>777</v>
       </c>
       <c r="D55" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>238</v>
+        <v>348</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>500</v>
+        <v>778</v>
       </c>
       <c r="D56" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>9</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>239</v>
+        <v>349</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>501</v>
+        <v>779</v>
       </c>
       <c r="D57" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>502</v>
+        <v>780</v>
       </c>
       <c r="D58" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>11</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>241</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>503</v>
+        <v>781</v>
       </c>
       <c r="D59" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
       <c r="B60" t="s">
-        <v>242</v>
+        <v>352</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>504</v>
+        <v>782</v>
       </c>
       <c r="D60" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>505</v>
+        <v>783</v>
       </c>
       <c r="D61" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>14</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>244</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>506</v>
+        <v>784</v>
       </c>
       <c r="D62" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
       <c r="B63" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>507</v>
+        <v>785</v>
       </c>
       <c r="D63" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>508</v>
+        <v>786</v>
       </c>
       <c r="D64" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>17</v>
-      </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>357</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>509</v>
+        <v>787</v>
       </c>
       <c r="D65" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>18</v>
-      </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>510</v>
+        <v>788</v>
       </c>
       <c r="D66" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>359</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>511</v>
+        <v>789</v>
       </c>
       <c r="D67" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>20</v>
-      </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>512</v>
+        <v>790</v>
       </c>
       <c r="D68" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>21</v>
-      </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>513</v>
+        <v>791</v>
       </c>
       <c r="D69" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>22</v>
-      </c>
       <c r="B70" t="s">
-        <v>252</v>
+        <v>362</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>514</v>
+        <v>792</v>
       </c>
       <c r="D70" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>363</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>515</v>
+        <v>793</v>
       </c>
       <c r="D71" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>24</v>
-      </c>
       <c r="B72" t="s">
-        <v>254</v>
+        <v>364</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>516</v>
+        <v>794</v>
       </c>
       <c r="D72" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>25</v>
-      </c>
       <c r="B73" t="s">
-        <v>255</v>
+        <v>365</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>517</v>
+        <v>795</v>
       </c>
       <c r="D73" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>26</v>
-      </c>
       <c r="B74" t="s">
-        <v>256</v>
+        <v>366</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>518</v>
+        <v>796</v>
       </c>
       <c r="D74" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>27</v>
-      </c>
       <c r="B75" t="s">
-        <v>257</v>
+        <v>367</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>519</v>
+        <v>797</v>
       </c>
       <c r="D75" t="s">
-        <v>709</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>520</v>
+        <v>798</v>
       </c>
       <c r="D76" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>521</v>
+        <v>799</v>
       </c>
       <c r="D77" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>260</v>
+        <v>370</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>522</v>
+        <v>800</v>
       </c>
       <c r="D78" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>261</v>
+        <v>371</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>523</v>
+        <v>801</v>
       </c>
       <c r="D79" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>262</v>
+        <v>372</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>524</v>
+        <v>802</v>
       </c>
       <c r="D80" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>525</v>
+        <v>803</v>
       </c>
       <c r="D81" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>526</v>
+        <v>804</v>
       </c>
       <c r="D82" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>375</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>527</v>
+        <v>805</v>
       </c>
       <c r="D83" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>376</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>528</v>
+        <v>806</v>
       </c>
       <c r="D84" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>267</v>
+        <v>377</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>529</v>
+        <v>807</v>
       </c>
       <c r="D85" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>378</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>530</v>
+        <v>808</v>
       </c>
       <c r="D86" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>531</v>
+        <v>809</v>
       </c>
       <c r="D87" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>532</v>
+        <v>810</v>
       </c>
       <c r="D88" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>533</v>
+        <v>811</v>
       </c>
       <c r="D89" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>382</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>534</v>
+        <v>812</v>
       </c>
       <c r="D90" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>535</v>
+        <v>813</v>
       </c>
       <c r="D91" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>536</v>
+        <v>814</v>
       </c>
       <c r="D92" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>385</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>537</v>
+        <v>815</v>
       </c>
       <c r="D93" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>538</v>
+        <v>816</v>
       </c>
       <c r="D94" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>387</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>539</v>
+        <v>817</v>
       </c>
       <c r="D95" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>388</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>540</v>
+        <v>818</v>
       </c>
       <c r="D96" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>389</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>541</v>
+        <v>819</v>
       </c>
       <c r="D97" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>542</v>
+        <v>820</v>
       </c>
       <c r="D98" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>391</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>543</v>
+        <v>821</v>
       </c>
       <c r="D99" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>392</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>544</v>
+        <v>822</v>
       </c>
       <c r="D100" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>283</v>
+        <v>393</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>545</v>
+        <v>823</v>
       </c>
       <c r="D101" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>394</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>546</v>
+        <v>824</v>
       </c>
       <c r="D102" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>395</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>547</v>
+        <v>825</v>
       </c>
       <c r="D103" t="s">
-        <v>709</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>548</v>
+        <v>826</v>
       </c>
       <c r="D104" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B105" t="s">
-        <v>287</v>
+        <v>397</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>549</v>
+        <v>827</v>
       </c>
       <c r="D105" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>550</v>
+        <v>828</v>
       </c>
       <c r="D106" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>551</v>
+        <v>829</v>
       </c>
       <c r="D107" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>400</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>552</v>
+        <v>830</v>
       </c>
       <c r="D108" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>553</v>
+        <v>831</v>
       </c>
       <c r="D109" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>554</v>
+        <v>832</v>
       </c>
       <c r="D110" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>293</v>
+        <v>403</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>555</v>
+        <v>833</v>
       </c>
       <c r="D111" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>294</v>
+        <v>404</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>556</v>
+        <v>834</v>
       </c>
       <c r="D112" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>295</v>
+        <v>405</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>557</v>
+        <v>835</v>
       </c>
       <c r="D113" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>296</v>
+        <v>406</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>558</v>
+        <v>836</v>
       </c>
       <c r="D114" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B115" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>559</v>
+        <v>837</v>
       </c>
       <c r="D115" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B116" t="s">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>560</v>
+        <v>838</v>
       </c>
       <c r="D116" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>299</v>
+        <v>409</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>561</v>
+        <v>839</v>
       </c>
       <c r="D117" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>300</v>
+        <v>410</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>562</v>
+        <v>840</v>
       </c>
       <c r="D118" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B119" t="s">
-        <v>301</v>
+        <v>411</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>563</v>
+        <v>841</v>
       </c>
       <c r="D119" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B120" t="s">
-        <v>302</v>
+        <v>412</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>564</v>
+        <v>842</v>
       </c>
       <c r="D120" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>413</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>565</v>
+        <v>843</v>
       </c>
       <c r="D121" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>414</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>566</v>
+        <v>844</v>
       </c>
       <c r="D122" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>415</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>567</v>
+        <v>845</v>
       </c>
       <c r="D123" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B124" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>568</v>
+        <v>846</v>
       </c>
       <c r="D124" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>569</v>
+        <v>847</v>
       </c>
       <c r="D125" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B126" t="s">
-        <v>308</v>
+        <v>418</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>570</v>
+        <v>848</v>
       </c>
       <c r="D126" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>419</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>571</v>
+        <v>849</v>
       </c>
       <c r="D127" t="s">
-        <v>710</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B128" t="s">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>572</v>
+        <v>850</v>
       </c>
       <c r="D128" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B129" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>573</v>
+        <v>851</v>
       </c>
       <c r="D129" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B130" t="s">
-        <v>312</v>
+        <v>422</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>574</v>
+        <v>852</v>
       </c>
       <c r="D130" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>313</v>
+        <v>423</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>575</v>
+        <v>853</v>
       </c>
       <c r="D131" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>424</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>576</v>
+        <v>854</v>
       </c>
       <c r="D132" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>577</v>
+        <v>855</v>
       </c>
       <c r="D133" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B134" t="s">
-        <v>316</v>
+        <v>426</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>578</v>
+        <v>856</v>
       </c>
       <c r="D134" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B135" t="s">
-        <v>317</v>
+        <v>427</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>579</v>
+        <v>857</v>
       </c>
       <c r="D135" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B136" t="s">
-        <v>318</v>
+        <v>428</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>580</v>
+        <v>858</v>
       </c>
       <c r="D136" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>429</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>581</v>
+        <v>859</v>
       </c>
       <c r="D137" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B138" t="s">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>582</v>
+        <v>860</v>
       </c>
       <c r="D138" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B139" t="s">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>583</v>
+        <v>861</v>
       </c>
       <c r="D139" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B140" t="s">
-        <v>322</v>
+        <v>432</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>584</v>
+        <v>862</v>
       </c>
       <c r="D140" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B141" t="s">
-        <v>323</v>
+        <v>433</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>585</v>
+        <v>863</v>
       </c>
       <c r="D141" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="B142" t="s">
-        <v>324</v>
+        <v>434</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>586</v>
+        <v>864</v>
       </c>
       <c r="D142" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B143" t="s">
-        <v>325</v>
+        <v>435</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>587</v>
+        <v>865</v>
       </c>
       <c r="D143" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B144" t="s">
-        <v>326</v>
+        <v>436</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>588</v>
+        <v>866</v>
       </c>
       <c r="D144" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>437</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>589</v>
+        <v>867</v>
       </c>
       <c r="D145" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>590</v>
+        <v>868</v>
       </c>
       <c r="D146" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B147" t="s">
-        <v>329</v>
+        <v>439</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>591</v>
+        <v>869</v>
       </c>
       <c r="D147" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>592</v>
+        <v>870</v>
       </c>
       <c r="D148" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B149" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>593</v>
+        <v>871</v>
       </c>
       <c r="D149" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B150" t="s">
-        <v>332</v>
+        <v>442</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>594</v>
+        <v>872</v>
       </c>
       <c r="D150" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B151" t="s">
-        <v>333</v>
+        <v>443</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>595</v>
+        <v>873</v>
       </c>
       <c r="D151" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>444</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>596</v>
+        <v>874</v>
       </c>
       <c r="D152" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s">
-        <v>335</v>
+        <v>445</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>597</v>
+        <v>875</v>
       </c>
       <c r="D153" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B154" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>598</v>
+        <v>876</v>
       </c>
       <c r="D154" t="s">
-        <v>711</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>337</v>
+        <v>447</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>599</v>
+        <v>877</v>
       </c>
       <c r="D155" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>448</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>600</v>
+        <v>878</v>
       </c>
       <c r="D156" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>601</v>
+        <v>879</v>
       </c>
       <c r="D157" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B158" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>602</v>
+        <v>880</v>
       </c>
       <c r="D158" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B159" t="s">
-        <v>341</v>
+        <v>451</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>603</v>
+        <v>881</v>
       </c>
       <c r="D159" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B160" t="s">
-        <v>342</v>
+        <v>452</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>604</v>
+        <v>882</v>
       </c>
       <c r="D160" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>453</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>605</v>
+        <v>883</v>
       </c>
       <c r="D161" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B162" t="s">
-        <v>344</v>
+        <v>454</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>606</v>
+        <v>884</v>
       </c>
       <c r="D162" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B163" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>607</v>
+        <v>885</v>
       </c>
       <c r="D163" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B164" t="s">
-        <v>346</v>
+        <v>456</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>608</v>
+        <v>886</v>
       </c>
       <c r="D164" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B165" t="s">
-        <v>347</v>
+        <v>457</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>609</v>
+        <v>887</v>
       </c>
       <c r="D165" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B166" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>610</v>
+        <v>888</v>
       </c>
       <c r="D166" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B167" t="s">
-        <v>349</v>
+        <v>459</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>611</v>
+        <v>889</v>
       </c>
       <c r="D167" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B168" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>612</v>
+        <v>890</v>
       </c>
       <c r="D168" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B169" t="s">
-        <v>351</v>
+        <v>461</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>613</v>
+        <v>891</v>
       </c>
       <c r="D169" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B170" t="s">
-        <v>352</v>
+        <v>462</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>614</v>
+        <v>892</v>
       </c>
       <c r="D170" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>353</v>
+        <v>463</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>615</v>
+        <v>893</v>
       </c>
       <c r="D171" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>616</v>
+        <v>894</v>
       </c>
       <c r="D172" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B173" t="s">
-        <v>355</v>
+        <v>465</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>617</v>
+        <v>895</v>
       </c>
       <c r="D173" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B174" t="s">
-        <v>356</v>
+        <v>466</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>618</v>
+        <v>896</v>
       </c>
       <c r="D174" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B175" t="s">
-        <v>357</v>
+        <v>467</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>619</v>
+        <v>897</v>
       </c>
       <c r="D175" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="B176" t="s">
-        <v>358</v>
+        <v>468</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>620</v>
+        <v>898</v>
       </c>
       <c r="D176" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B177" t="s">
-        <v>359</v>
+        <v>469</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>621</v>
+        <v>899</v>
       </c>
       <c r="D177" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B178" t="s">
-        <v>360</v>
+        <v>470</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>622</v>
+        <v>900</v>
       </c>
       <c r="D178" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B179" t="s">
-        <v>361</v>
+        <v>471</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>623</v>
+        <v>901</v>
       </c>
       <c r="D179" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
+        <v>472</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>624</v>
+        <v>902</v>
       </c>
       <c r="D180" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B181" t="s">
-        <v>363</v>
+        <v>473</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>625</v>
+        <v>903</v>
       </c>
       <c r="D181" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B182" t="s">
-        <v>364</v>
+        <v>474</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>626</v>
+        <v>904</v>
       </c>
       <c r="D182" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="B183" t="s">
-        <v>365</v>
+        <v>475</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>627</v>
+        <v>905</v>
       </c>
       <c r="D183" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B184" t="s">
-        <v>366</v>
+        <v>476</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>628</v>
+        <v>906</v>
       </c>
       <c r="D184" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B185" t="s">
-        <v>367</v>
+        <v>477</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>629</v>
+        <v>907</v>
       </c>
       <c r="D185" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B186" t="s">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>630</v>
+        <v>908</v>
       </c>
       <c r="D186" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B187" t="s">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>631</v>
+        <v>909</v>
       </c>
       <c r="D187" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>480</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>632</v>
+        <v>910</v>
       </c>
       <c r="D188" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="B189" t="s">
-        <v>371</v>
+        <v>481</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>633</v>
+        <v>911</v>
       </c>
       <c r="D189" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>482</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>634</v>
+        <v>912</v>
       </c>
       <c r="D190" t="s">
-        <v>711</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="B191" t="s">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>635</v>
+        <v>913</v>
       </c>
       <c r="D191" t="s">
-        <v>711</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B192" t="s">
-        <v>374</v>
+        <v>484</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>636</v>
+        <v>914</v>
       </c>
       <c r="D192" t="s">
-        <v>711</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
+        <v>121</v>
+      </c>
+      <c r="B193" t="s">
+        <v>485</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>122</v>
+      </c>
+      <c r="B194" t="s">
+        <v>486</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>123</v>
+      </c>
+      <c r="B195" t="s">
+        <v>487</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>124</v>
+      </c>
+      <c r="B196" t="s">
+        <v>488</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>125</v>
+      </c>
+      <c r="B197" t="s">
+        <v>489</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>126</v>
+      </c>
+      <c r="B198" t="s">
+        <v>490</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>127</v>
+      </c>
+      <c r="B199" t="s">
+        <v>491</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>128</v>
+      </c>
+      <c r="B200" t="s">
+        <v>492</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>129</v>
+      </c>
+      <c r="B201" t="s">
+        <v>493</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>130</v>
+      </c>
+      <c r="B202" t="s">
+        <v>494</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>131</v>
+      </c>
+      <c r="B203" t="s">
+        <v>495</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>132</v>
+      </c>
+      <c r="B204" t="s">
+        <v>496</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>133</v>
+      </c>
+      <c r="B205" t="s">
+        <v>497</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>134</v>
+      </c>
+      <c r="B206" t="s">
+        <v>498</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>135</v>
+      </c>
+      <c r="B207" t="s">
+        <v>499</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>136</v>
+      </c>
+      <c r="B208" t="s">
+        <v>500</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>137</v>
+      </c>
+      <c r="B209" t="s">
+        <v>501</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>138</v>
+      </c>
+      <c r="B210" t="s">
+        <v>502</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>139</v>
+      </c>
+      <c r="B211" t="s">
+        <v>503</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>140</v>
+      </c>
+      <c r="B212" t="s">
+        <v>504</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>141</v>
+      </c>
+      <c r="B213" t="s">
+        <v>505</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>142</v>
+      </c>
+      <c r="B214" t="s">
+        <v>506</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>143</v>
+      </c>
+      <c r="B215" t="s">
+        <v>507</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>144</v>
+      </c>
+      <c r="B216" t="s">
+        <v>508</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
         <v>145</v>
       </c>
-      <c r="B193" t="s">
-        <v>375</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D193" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="B194" t="s">
-        <v>376</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="D194" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="B195" t="s">
-        <v>377</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="D195" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
-      <c r="B196" t="s">
-        <v>378</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D196" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="B197" t="s">
-        <v>379</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="D197" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4">
-      <c r="B198" t="s">
-        <v>380</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D198" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4">
-      <c r="B199" t="s">
-        <v>381</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D199" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4">
-      <c r="B200" t="s">
-        <v>382</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="D200" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4">
-      <c r="B201" t="s">
-        <v>383</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D201" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="B202" t="s">
-        <v>384</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D202" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="B203" t="s">
-        <v>385</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D203" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="B204" t="s">
-        <v>386</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D204" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="B205" t="s">
-        <v>387</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D205" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="B206" t="s">
-        <v>388</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D206" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
-      <c r="B207" t="s">
-        <v>389</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D207" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="B208" t="s">
-        <v>390</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D208" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" t="s">
-        <v>391</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D209" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4">
-      <c r="B210" t="s">
-        <v>392</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="D210" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="211" spans="2:4">
-      <c r="B211" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D211" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4">
-      <c r="B212" t="s">
-        <v>394</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D212" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4">
-      <c r="B213" t="s">
-        <v>395</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D213" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="214" spans="2:4">
-      <c r="B214" t="s">
-        <v>396</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D214" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" t="s">
-        <v>397</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D215" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="216" spans="2:4">
-      <c r="B216" t="s">
-        <v>398</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D216" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="217" spans="2:4">
       <c r="B217" t="s">
-        <v>399</v>
+        <v>509</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>661</v>
+        <v>939</v>
       </c>
       <c r="D217" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="218" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>146</v>
+      </c>
       <c r="B218" t="s">
-        <v>400</v>
+        <v>510</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>662</v>
+        <v>940</v>
       </c>
       <c r="D218" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="219" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>147</v>
+      </c>
       <c r="B219" t="s">
-        <v>401</v>
+        <v>511</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>663</v>
+        <v>941</v>
       </c>
       <c r="D219" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>148</v>
+      </c>
       <c r="B220" t="s">
-        <v>402</v>
+        <v>512</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>664</v>
+        <v>942</v>
       </c>
       <c r="D220" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>149</v>
+      </c>
       <c r="B221" t="s">
-        <v>403</v>
+        <v>513</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>665</v>
+        <v>943</v>
       </c>
       <c r="D221" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>150</v>
+      </c>
       <c r="B222" t="s">
-        <v>404</v>
+        <v>514</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>666</v>
+        <v>944</v>
       </c>
       <c r="D222" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="223" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>151</v>
+      </c>
       <c r="B223" t="s">
-        <v>405</v>
+        <v>515</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>667</v>
+        <v>945</v>
       </c>
       <c r="D223" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>152</v>
+      </c>
       <c r="B224" t="s">
-        <v>406</v>
+        <v>516</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>668</v>
+        <v>946</v>
       </c>
       <c r="D224" t="s">
-        <v>712</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>153</v>
+      </c>
       <c r="B225" t="s">
-        <v>407</v>
+        <v>517</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>669</v>
+        <v>947</v>
       </c>
       <c r="D225" t="s">
-        <v>712</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B226" t="s">
-        <v>408</v>
+        <v>518</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>670</v>
+        <v>948</v>
       </c>
       <c r="D226" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B227" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>671</v>
+        <v>949</v>
       </c>
       <c r="D227" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B228" t="s">
-        <v>410</v>
+        <v>520</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>672</v>
+        <v>950</v>
       </c>
       <c r="D228" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B229" t="s">
-        <v>411</v>
+        <v>521</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>673</v>
+        <v>951</v>
       </c>
       <c r="D229" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B230" t="s">
-        <v>412</v>
+        <v>522</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>674</v>
+        <v>952</v>
       </c>
       <c r="D230" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B231" t="s">
-        <v>413</v>
+        <v>523</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>675</v>
+        <v>953</v>
       </c>
       <c r="D231" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B232" t="s">
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>676</v>
+        <v>954</v>
       </c>
       <c r="D232" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B233" t="s">
-        <v>415</v>
+        <v>525</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>677</v>
+        <v>955</v>
       </c>
       <c r="D233" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B234" t="s">
-        <v>416</v>
+        <v>526</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>678</v>
+        <v>956</v>
       </c>
       <c r="D234" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B235" t="s">
-        <v>417</v>
+        <v>527</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>679</v>
+        <v>957</v>
       </c>
       <c r="D235" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B236" t="s">
-        <v>418</v>
+        <v>528</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>680</v>
+        <v>958</v>
       </c>
       <c r="D236" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B237" t="s">
-        <v>419</v>
+        <v>529</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>681</v>
+        <v>959</v>
       </c>
       <c r="D237" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B238" t="s">
-        <v>420</v>
+        <v>530</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>682</v>
+        <v>960</v>
       </c>
       <c r="D238" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B239" t="s">
-        <v>421</v>
+        <v>531</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>683</v>
+        <v>961</v>
       </c>
       <c r="D239" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B240" t="s">
-        <v>422</v>
+        <v>532</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>684</v>
+        <v>962</v>
       </c>
       <c r="D240" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B241" t="s">
-        <v>423</v>
+        <v>533</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>685</v>
+        <v>963</v>
       </c>
       <c r="D241" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B242" t="s">
-        <v>424</v>
+        <v>534</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>686</v>
+        <v>964</v>
       </c>
       <c r="D242" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B243" t="s">
-        <v>425</v>
+        <v>535</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>687</v>
+        <v>965</v>
       </c>
       <c r="D243" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B244" t="s">
-        <v>426</v>
+        <v>536</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>688</v>
+        <v>966</v>
       </c>
       <c r="D244" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B245" t="s">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>689</v>
+        <v>967</v>
       </c>
       <c r="D245" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B246" t="s">
-        <v>428</v>
+        <v>538</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>690</v>
+        <v>968</v>
       </c>
       <c r="D246" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B247" t="s">
-        <v>429</v>
+        <v>539</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>691</v>
+        <v>969</v>
       </c>
       <c r="D247" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B248" t="s">
-        <v>430</v>
+        <v>540</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>692</v>
+        <v>970</v>
       </c>
       <c r="D248" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B249" t="s">
-        <v>431</v>
+        <v>541</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>693</v>
+        <v>971</v>
       </c>
       <c r="D249" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B250" t="s">
-        <v>432</v>
+        <v>542</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>694</v>
+        <v>972</v>
       </c>
       <c r="D250" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B251" t="s">
-        <v>433</v>
+        <v>543</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>695</v>
+        <v>973</v>
       </c>
       <c r="D251" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B252" t="s">
-        <v>434</v>
+        <v>544</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>696</v>
+        <v>974</v>
       </c>
       <c r="D252" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B253" t="s">
-        <v>435</v>
+        <v>545</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>697</v>
+        <v>975</v>
       </c>
       <c r="D253" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B254" t="s">
-        <v>436</v>
+        <v>546</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>698</v>
+        <v>976</v>
       </c>
       <c r="D254" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B255" t="s">
-        <v>437</v>
+        <v>547</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>699</v>
+        <v>977</v>
       </c>
       <c r="D255" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B256" t="s">
-        <v>438</v>
+        <v>548</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>700</v>
+        <v>978</v>
       </c>
       <c r="D256" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B257" t="s">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>701</v>
+        <v>979</v>
       </c>
       <c r="D257" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B258" t="s">
-        <v>440</v>
+        <v>550</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>702</v>
+        <v>980</v>
       </c>
       <c r="D258" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B259" t="s">
-        <v>441</v>
+        <v>551</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>703</v>
+        <v>981</v>
       </c>
       <c r="D259" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B260" t="s">
-        <v>442</v>
+        <v>552</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>704</v>
+        <v>982</v>
       </c>
       <c r="D260" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B261" t="s">
-        <v>443</v>
+        <v>553</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>705</v>
+        <v>983</v>
       </c>
       <c r="D261" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B262" t="s">
-        <v>444</v>
+        <v>554</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>706</v>
+        <v>984</v>
       </c>
       <c r="D262" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B263" t="s">
-        <v>445</v>
+        <v>555</v>
       </c>
       <c r="C263" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>192</v>
+      </c>
+      <c r="B264" t="s">
+        <v>556</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>193</v>
+      </c>
+      <c r="B265" t="s">
+        <v>557</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>194</v>
+      </c>
+      <c r="B266" t="s">
+        <v>558</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>195</v>
+      </c>
+      <c r="B267" t="s">
+        <v>559</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>196</v>
+      </c>
+      <c r="B268" t="s">
+        <v>560</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>197</v>
+      </c>
+      <c r="B269" t="s">
+        <v>561</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>198</v>
+      </c>
+      <c r="B270" t="s">
+        <v>562</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>199</v>
+      </c>
+      <c r="B271" t="s">
+        <v>563</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>200</v>
+      </c>
+      <c r="B272" t="s">
+        <v>564</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>201</v>
+      </c>
+      <c r="B273" t="s">
+        <v>565</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>202</v>
+      </c>
+      <c r="B274" t="s">
+        <v>566</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>203</v>
+      </c>
+      <c r="B275" t="s">
+        <v>567</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>204</v>
+      </c>
+      <c r="B276" t="s">
+        <v>568</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>205</v>
+      </c>
+      <c r="B277" t="s">
+        <v>569</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>206</v>
+      </c>
+      <c r="B278" t="s">
+        <v>570</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>207</v>
+      </c>
+      <c r="B279" t="s">
+        <v>571</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>208</v>
+      </c>
+      <c r="B280" t="s">
+        <v>572</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>209</v>
+      </c>
+      <c r="B281" t="s">
+        <v>573</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>210</v>
+      </c>
+      <c r="B282" t="s">
+        <v>574</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>211</v>
+      </c>
+      <c r="B283" t="s">
+        <v>575</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>212</v>
+      </c>
+      <c r="B284" t="s">
+        <v>576</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>213</v>
+      </c>
+      <c r="B285" t="s">
+        <v>577</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>214</v>
+      </c>
+      <c r="B286" t="s">
+        <v>578</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>215</v>
+      </c>
+      <c r="B287" t="s">
+        <v>579</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>216</v>
+      </c>
+      <c r="B288" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4">
+      <c r="B289" t="s">
+        <v>581</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4">
+      <c r="B290" t="s">
+        <v>582</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4">
+      <c r="B291" t="s">
+        <v>583</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4">
+      <c r="B292" t="s">
+        <v>584</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4">
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4">
+      <c r="B294" t="s">
+        <v>586</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4">
+      <c r="B295" t="s">
+        <v>587</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="B296" t="s">
+        <v>588</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="B297" t="s">
+        <v>589</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="B298" t="s">
+        <v>590</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="B299" t="s">
+        <v>591</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="B300" t="s">
+        <v>592</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4">
+      <c r="B301" t="s">
+        <v>593</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4">
+      <c r="B302" t="s">
+        <v>594</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="B303" t="s">
+        <v>595</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="B304" t="s">
+        <v>596</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4">
+      <c r="B305" t="s">
+        <v>597</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4">
+      <c r="B306" t="s">
+        <v>598</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4">
+      <c r="B307" t="s">
+        <v>599</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4">
+      <c r="B308" t="s">
+        <v>600</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4">
+      <c r="B309" t="s">
+        <v>601</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4">
+      <c r="B310" t="s">
+        <v>602</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4">
+      <c r="B311" t="s">
+        <v>603</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4">
+      <c r="B312" t="s">
+        <v>604</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4">
+      <c r="B313" t="s">
+        <v>605</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4">
+      <c r="B314" t="s">
+        <v>606</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4">
+      <c r="B315" t="s">
+        <v>607</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4">
+      <c r="B316" t="s">
+        <v>608</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4">
+      <c r="B317" t="s">
+        <v>609</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4">
+      <c r="B318" t="s">
+        <v>610</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4">
+      <c r="B319" t="s">
+        <v>611</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4">
+      <c r="B320" t="s">
+        <v>612</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4">
+      <c r="B321" t="s">
+        <v>613</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4">
+      <c r="B322" t="s">
+        <v>614</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4">
+      <c r="B323" t="s">
+        <v>615</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4">
+      <c r="B324" t="s">
+        <v>616</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4">
+      <c r="B325" t="s">
+        <v>617</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4">
+      <c r="B326" t="s">
+        <v>618</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4">
+      <c r="B327" t="s">
+        <v>619</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4">
+      <c r="B328" t="s">
+        <v>620</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4">
+      <c r="B329" t="s">
+        <v>621</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4">
+      <c r="B330" t="s">
+        <v>622</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4">
+      <c r="B331" t="s">
+        <v>623</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4">
+      <c r="B332" t="s">
+        <v>624</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4">
+      <c r="B333" t="s">
+        <v>625</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4">
+      <c r="B334" t="s">
+        <v>626</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4">
+      <c r="B335" t="s">
+        <v>627</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4">
+      <c r="B336" t="s">
+        <v>628</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4">
+      <c r="B337" t="s">
+        <v>629</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4">
+      <c r="B338" t="s">
+        <v>630</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4">
+      <c r="B339" t="s">
+        <v>631</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4">
+      <c r="B340" t="s">
+        <v>632</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4">
+      <c r="B341" t="s">
+        <v>633</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4">
+      <c r="B342" t="s">
+        <v>634</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4">
+      <c r="B343" t="s">
+        <v>635</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4">
+      <c r="B344" t="s">
+        <v>636</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4">
+      <c r="B345" t="s">
+        <v>637</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4">
+      <c r="B346" t="s">
+        <v>638</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4">
+      <c r="B347" t="s">
+        <v>639</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4">
+      <c r="B348" t="s">
+        <v>640</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4">
+      <c r="B349" t="s">
+        <v>641</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4">
+      <c r="B350" t="s">
+        <v>642</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4">
+      <c r="B351" t="s">
+        <v>643</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4">
+      <c r="B352" t="s">
+        <v>644</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="B353" t="s">
+        <v>645</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="B354" t="s">
+        <v>646</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>217</v>
+      </c>
+      <c r="B355" t="s">
+        <v>647</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>218</v>
+      </c>
+      <c r="B356" t="s">
+        <v>648</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>219</v>
+      </c>
+      <c r="B357" t="s">
+        <v>649</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>220</v>
+      </c>
+      <c r="B358" t="s">
+        <v>650</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>221</v>
+      </c>
+      <c r="B359" t="s">
+        <v>651</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>222</v>
+      </c>
+      <c r="B360" t="s">
+        <v>652</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>223</v>
+      </c>
+      <c r="B361" t="s">
+        <v>653</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>224</v>
+      </c>
+      <c r="B362" t="s">
+        <v>654</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>225</v>
+      </c>
+      <c r="B363" t="s">
+        <v>655</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>226</v>
+      </c>
+      <c r="B364" t="s">
+        <v>656</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>227</v>
+      </c>
+      <c r="B365" t="s">
+        <v>657</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>228</v>
+      </c>
+      <c r="B366" t="s">
+        <v>658</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>229</v>
+      </c>
+      <c r="B367" t="s">
+        <v>659</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>230</v>
+      </c>
+      <c r="B368" t="s">
+        <v>660</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>231</v>
+      </c>
+      <c r="B369" t="s">
+        <v>661</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>232</v>
+      </c>
+      <c r="B370" t="s">
+        <v>662</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>233</v>
+      </c>
+      <c r="B371" t="s">
+        <v>663</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>234</v>
+      </c>
+      <c r="B372" t="s">
+        <v>664</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>235</v>
+      </c>
+      <c r="B373" t="s">
+        <v>665</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>236</v>
+      </c>
+      <c r="B374" t="s">
+        <v>666</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" t="s">
+        <v>237</v>
+      </c>
+      <c r="B375" t="s">
+        <v>667</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>238</v>
+      </c>
+      <c r="B376" t="s">
+        <v>668</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>239</v>
+      </c>
+      <c r="B377" t="s">
+        <v>669</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D377" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>240</v>
+      </c>
+      <c r="B378" t="s">
+        <v>670</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D378" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>241</v>
+      </c>
+      <c r="B379" t="s">
+        <v>671</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D379" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>242</v>
+      </c>
+      <c r="B380" t="s">
+        <v>672</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D380" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>243</v>
+      </c>
+      <c r="B381" t="s">
+        <v>673</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D381" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>244</v>
+      </c>
+      <c r="B382" t="s">
+        <v>674</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D382" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>245</v>
+      </c>
+      <c r="B383" t="s">
+        <v>675</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D383" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>246</v>
+      </c>
+      <c r="B384" t="s">
+        <v>676</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>247</v>
+      </c>
+      <c r="B385" t="s">
+        <v>677</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>248</v>
+      </c>
+      <c r="B386" t="s">
+        <v>678</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>249</v>
+      </c>
+      <c r="B387" t="s">
+        <v>679</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>250</v>
+      </c>
+      <c r="B388" t="s">
+        <v>680</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>251</v>
+      </c>
+      <c r="B389" t="s">
+        <v>681</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>252</v>
+      </c>
+      <c r="B390" t="s">
+        <v>682</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>253</v>
+      </c>
+      <c r="B391" t="s">
+        <v>683</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="s">
+        <v>254</v>
+      </c>
+      <c r="B392" t="s">
+        <v>684</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>255</v>
+      </c>
+      <c r="B393" t="s">
+        <v>685</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>256</v>
+      </c>
+      <c r="B394" t="s">
+        <v>686</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>257</v>
+      </c>
+      <c r="B395" t="s">
+        <v>687</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>258</v>
+      </c>
+      <c r="B396" t="s">
+        <v>688</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>259</v>
+      </c>
+      <c r="B397" t="s">
+        <v>689</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>260</v>
+      </c>
+      <c r="B398" t="s">
+        <v>690</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D398" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>261</v>
+      </c>
+      <c r="B399" t="s">
+        <v>691</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D399" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>262</v>
+      </c>
+      <c r="B400" t="s">
+        <v>692</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>263</v>
+      </c>
+      <c r="B401" t="s">
+        <v>693</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>264</v>
+      </c>
+      <c r="B402" t="s">
+        <v>694</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>265</v>
+      </c>
+      <c r="B403" t="s">
+        <v>695</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>266</v>
+      </c>
+      <c r="B404" t="s">
+        <v>696</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>267</v>
+      </c>
+      <c r="B405" t="s">
+        <v>697</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>268</v>
+      </c>
+      <c r="B406" t="s">
+        <v>698</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>269</v>
+      </c>
+      <c r="B407" t="s">
+        <v>699</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>270</v>
+      </c>
+      <c r="B408" t="s">
+        <v>700</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" t="s">
+        <v>271</v>
+      </c>
+      <c r="B409" t="s">
+        <v>701</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>272</v>
+      </c>
+      <c r="B410" t="s">
+        <v>702</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>273</v>
+      </c>
+      <c r="B411" t="s">
+        <v>703</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>274</v>
+      </c>
+      <c r="B412" t="s">
+        <v>704</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>275</v>
+      </c>
+      <c r="B413" t="s">
+        <v>705</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>276</v>
+      </c>
+      <c r="B414" t="s">
+        <v>706</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>277</v>
+      </c>
+      <c r="B415" t="s">
         <v>707</v>
       </c>
-      <c r="D263" t="s">
+      <c r="C415" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D415" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>278</v>
+      </c>
+      <c r="B416" t="s">
+        <v>708</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D416" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>279</v>
+      </c>
+      <c r="B417" t="s">
+        <v>709</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D417" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>280</v>
+      </c>
+      <c r="B418" t="s">
+        <v>710</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D418" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>281</v>
+      </c>
+      <c r="B419" t="s">
+        <v>711</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D419" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>282</v>
+      </c>
+      <c r="B420" t="s">
+        <v>712</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D420" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>283</v>
+      </c>
+      <c r="B421" t="s">
         <v>713</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D421" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>284</v>
+      </c>
+      <c r="B422" t="s">
+        <v>714</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D422" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>285</v>
+      </c>
+      <c r="B423" t="s">
+        <v>715</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D423" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>286</v>
+      </c>
+      <c r="B424" t="s">
+        <v>716</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>287</v>
+      </c>
+      <c r="B425" t="s">
+        <v>717</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" t="s">
+        <v>288</v>
+      </c>
+      <c r="B426" t="s">
+        <v>718</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>289</v>
+      </c>
+      <c r="B427" t="s">
+        <v>719</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D427" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>290</v>
+      </c>
+      <c r="B428" t="s">
+        <v>720</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D428" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>291</v>
+      </c>
+      <c r="B429" t="s">
+        <v>721</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D429" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>292</v>
+      </c>
+      <c r="B430" t="s">
+        <v>722</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D430" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>293</v>
+      </c>
+      <c r="B431" t="s">
+        <v>723</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D431" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -6232,6 +9748,174 @@
     <hyperlink ref="C261" r:id="rId260"/>
     <hyperlink ref="C262" r:id="rId261"/>
     <hyperlink ref="C263" r:id="rId262"/>
+    <hyperlink ref="C264" r:id="rId263"/>
+    <hyperlink ref="C265" r:id="rId264"/>
+    <hyperlink ref="C266" r:id="rId265"/>
+    <hyperlink ref="C267" r:id="rId266"/>
+    <hyperlink ref="C268" r:id="rId267"/>
+    <hyperlink ref="C269" r:id="rId268"/>
+    <hyperlink ref="C270" r:id="rId269"/>
+    <hyperlink ref="C271" r:id="rId270"/>
+    <hyperlink ref="C272" r:id="rId271"/>
+    <hyperlink ref="C273" r:id="rId272"/>
+    <hyperlink ref="C274" r:id="rId273"/>
+    <hyperlink ref="C275" r:id="rId274"/>
+    <hyperlink ref="C276" r:id="rId275"/>
+    <hyperlink ref="C277" r:id="rId276"/>
+    <hyperlink ref="C278" r:id="rId277"/>
+    <hyperlink ref="C279" r:id="rId278"/>
+    <hyperlink ref="C280" r:id="rId279"/>
+    <hyperlink ref="C281" r:id="rId280"/>
+    <hyperlink ref="C282" r:id="rId281"/>
+    <hyperlink ref="C283" r:id="rId282"/>
+    <hyperlink ref="C284" r:id="rId283"/>
+    <hyperlink ref="C285" r:id="rId284"/>
+    <hyperlink ref="C286" r:id="rId285"/>
+    <hyperlink ref="C287" r:id="rId286"/>
+    <hyperlink ref="C288" r:id="rId287"/>
+    <hyperlink ref="C289" r:id="rId288"/>
+    <hyperlink ref="C290" r:id="rId289"/>
+    <hyperlink ref="C291" r:id="rId290"/>
+    <hyperlink ref="C292" r:id="rId291"/>
+    <hyperlink ref="C293" r:id="rId292"/>
+    <hyperlink ref="C294" r:id="rId293"/>
+    <hyperlink ref="C295" r:id="rId294"/>
+    <hyperlink ref="C296" r:id="rId295"/>
+    <hyperlink ref="C297" r:id="rId296"/>
+    <hyperlink ref="C298" r:id="rId297"/>
+    <hyperlink ref="C299" r:id="rId298"/>
+    <hyperlink ref="C300" r:id="rId299"/>
+    <hyperlink ref="C301" r:id="rId300"/>
+    <hyperlink ref="C302" r:id="rId301"/>
+    <hyperlink ref="C303" r:id="rId302"/>
+    <hyperlink ref="C304" r:id="rId303"/>
+    <hyperlink ref="C305" r:id="rId304"/>
+    <hyperlink ref="C306" r:id="rId305"/>
+    <hyperlink ref="C307" r:id="rId306"/>
+    <hyperlink ref="C308" r:id="rId307"/>
+    <hyperlink ref="C309" r:id="rId308"/>
+    <hyperlink ref="C310" r:id="rId309"/>
+    <hyperlink ref="C311" r:id="rId310"/>
+    <hyperlink ref="C312" r:id="rId311"/>
+    <hyperlink ref="C313" r:id="rId312"/>
+    <hyperlink ref="C314" r:id="rId313"/>
+    <hyperlink ref="C315" r:id="rId314"/>
+    <hyperlink ref="C316" r:id="rId315"/>
+    <hyperlink ref="C317" r:id="rId316"/>
+    <hyperlink ref="C318" r:id="rId317"/>
+    <hyperlink ref="C319" r:id="rId318"/>
+    <hyperlink ref="C320" r:id="rId319"/>
+    <hyperlink ref="C321" r:id="rId320"/>
+    <hyperlink ref="C322" r:id="rId321"/>
+    <hyperlink ref="C323" r:id="rId322"/>
+    <hyperlink ref="C324" r:id="rId323"/>
+    <hyperlink ref="C325" r:id="rId324"/>
+    <hyperlink ref="C326" r:id="rId325"/>
+    <hyperlink ref="C327" r:id="rId326"/>
+    <hyperlink ref="C328" r:id="rId327"/>
+    <hyperlink ref="C329" r:id="rId328"/>
+    <hyperlink ref="C330" r:id="rId329"/>
+    <hyperlink ref="C331" r:id="rId330"/>
+    <hyperlink ref="C332" r:id="rId331"/>
+    <hyperlink ref="C333" r:id="rId332"/>
+    <hyperlink ref="C334" r:id="rId333"/>
+    <hyperlink ref="C335" r:id="rId334"/>
+    <hyperlink ref="C336" r:id="rId335"/>
+    <hyperlink ref="C337" r:id="rId336"/>
+    <hyperlink ref="C338" r:id="rId337"/>
+    <hyperlink ref="C339" r:id="rId338"/>
+    <hyperlink ref="C340" r:id="rId339"/>
+    <hyperlink ref="C341" r:id="rId340"/>
+    <hyperlink ref="C342" r:id="rId341"/>
+    <hyperlink ref="C343" r:id="rId342"/>
+    <hyperlink ref="C344" r:id="rId343"/>
+    <hyperlink ref="C345" r:id="rId344"/>
+    <hyperlink ref="C346" r:id="rId345"/>
+    <hyperlink ref="C347" r:id="rId346"/>
+    <hyperlink ref="C348" r:id="rId347"/>
+    <hyperlink ref="C349" r:id="rId348"/>
+    <hyperlink ref="C350" r:id="rId349"/>
+    <hyperlink ref="C351" r:id="rId350"/>
+    <hyperlink ref="C352" r:id="rId351"/>
+    <hyperlink ref="C353" r:id="rId352"/>
+    <hyperlink ref="C354" r:id="rId353"/>
+    <hyperlink ref="C355" r:id="rId354"/>
+    <hyperlink ref="C356" r:id="rId355"/>
+    <hyperlink ref="C357" r:id="rId356"/>
+    <hyperlink ref="C358" r:id="rId357"/>
+    <hyperlink ref="C359" r:id="rId358"/>
+    <hyperlink ref="C360" r:id="rId359"/>
+    <hyperlink ref="C361" r:id="rId360"/>
+    <hyperlink ref="C362" r:id="rId361"/>
+    <hyperlink ref="C363" r:id="rId362"/>
+    <hyperlink ref="C364" r:id="rId363"/>
+    <hyperlink ref="C365" r:id="rId364"/>
+    <hyperlink ref="C366" r:id="rId365"/>
+    <hyperlink ref="C367" r:id="rId366"/>
+    <hyperlink ref="C368" r:id="rId367"/>
+    <hyperlink ref="C369" r:id="rId368"/>
+    <hyperlink ref="C370" r:id="rId369"/>
+    <hyperlink ref="C371" r:id="rId370"/>
+    <hyperlink ref="C372" r:id="rId371"/>
+    <hyperlink ref="C373" r:id="rId372"/>
+    <hyperlink ref="C374" r:id="rId373"/>
+    <hyperlink ref="C375" r:id="rId374"/>
+    <hyperlink ref="C376" r:id="rId375"/>
+    <hyperlink ref="C377" r:id="rId376"/>
+    <hyperlink ref="C378" r:id="rId377"/>
+    <hyperlink ref="C379" r:id="rId378"/>
+    <hyperlink ref="C380" r:id="rId379"/>
+    <hyperlink ref="C381" r:id="rId380"/>
+    <hyperlink ref="C382" r:id="rId381"/>
+    <hyperlink ref="C383" r:id="rId382"/>
+    <hyperlink ref="C384" r:id="rId383"/>
+    <hyperlink ref="C385" r:id="rId384"/>
+    <hyperlink ref="C386" r:id="rId385"/>
+    <hyperlink ref="C387" r:id="rId386"/>
+    <hyperlink ref="C388" r:id="rId387"/>
+    <hyperlink ref="C389" r:id="rId388"/>
+    <hyperlink ref="C390" r:id="rId389"/>
+    <hyperlink ref="C391" r:id="rId390"/>
+    <hyperlink ref="C392" r:id="rId391"/>
+    <hyperlink ref="C393" r:id="rId392"/>
+    <hyperlink ref="C394" r:id="rId393"/>
+    <hyperlink ref="C395" r:id="rId394"/>
+    <hyperlink ref="C396" r:id="rId395"/>
+    <hyperlink ref="C397" r:id="rId396"/>
+    <hyperlink ref="C398" r:id="rId397"/>
+    <hyperlink ref="C399" r:id="rId398"/>
+    <hyperlink ref="C400" r:id="rId399"/>
+    <hyperlink ref="C401" r:id="rId400"/>
+    <hyperlink ref="C402" r:id="rId401"/>
+    <hyperlink ref="C403" r:id="rId402"/>
+    <hyperlink ref="C404" r:id="rId403"/>
+    <hyperlink ref="C405" r:id="rId404"/>
+    <hyperlink ref="C406" r:id="rId405"/>
+    <hyperlink ref="C407" r:id="rId406"/>
+    <hyperlink ref="C408" r:id="rId407"/>
+    <hyperlink ref="C409" r:id="rId408"/>
+    <hyperlink ref="C410" r:id="rId409"/>
+    <hyperlink ref="C411" r:id="rId410"/>
+    <hyperlink ref="C412" r:id="rId411"/>
+    <hyperlink ref="C413" r:id="rId412"/>
+    <hyperlink ref="C414" r:id="rId413"/>
+    <hyperlink ref="C415" r:id="rId414"/>
+    <hyperlink ref="C416" r:id="rId415"/>
+    <hyperlink ref="C417" r:id="rId416"/>
+    <hyperlink ref="C418" r:id="rId417"/>
+    <hyperlink ref="C419" r:id="rId418"/>
+    <hyperlink ref="C420" r:id="rId419"/>
+    <hyperlink ref="C421" r:id="rId420"/>
+    <hyperlink ref="C422" r:id="rId421"/>
+    <hyperlink ref="C423" r:id="rId422"/>
+    <hyperlink ref="C424" r:id="rId423"/>
+    <hyperlink ref="C425" r:id="rId424"/>
+    <hyperlink ref="C426" r:id="rId425"/>
+    <hyperlink ref="C427" r:id="rId426"/>
+    <hyperlink ref="C428" r:id="rId427"/>
+    <hyperlink ref="C429" r:id="rId428"/>
+    <hyperlink ref="C430" r:id="rId429"/>
+    <hyperlink ref="C431" r:id="rId430"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
